--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,19 +9,49 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$J$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <x:si>
-    <x:t xml:space="preserve"> 東　啓生 様</x:t>
-  </x:si>
-  <x:si>
-    <x:t>狛江市東和泉 一ー三十ー五</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <x:si>
+    <x:t>\</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理番号 : 081662</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〒 106-0032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中11区13側45番</x:t>
+  </x:si>
+  <x:si>
+    <x:t>港区六本木</x:t>
+  </x:si>
+  <x:si>
+    <x:t>面積 : 1.2 ㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>１－９－３５六本木ビュータワー４０１</x:t>
+  </x:si>
+  <x:si>
+    <x:t>あいうえお</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 港区六本木１－９－３５六</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 本木ビュータワー４０１あ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>八木　康宏 様</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> いうえお</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -31,7 +61,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="5">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -43,28 +73,21 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
+      <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="48"/>
+      <x:sz val="9"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="30"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -95,23 +118,17 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -124,24 +141,24 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -439,185 +456,272 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U14"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
-    <x:col min="3" max="5" width="3.420625" style="1" customWidth="1"/>
-    <x:col min="6" max="9" width="3.570625" style="1" customWidth="1"/>
-    <x:col min="10" max="10" width="2.140625" style="1" customWidth="1"/>
-    <x:col min="11" max="11" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="8.000625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="4.420625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.850625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="8.280625" style="0" customWidth="1"/>
+    <x:col min="4" max="11" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="8.000625" style="0" customWidth="1"/>
     <x:col min="13" max="20" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="21" max="21" width="1.020625" style="1" customWidth="1"/>
+    <x:col min="21" max="21" width="1.020625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:21" customFormat="1" ht="101.25" customHeight="1"/>
-    <x:row r="2" spans="1:21" customFormat="1" ht="38.25" customHeight="1">
-      <x:c r="C2" s="2" t="n">
+    <x:row r="1" spans="1:21" s="0" customFormat="1" ht="279" customHeight="1">
+      <x:c r="B1" s="1" t="s"/>
+      <x:c r="D1" s="1" t="s"/>
+      <x:c r="E1" s="1" t="s"/>
+      <x:c r="F1" s="1" t="s"/>
+      <x:c r="G1" s="1" t="s"/>
+      <x:c r="H1" s="1" t="s"/>
+      <x:c r="I1" s="1" t="s"/>
+      <x:c r="J1" s="1" t="s"/>
+      <x:c r="K1" s="1" t="s"/>
+      <x:c r="M1" s="1" t="s"/>
+      <x:c r="N1" s="1" t="s"/>
+      <x:c r="O1" s="1" t="s"/>
+      <x:c r="P1" s="1" t="s"/>
+      <x:c r="Q1" s="1" t="s"/>
+      <x:c r="R1" s="1" t="s"/>
+      <x:c r="S1" s="1" t="s"/>
+      <x:c r="T1" s="1" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:21" s="0" customFormat="1" ht="172.5" customHeight="1">
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="D2" s="1" t="s"/>
+      <x:c r="E2" s="1" t="s"/>
+      <x:c r="F2" s="1" t="s"/>
+      <x:c r="G2" s="1" t="s"/>
+      <x:c r="H2" s="1" t="s"/>
+      <x:c r="I2" s="1" t="s"/>
+      <x:c r="J2" s="1" t="s"/>
+      <x:c r="K2" s="1" t="s"/>
+      <x:c r="M2" s="1" t="s"/>
+      <x:c r="N2" s="1" t="s"/>
+      <x:c r="O2" s="1" t="s"/>
+      <x:c r="P2" s="1" t="s"/>
+      <x:c r="Q2" s="1" t="s"/>
+      <x:c r="R2" s="1" t="s"/>
+      <x:c r="S2" s="1" t="s"/>
+      <x:c r="T2" s="1" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
+      <x:c r="D3" s="2" t="s"/>
+      <x:c r="E3" s="2" t="s"/>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B4" s="1" t="s"/>
+      <x:c r="D4" s="1" t="s"/>
+      <x:c r="E4" s="1" t="s"/>
+      <x:c r="F4" s="1" t="s"/>
+      <x:c r="G4" s="1" t="s"/>
+      <x:c r="H4" s="1" t="s"/>
+      <x:c r="I4" s="1" t="s"/>
+      <x:c r="J4" s="1" t="s"/>
+      <x:c r="K4" s="1" t="s"/>
+      <x:c r="M4" s="1" t="s"/>
+      <x:c r="N4" s="1" t="s"/>
+      <x:c r="O4" s="1" t="s"/>
+      <x:c r="P4" s="1" t="s"/>
+      <x:c r="Q4" s="1" t="s"/>
+      <x:c r="R4" s="1" t="s"/>
+      <x:c r="S4" s="1" t="s"/>
+      <x:c r="T4" s="1" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B5" s="1" t="s"/>
+      <x:c r="D5" s="1" t="s"/>
+      <x:c r="E5" s="1" t="s"/>
+      <x:c r="F5" s="1" t="s"/>
+      <x:c r="G5" s="1" t="s"/>
+      <x:c r="H5" s="1" t="s"/>
+      <x:c r="I5" s="1" t="s"/>
+      <x:c r="J5" s="1" t="s"/>
+      <x:c r="K5" s="1" t="s"/>
+      <x:c r="M5" s="1" t="s"/>
+      <x:c r="N5" s="1" t="s"/>
+      <x:c r="O5" s="1" t="s"/>
+      <x:c r="P5" s="1" t="s"/>
+      <x:c r="Q5" s="1" t="s"/>
+      <x:c r="R5" s="1" t="s"/>
+      <x:c r="S5" s="1" t="s"/>
+      <x:c r="T5" s="1" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="D6" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E6" s="3" t="s"/>
+      <x:c r="F6" s="3" t="s"/>
+      <x:c r="G6" s="3" t="s"/>
+      <x:c r="H6" s="3" t="s"/>
+      <x:c r="I6" s="3" t="s"/>
+      <x:c r="J6" s="3" t="s"/>
+      <x:c r="K6" s="3" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B7" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="n">
+      <x:c r="D7" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s"/>
+      <x:c r="F7" s="3" t="s"/>
+      <x:c r="G7" s="3" t="s"/>
+      <x:c r="H7" s="3" t="s"/>
+      <x:c r="I7" s="3" t="s"/>
+      <x:c r="J7" s="3" t="s"/>
+      <x:c r="K7" s="3" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B8" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s"/>
+      <x:c r="F8" s="3" t="s"/>
+      <x:c r="G8" s="3" t="s"/>
+      <x:c r="H8" s="3" t="s"/>
+      <x:c r="I8" s="3" t="s"/>
+      <x:c r="J8" s="3" t="s"/>
+      <x:c r="K8" s="3" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B9" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="s"/>
+      <x:c r="E9" s="3" t="s"/>
+      <x:c r="F9" s="3" t="s"/>
+      <x:c r="G9" s="3" t="s"/>
+      <x:c r="H9" s="3" t="s"/>
+      <x:c r="I9" s="3" t="s"/>
+      <x:c r="J9" s="3" t="s"/>
+      <x:c r="K9" s="3" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="2" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I2" s="2" t="n">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:21" customFormat="1" ht="14.25" customHeight="1">
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="D3" s="3" t="s"/>
-      <x:c r="E3" s="3" t="s"/>
-      <x:c r="F3" s="3" t="s"/>
-      <x:c r="G3" s="3" t="s"/>
-      <x:c r="H3" s="3" t="s"/>
-      <x:c r="I3" s="3" t="s"/>
-      <x:c r="J3" s="3" t="s"/>
-      <x:c r="K3" s="3" t="s"/>
-      <x:c r="M3" s="3" t="s"/>
-      <x:c r="N3" s="3" t="s"/>
-      <x:c r="O3" s="3" t="s"/>
-      <x:c r="P3" s="3" t="s"/>
-      <x:c r="Q3" s="3" t="s"/>
-      <x:c r="R3" s="3" t="s"/>
-      <x:c r="S3" s="3" t="s"/>
-      <x:c r="T3" s="3" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:21" customFormat="1" ht="409.5" customHeight="1">
-      <x:c r="B4" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s"/>
-      <x:c r="F4" s="5" t="s"/>
-      <x:c r="G4" s="5" t="s"/>
-      <x:c r="H4" s="6" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I4" s="6" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:21" customFormat="1" ht="133.5" customHeight="1">
-      <x:c r="B5" s="4" t="s"/>
-      <x:c r="C5" s="4" t="s"/>
-      <x:c r="F5" s="5" t="s"/>
-      <x:c r="G5" s="5" t="s"/>
-      <x:c r="H5" s="6" t="s"/>
-      <x:c r="I5" s="6" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:21" customFormat="1" ht="36" customHeight="1">
-      <x:c r="B6" s="3" t="s"/>
-      <x:c r="M6" s="3" t="s"/>
-      <x:c r="N6" s="3" t="s"/>
-      <x:c r="O6" s="3" t="s"/>
-      <x:c r="P6" s="3" t="s"/>
-      <x:c r="Q6" s="3" t="s"/>
-      <x:c r="R6" s="3" t="s"/>
-      <x:c r="S6" s="3" t="s"/>
-      <x:c r="T6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B7" s="3" t="s"/>
-      <x:c r="M7" s="3" t="s"/>
-      <x:c r="N7" s="3" t="s"/>
-      <x:c r="O7" s="3" t="s"/>
-      <x:c r="P7" s="3" t="s"/>
-      <x:c r="Q7" s="3" t="s"/>
-      <x:c r="R7" s="3" t="s"/>
-      <x:c r="S7" s="3" t="s"/>
-      <x:c r="T7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B8" s="3" t="s"/>
-      <x:c r="M8" s="3" t="s"/>
-      <x:c r="N8" s="3" t="s"/>
-      <x:c r="O8" s="3" t="s"/>
-      <x:c r="P8" s="3" t="s"/>
-      <x:c r="Q8" s="3" t="s"/>
-      <x:c r="R8" s="3" t="s"/>
-      <x:c r="S8" s="3" t="s"/>
-      <x:c r="T8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B9" s="3" t="s"/>
-      <x:c r="M9" s="3" t="s"/>
-      <x:c r="N9" s="3" t="s"/>
-      <x:c r="O9" s="3" t="s"/>
-      <x:c r="P9" s="3" t="s"/>
-      <x:c r="Q9" s="3" t="s"/>
-      <x:c r="R9" s="3" t="s"/>
-      <x:c r="S9" s="3" t="s"/>
-      <x:c r="T9" s="3" t="s"/>
     </x:row>
     <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B10" s="3" t="s"/>
+      <x:c r="B10" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D10" s="3" t="s"/>
+      <x:c r="E10" s="3" t="s"/>
+      <x:c r="F10" s="3" t="s"/>
+      <x:c r="G10" s="3" t="s"/>
+      <x:c r="H10" s="3" t="s"/>
+      <x:c r="I10" s="3" t="s"/>
+      <x:c r="J10" s="3" t="s"/>
+      <x:c r="K10" s="3" t="s"/>
+      <x:c r="M10" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N10" s="5" t="s"/>
+      <x:c r="O10" s="5" t="s"/>
+      <x:c r="P10" s="5" t="s"/>
+      <x:c r="Q10" s="5" t="s"/>
+      <x:c r="R10" s="5" t="s"/>
+      <x:c r="S10" s="5" t="s"/>
+      <x:c r="T10" s="5" t="s"/>
     </x:row>
     <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B11" s="3" t="s"/>
-      <x:c r="D11" s="3" t="s"/>
-      <x:c r="E11" s="3" t="s"/>
-      <x:c r="F11" s="3" t="s"/>
-      <x:c r="G11" s="3" t="s"/>
-      <x:c r="H11" s="3" t="s"/>
-      <x:c r="I11" s="3" t="s"/>
-      <x:c r="J11" s="3" t="s"/>
-      <x:c r="K11" s="3" t="s"/>
+      <x:c r="M11" s="5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="N11" s="5" t="s"/>
+      <x:c r="O11" s="5" t="s"/>
+      <x:c r="P11" s="5" t="s"/>
+      <x:c r="Q11" s="5" t="s"/>
+      <x:c r="R11" s="5" t="s"/>
+      <x:c r="S11" s="5" t="s"/>
+      <x:c r="T11" s="5" t="s"/>
     </x:row>
     <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B12" s="3" t="s"/>
-      <x:c r="D12" s="3" t="s"/>
-      <x:c r="E12" s="3" t="s"/>
-      <x:c r="F12" s="3" t="s"/>
-      <x:c r="G12" s="3" t="s"/>
-      <x:c r="H12" s="3" t="s"/>
-      <x:c r="I12" s="3" t="s"/>
-      <x:c r="J12" s="3" t="s"/>
-      <x:c r="K12" s="3" t="s"/>
+      <x:c r="B12" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="M12" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N12" s="5" t="s"/>
+      <x:c r="O12" s="5" t="s"/>
+      <x:c r="P12" s="5" t="s"/>
+      <x:c r="Q12" s="5" t="s"/>
+      <x:c r="R12" s="5" t="s"/>
+      <x:c r="S12" s="5" t="s"/>
+      <x:c r="T12" s="5" t="s"/>
     </x:row>
     <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B13" s="3" t="s"/>
-      <x:c r="D13" s="3" t="s"/>
-      <x:c r="E13" s="3" t="s"/>
-      <x:c r="F13" s="3" t="s"/>
-      <x:c r="G13" s="3" t="s"/>
-      <x:c r="H13" s="3" t="s"/>
-      <x:c r="I13" s="3" t="s"/>
-      <x:c r="J13" s="3" t="s"/>
-      <x:c r="K13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:21" customFormat="1" ht="101.25" customHeight="1"/>
+      <x:c r="M13" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N13" s="3" t="s"/>
+      <x:c r="O13" s="3" t="s"/>
+      <x:c r="P13" s="3" t="s"/>
+      <x:c r="Q13" s="3" t="s"/>
+      <x:c r="R13" s="3" t="s"/>
+      <x:c r="S13" s="3" t="s"/>
+      <x:c r="T13" s="3" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:21" s="0" customFormat="1" ht="101.25" customHeight="1">
+      <x:c r="B14" s="1" t="s"/>
+      <x:c r="D14" s="1" t="s"/>
+      <x:c r="E14" s="1" t="s"/>
+      <x:c r="F14" s="1" t="s"/>
+      <x:c r="G14" s="1" t="s"/>
+      <x:c r="H14" s="1" t="s"/>
+      <x:c r="I14" s="1" t="s"/>
+      <x:c r="J14" s="1" t="s"/>
+      <x:c r="K14" s="1" t="s"/>
+      <x:c r="M14" s="1" t="s"/>
+      <x:c r="N14" s="1" t="s"/>
+      <x:c r="O14" s="1" t="s"/>
+      <x:c r="P14" s="1" t="s"/>
+      <x:c r="Q14" s="1" t="s"/>
+      <x:c r="R14" s="1" t="s"/>
+      <x:c r="S14" s="1" t="s"/>
+      <x:c r="T14" s="1" t="s"/>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="3">
-    <x:mergeCell ref="H4:I5"/>
-    <x:mergeCell ref="F4:G5"/>
-    <x:mergeCell ref="B4:C5"/>
+  <x:mergeCells count="9">
+    <x:mergeCell ref="D6:K6"/>
+    <x:mergeCell ref="D7:K7"/>
+    <x:mergeCell ref="D8:K8"/>
+    <x:mergeCell ref="D9:K9"/>
+    <x:mergeCell ref="D10:K10"/>
+    <x:mergeCell ref="M10:T10"/>
+    <x:mergeCell ref="M11:T11"/>
+    <x:mergeCell ref="M12:T12"/>
+    <x:mergeCell ref="M13:T13"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,49 +9,22 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$F$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <x:si>
-    <x:t>\</x:t>
+    <x:t>〒211-0051</x:t>
   </x:si>
   <x:si>
-    <x:t>管理番号 : 081662</x:t>
+    <x:t>川崎市中原区宮内四ー三ー六</x:t>
   </x:si>
   <x:si>
-    <x:t>〒 106-0032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>中11区13側45番</x:t>
-  </x:si>
-  <x:si>
-    <x:t>港区六本木</x:t>
-  </x:si>
-  <x:si>
-    <x:t>面積 : 1.2 ㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>１－９－３５六本木ビュータワー４０１</x:t>
-  </x:si>
-  <x:si>
-    <x:t>あいうえお</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 港区六本木１－９－３５六</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 本木ビュータワー４０１あ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>八木　康宏 様</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> いうえお</x:t>
+    <x:t>(株)カワセイ御中</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -61,7 +34,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="5">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -73,21 +46,28 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
+      <x:sz val="36"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="9"/>
+      <x:sz val="43"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="HGP行書体"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="74"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -118,17 +98,23 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -141,24 +127,24 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -456,272 +442,157 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:U14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="4.420625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.850625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.280625" style="0" customWidth="1"/>
-    <x:col min="4" max="11" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="8.000625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="46.000625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
+    <x:col min="4" max="5" width="10.280625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="9.280625" style="1" customWidth="1"/>
+    <x:col min="7" max="11" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="8.000625" style="1" customWidth="1"/>
     <x:col min="13" max="20" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="21" max="21" width="1.020625" style="0" customWidth="1"/>
+    <x:col min="21" max="21" width="1.020625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:21" s="0" customFormat="1" ht="279" customHeight="1">
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="D1" s="1" t="s"/>
-      <x:c r="E1" s="1" t="s"/>
-      <x:c r="F1" s="1" t="s"/>
-      <x:c r="G1" s="1" t="s"/>
-      <x:c r="H1" s="1" t="s"/>
-      <x:c r="I1" s="1" t="s"/>
-      <x:c r="J1" s="1" t="s"/>
-      <x:c r="K1" s="1" t="s"/>
-      <x:c r="M1" s="1" t="s"/>
-      <x:c r="N1" s="1" t="s"/>
-      <x:c r="O1" s="1" t="s"/>
-      <x:c r="P1" s="1" t="s"/>
-      <x:c r="Q1" s="1" t="s"/>
-      <x:c r="R1" s="1" t="s"/>
-      <x:c r="S1" s="1" t="s"/>
-      <x:c r="T1" s="1" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:21" s="0" customFormat="1" ht="172.5" customHeight="1">
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="D2" s="1" t="s"/>
-      <x:c r="E2" s="1" t="s"/>
-      <x:c r="F2" s="1" t="s"/>
-      <x:c r="G2" s="1" t="s"/>
-      <x:c r="H2" s="1" t="s"/>
-      <x:c r="I2" s="1" t="s"/>
-      <x:c r="J2" s="1" t="s"/>
-      <x:c r="K2" s="1" t="s"/>
-      <x:c r="M2" s="1" t="s"/>
-      <x:c r="N2" s="1" t="s"/>
-      <x:c r="O2" s="1" t="s"/>
-      <x:c r="P2" s="1" t="s"/>
-      <x:c r="Q2" s="1" t="s"/>
-      <x:c r="R2" s="1" t="s"/>
-      <x:c r="S2" s="1" t="s"/>
-      <x:c r="T2" s="1" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
-      <x:c r="D3" s="2" t="s"/>
-      <x:c r="E3" s="2" t="s"/>
-      <x:c r="F3" s="2" t="s"/>
-      <x:c r="G3" s="2" t="s"/>
-      <x:c r="H3" s="2" t="s"/>
-      <x:c r="I3" s="2" t="s"/>
-      <x:c r="J3" s="2" t="s"/>
-      <x:c r="K3" s="2" t="s">
+    <x:row r="1" spans="1:21" customFormat="1" ht="120" customHeight="1"/>
+    <x:row r="2" spans="1:21" customFormat="1" ht="50.25" customHeight="1">
+      <x:c r="C2" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
-      <x:c r="E4" s="1" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
-      <x:c r="G4" s="1" t="s"/>
-      <x:c r="H4" s="1" t="s"/>
-      <x:c r="I4" s="1" t="s"/>
-      <x:c r="J4" s="1" t="s"/>
-      <x:c r="K4" s="1" t="s"/>
-      <x:c r="M4" s="1" t="s"/>
-      <x:c r="N4" s="1" t="s"/>
-      <x:c r="O4" s="1" t="s"/>
-      <x:c r="P4" s="1" t="s"/>
-      <x:c r="Q4" s="1" t="s"/>
-      <x:c r="R4" s="1" t="s"/>
-      <x:c r="S4" s="1" t="s"/>
-      <x:c r="T4" s="1" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B5" s="1" t="s"/>
-      <x:c r="D5" s="1" t="s"/>
-      <x:c r="E5" s="1" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
-      <x:c r="G5" s="1" t="s"/>
-      <x:c r="H5" s="1" t="s"/>
-      <x:c r="I5" s="1" t="s"/>
-      <x:c r="J5" s="1" t="s"/>
-      <x:c r="K5" s="1" t="s"/>
-      <x:c r="M5" s="1" t="s"/>
-      <x:c r="N5" s="1" t="s"/>
-      <x:c r="O5" s="1" t="s"/>
-      <x:c r="P5" s="1" t="s"/>
-      <x:c r="Q5" s="1" t="s"/>
-      <x:c r="R5" s="1" t="s"/>
-      <x:c r="S5" s="1" t="s"/>
-      <x:c r="T5" s="1" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="D6" s="3" t="s">
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:21" customFormat="1" ht="61.5" customHeight="1">
+      <x:c r="B3" s="3" t="s"/>
+      <x:c r="D3" s="3" t="s"/>
+      <x:c r="E3" s="3" t="s"/>
+      <x:c r="F3" s="3" t="s"/>
+      <x:c r="G3" s="3" t="s"/>
+      <x:c r="H3" s="3" t="s"/>
+      <x:c r="I3" s="3" t="s"/>
+      <x:c r="J3" s="3" t="s"/>
+      <x:c r="K3" s="3" t="s"/>
+      <x:c r="M3" s="3" t="s"/>
+      <x:c r="N3" s="3" t="s"/>
+      <x:c r="O3" s="3" t="s"/>
+      <x:c r="P3" s="3" t="s"/>
+      <x:c r="Q3" s="3" t="s"/>
+      <x:c r="R3" s="3" t="s"/>
+      <x:c r="S3" s="3" t="s"/>
+      <x:c r="T3" s="3" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:21" customFormat="1" ht="61.5" customHeight="1">
+      <x:c r="D4" s="4" t="s"/>
+      <x:c r="E4" s="5" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E6" s="3" t="s"/>
-      <x:c r="F6" s="3" t="s"/>
-      <x:c r="G6" s="3" t="s"/>
-      <x:c r="H6" s="3" t="s"/>
-      <x:c r="I6" s="3" t="s"/>
-      <x:c r="J6" s="3" t="s"/>
-      <x:c r="K6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B7" s="4" t="s">
+    </x:row>
+    <x:row r="5" spans="1:21" customFormat="1" ht="409.5" customHeight="1">
+      <x:c r="B5" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="s"/>
-      <x:c r="F7" s="3" t="s"/>
-      <x:c r="G7" s="3" t="s"/>
-      <x:c r="H7" s="3" t="s"/>
-      <x:c r="I7" s="3" t="s"/>
-      <x:c r="J7" s="3" t="s"/>
-      <x:c r="K7" s="3" t="s"/>
+      <x:c r="D5" s="4" t="s"/>
+      <x:c r="E5" s="5" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:21" customFormat="1" ht="279" customHeight="1">
+      <x:c r="B6" s="6" t="s"/>
+      <x:c r="D6" s="4" t="s"/>
+      <x:c r="E6" s="5" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:21" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="B7" s="3" t="s"/>
+      <x:c r="M7" s="3" t="s"/>
+      <x:c r="N7" s="3" t="s"/>
+      <x:c r="O7" s="3" t="s"/>
+      <x:c r="P7" s="3" t="s"/>
+      <x:c r="Q7" s="3" t="s"/>
+      <x:c r="R7" s="3" t="s"/>
+      <x:c r="S7" s="3" t="s"/>
+      <x:c r="T7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B8" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="s"/>
-      <x:c r="F8" s="3" t="s"/>
-      <x:c r="G8" s="3" t="s"/>
-      <x:c r="H8" s="3" t="s"/>
-      <x:c r="I8" s="3" t="s"/>
-      <x:c r="J8" s="3" t="s"/>
-      <x:c r="K8" s="3" t="s"/>
+      <x:c r="B8" s="3" t="s"/>
+      <x:c r="M8" s="3" t="s"/>
+      <x:c r="N8" s="3" t="s"/>
+      <x:c r="O8" s="3" t="s"/>
+      <x:c r="P8" s="3" t="s"/>
+      <x:c r="Q8" s="3" t="s"/>
+      <x:c r="R8" s="3" t="s"/>
+      <x:c r="S8" s="3" t="s"/>
+      <x:c r="T8" s="3" t="s"/>
     </x:row>
     <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B9" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s"/>
-      <x:c r="E9" s="3" t="s"/>
-      <x:c r="F9" s="3" t="s"/>
-      <x:c r="G9" s="3" t="s"/>
-      <x:c r="H9" s="3" t="s"/>
-      <x:c r="I9" s="3" t="s"/>
-      <x:c r="J9" s="3" t="s"/>
-      <x:c r="K9" s="3" t="s"/>
-      <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s"/>
-      <x:c r="P9" s="2" t="s"/>
-      <x:c r="Q9" s="2" t="s"/>
-      <x:c r="R9" s="2" t="s"/>
-      <x:c r="S9" s="2" t="s"/>
-      <x:c r="T9" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="B9" s="3" t="s"/>
+      <x:c r="M9" s="3" t="s"/>
+      <x:c r="N9" s="3" t="s"/>
+      <x:c r="O9" s="3" t="s"/>
+      <x:c r="P9" s="3" t="s"/>
+      <x:c r="Q9" s="3" t="s"/>
+      <x:c r="R9" s="3" t="s"/>
+      <x:c r="S9" s="3" t="s"/>
+      <x:c r="T9" s="3" t="s"/>
     </x:row>
     <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B10" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s"/>
-      <x:c r="F10" s="3" t="s"/>
-      <x:c r="G10" s="3" t="s"/>
-      <x:c r="H10" s="3" t="s"/>
-      <x:c r="I10" s="3" t="s"/>
-      <x:c r="J10" s="3" t="s"/>
-      <x:c r="K10" s="3" t="s"/>
-      <x:c r="M10" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="N10" s="5" t="s"/>
-      <x:c r="O10" s="5" t="s"/>
-      <x:c r="P10" s="5" t="s"/>
-      <x:c r="Q10" s="5" t="s"/>
-      <x:c r="R10" s="5" t="s"/>
-      <x:c r="S10" s="5" t="s"/>
-      <x:c r="T10" s="5" t="s"/>
+      <x:c r="B10" s="3" t="s"/>
     </x:row>
     <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M11" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="N11" s="5" t="s"/>
-      <x:c r="O11" s="5" t="s"/>
-      <x:c r="P11" s="5" t="s"/>
-      <x:c r="Q11" s="5" t="s"/>
-      <x:c r="R11" s="5" t="s"/>
-      <x:c r="S11" s="5" t="s"/>
-      <x:c r="T11" s="5" t="s"/>
+      <x:c r="B11" s="3" t="s"/>
+      <x:c r="D11" s="3" t="s"/>
+      <x:c r="E11" s="3" t="s"/>
+      <x:c r="F11" s="3" t="s"/>
+      <x:c r="G11" s="3" t="s"/>
+      <x:c r="H11" s="3" t="s"/>
+      <x:c r="I11" s="3" t="s"/>
+      <x:c r="J11" s="3" t="s"/>
+      <x:c r="K11" s="3" t="s"/>
     </x:row>
     <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B12" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="M12" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="N12" s="5" t="s"/>
-      <x:c r="O12" s="5" t="s"/>
-      <x:c r="P12" s="5" t="s"/>
-      <x:c r="Q12" s="5" t="s"/>
-      <x:c r="R12" s="5" t="s"/>
-      <x:c r="S12" s="5" t="s"/>
-      <x:c r="T12" s="5" t="s"/>
+      <x:c r="B12" s="3" t="s"/>
+      <x:c r="D12" s="3" t="s"/>
+      <x:c r="E12" s="3" t="s"/>
+      <x:c r="F12" s="3" t="s"/>
+      <x:c r="G12" s="3" t="s"/>
+      <x:c r="H12" s="3" t="s"/>
+      <x:c r="I12" s="3" t="s"/>
+      <x:c r="J12" s="3" t="s"/>
+      <x:c r="K12" s="3" t="s"/>
     </x:row>
     <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M13" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="N13" s="3" t="s"/>
-      <x:c r="O13" s="3" t="s"/>
-      <x:c r="P13" s="3" t="s"/>
-      <x:c r="Q13" s="3" t="s"/>
-      <x:c r="R13" s="3" t="s"/>
-      <x:c r="S13" s="3" t="s"/>
-      <x:c r="T13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:21" s="0" customFormat="1" ht="101.25" customHeight="1">
-      <x:c r="B14" s="1" t="s"/>
-      <x:c r="D14" s="1" t="s"/>
-      <x:c r="E14" s="1" t="s"/>
-      <x:c r="F14" s="1" t="s"/>
-      <x:c r="G14" s="1" t="s"/>
-      <x:c r="H14" s="1" t="s"/>
-      <x:c r="I14" s="1" t="s"/>
-      <x:c r="J14" s="1" t="s"/>
-      <x:c r="K14" s="1" t="s"/>
-      <x:c r="M14" s="1" t="s"/>
-      <x:c r="N14" s="1" t="s"/>
-      <x:c r="O14" s="1" t="s"/>
-      <x:c r="P14" s="1" t="s"/>
-      <x:c r="Q14" s="1" t="s"/>
-      <x:c r="R14" s="1" t="s"/>
-      <x:c r="S14" s="1" t="s"/>
-      <x:c r="T14" s="1" t="s"/>
-    </x:row>
+      <x:c r="B13" s="3" t="s"/>
+      <x:c r="D13" s="3" t="s"/>
+      <x:c r="E13" s="3" t="s"/>
+      <x:c r="F13" s="3" t="s"/>
+      <x:c r="G13" s="3" t="s"/>
+      <x:c r="H13" s="3" t="s"/>
+      <x:c r="I13" s="3" t="s"/>
+      <x:c r="J13" s="3" t="s"/>
+      <x:c r="K13" s="3" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:21" customFormat="1" ht="101.25" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="9">
-    <x:mergeCell ref="D6:K6"/>
-    <x:mergeCell ref="D7:K7"/>
-    <x:mergeCell ref="D8:K8"/>
-    <x:mergeCell ref="D9:K9"/>
-    <x:mergeCell ref="D10:K10"/>
-    <x:mergeCell ref="M10:T10"/>
-    <x:mergeCell ref="M11:T11"/>
-    <x:mergeCell ref="M12:T12"/>
-    <x:mergeCell ref="M13:T13"/>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="E4:E6"/>
+    <x:mergeCell ref="C2:E2"/>
+    <x:mergeCell ref="B5:B6"/>
+    <x:mergeCell ref="D4:D6"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter/>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,22 +9,25 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$F$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$B$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <x:si>
-    <x:t>〒211-0051</x:t>
+    <x:t>長　井　家</x:t>
   </x:si>
   <x:si>
-    <x:t>川崎市中原区宮内四ー三ー六</x:t>
+    <x:t>北4区3側31の1番 2.5㎡</x:t>
   </x:si>
   <x:si>
-    <x:t>(株)カワセイ御中</x:t>
+    <x:t>清掃契約</x:t>
+  </x:si>
+  <x:si>
+    <x:t>植木手入れ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -34,7 +37,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="5">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -46,28 +49,23 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="HG正楷書体-PRO"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
+      <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="36"/>
+      <x:sz val="65"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="HG正楷書体-PRO"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
+      <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="43"/>
+      <x:sz val="48"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="74"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="HG正楷書体-PRO"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -79,7 +77,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="4">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -91,6 +89,57 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -98,23 +147,26 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -127,24 +179,24 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -442,157 +494,50 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U14"/>
+  <x:dimension ref="A1:B4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="46.000625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="5" width="10.280625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="9.280625" style="1" customWidth="1"/>
-    <x:col min="7" max="11" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="8.000625" style="1" customWidth="1"/>
-    <x:col min="13" max="20" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="21" max="21" width="1.020625" style="1" customWidth="1"/>
+    <x:col min="3" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="43.570625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="52.420625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:21" customFormat="1" ht="120" customHeight="1"/>
-    <x:row r="2" spans="1:21" customFormat="1" ht="50.25" customHeight="1">
-      <x:c r="C2" s="2" t="s">
+    <x:row r="1" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s"/>
-      <x:c r="E2" s="2" t="s"/>
+      <x:c r="B1" s="3" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:21" customFormat="1" ht="61.5" customHeight="1">
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="D3" s="3" t="s"/>
-      <x:c r="E3" s="3" t="s"/>
-      <x:c r="F3" s="3" t="s"/>
-      <x:c r="G3" s="3" t="s"/>
-      <x:c r="H3" s="3" t="s"/>
-      <x:c r="I3" s="3" t="s"/>
-      <x:c r="J3" s="3" t="s"/>
-      <x:c r="K3" s="3" t="s"/>
-      <x:c r="M3" s="3" t="s"/>
-      <x:c r="N3" s="3" t="s"/>
-      <x:c r="O3" s="3" t="s"/>
-      <x:c r="P3" s="3" t="s"/>
-      <x:c r="Q3" s="3" t="s"/>
-      <x:c r="R3" s="3" t="s"/>
-      <x:c r="S3" s="3" t="s"/>
-      <x:c r="T3" s="3" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:21" customFormat="1" ht="61.5" customHeight="1">
-      <x:c r="D4" s="4" t="s"/>
-      <x:c r="E4" s="5" t="s">
+    <x:row r="2" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A2" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="B2" s="5" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:21" customFormat="1" ht="409.5" customHeight="1">
-      <x:c r="B5" s="6" t="s">
+    <x:row r="3" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
+      <x:c r="A3" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D5" s="4" t="s"/>
-      <x:c r="E5" s="5" t="s"/>
+      <x:c r="B3" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:21" customFormat="1" ht="279" customHeight="1">
-      <x:c r="B6" s="6" t="s"/>
-      <x:c r="D6" s="4" t="s"/>
-      <x:c r="E6" s="5" t="s"/>
+    <x:row r="4" spans="1:2" s="0" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A4" s="1" t="s"/>
+      <x:c r="B4" s="1" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:21" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="B7" s="3" t="s"/>
-      <x:c r="M7" s="3" t="s"/>
-      <x:c r="N7" s="3" t="s"/>
-      <x:c r="O7" s="3" t="s"/>
-      <x:c r="P7" s="3" t="s"/>
-      <x:c r="Q7" s="3" t="s"/>
-      <x:c r="R7" s="3" t="s"/>
-      <x:c r="S7" s="3" t="s"/>
-      <x:c r="T7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B8" s="3" t="s"/>
-      <x:c r="M8" s="3" t="s"/>
-      <x:c r="N8" s="3" t="s"/>
-      <x:c r="O8" s="3" t="s"/>
-      <x:c r="P8" s="3" t="s"/>
-      <x:c r="Q8" s="3" t="s"/>
-      <x:c r="R8" s="3" t="s"/>
-      <x:c r="S8" s="3" t="s"/>
-      <x:c r="T8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B9" s="3" t="s"/>
-      <x:c r="M9" s="3" t="s"/>
-      <x:c r="N9" s="3" t="s"/>
-      <x:c r="O9" s="3" t="s"/>
-      <x:c r="P9" s="3" t="s"/>
-      <x:c r="Q9" s="3" t="s"/>
-      <x:c r="R9" s="3" t="s"/>
-      <x:c r="S9" s="3" t="s"/>
-      <x:c r="T9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B10" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B11" s="3" t="s"/>
-      <x:c r="D11" s="3" t="s"/>
-      <x:c r="E11" s="3" t="s"/>
-      <x:c r="F11" s="3" t="s"/>
-      <x:c r="G11" s="3" t="s"/>
-      <x:c r="H11" s="3" t="s"/>
-      <x:c r="I11" s="3" t="s"/>
-      <x:c r="J11" s="3" t="s"/>
-      <x:c r="K11" s="3" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B12" s="3" t="s"/>
-      <x:c r="D12" s="3" t="s"/>
-      <x:c r="E12" s="3" t="s"/>
-      <x:c r="F12" s="3" t="s"/>
-      <x:c r="G12" s="3" t="s"/>
-      <x:c r="H12" s="3" t="s"/>
-      <x:c r="I12" s="3" t="s"/>
-      <x:c r="J12" s="3" t="s"/>
-      <x:c r="K12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B13" s="3" t="s"/>
-      <x:c r="D13" s="3" t="s"/>
-      <x:c r="E13" s="3" t="s"/>
-      <x:c r="F13" s="3" t="s"/>
-      <x:c r="G13" s="3" t="s"/>
-      <x:c r="H13" s="3" t="s"/>
-      <x:c r="I13" s="3" t="s"/>
-      <x:c r="J13" s="3" t="s"/>
-      <x:c r="K13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:21" customFormat="1" ht="101.25" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="4">
-    <x:mergeCell ref="E4:E6"/>
-    <x:mergeCell ref="C2:E2"/>
-    <x:mergeCell ref="B5:B6"/>
-    <x:mergeCell ref="D4:D6"/>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A1:B1"/>
+    <x:mergeCell ref="A2:B2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,25 +9,22 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$B$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$J$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <x:si>
-    <x:t>長　井　家</x:t>
+    <x:t xml:space="preserve"> 山﨑　靜世 様</x:t>
   </x:si>
   <x:si>
-    <x:t>北4区3側31の1番 2.5㎡</x:t>
+    <x:t>三ー三二ー十ー三〇三グランダ世田谷上町</x:t>
   </x:si>
   <x:si>
-    <x:t>清掃契約</x:t>
-  </x:si>
-  <x:si>
-    <x:t>植木手入れ</x:t>
+    <x:t>世田谷区桜</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -37,7 +34,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="6">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -49,35 +46,52 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HG正楷書体-PRO"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
-      <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="65"/>
+      <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HG正楷書体-PRO"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
-      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="16"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="HGP行書体"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="48"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HG正楷書体-PRO"/>
+      <x:name val="HGP行書体"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="30"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="4">
+  <x:borders count="1">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -95,57 +109,6 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
   </x:borders>
   <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -154,19 +117,19 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -179,24 +142,24 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -494,50 +457,196 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B4"/>
+  <x:dimension ref="A1:U14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="3" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="43.570625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="52.420625" style="1" customWidth="1"/>
+    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
+    <x:col min="3" max="5" width="3.420625" style="1" customWidth="1"/>
+    <x:col min="6" max="9" width="3.570625" style="1" customWidth="1"/>
+    <x:col min="10" max="10" width="2.140625" style="1" customWidth="1"/>
+    <x:col min="11" max="11" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="8.000625" style="1" customWidth="1"/>
+    <x:col min="13" max="20" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="21" max="21" width="1.020625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
-      <x:c r="A1" s="2" t="s">
+    <x:row r="1" spans="1:21" customFormat="1" ht="101.25" customHeight="1"/>
+    <x:row r="2" spans="1:21" customFormat="1" ht="38.25" customHeight="1">
+      <x:c r="C2" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E2" s="3" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A2" s="4" t="s">
+      <x:c r="G2" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I2" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:21" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <x:c r="A3" s="2" t="s"/>
+      <x:c r="B3" s="1" t="s"/>
+      <x:c r="D3" s="1" t="s"/>
+      <x:c r="E3" s="1" t="s"/>
+      <x:c r="F3" s="1" t="s"/>
+      <x:c r="G3" s="1" t="s"/>
+      <x:c r="H3" s="1" t="s"/>
+      <x:c r="I3" s="1" t="s"/>
+      <x:c r="J3" s="1" t="s"/>
+      <x:c r="K3" s="1" t="s"/>
+      <x:c r="M3" s="1" t="s"/>
+      <x:c r="N3" s="1" t="s"/>
+      <x:c r="O3" s="1" t="s"/>
+      <x:c r="P3" s="1" t="s"/>
+      <x:c r="Q3" s="1" t="s"/>
+      <x:c r="R3" s="1" t="s"/>
+      <x:c r="S3" s="1" t="s"/>
+      <x:c r="T3" s="1" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:21" customFormat="1" ht="409.5" customHeight="1">
+      <x:c r="B4" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s"/>
+      <x:c r="F4" s="5" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="5" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
-      <x:c r="A3" s="6" t="s">
+      <x:c r="G4" s="5" t="s"/>
+      <x:c r="H4" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2" s="0" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A4" s="1" t="s"/>
-      <x:c r="B4" s="1" t="s"/>
-    </x:row>
+      <x:c r="I4" s="6" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:21" customFormat="1" ht="133.5" customHeight="1">
+      <x:c r="B5" s="4" t="s"/>
+      <x:c r="C5" s="4" t="s"/>
+      <x:c r="F5" s="5" t="s"/>
+      <x:c r="G5" s="5" t="s"/>
+      <x:c r="H5" s="6" t="s"/>
+      <x:c r="I5" s="6" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:21" s="2" customFormat="1" ht="36" customHeight="1">
+      <x:c r="A6" s="2" t="s"/>
+      <x:c r="B6" s="1" t="s"/>
+      <x:c r="M6" s="1" t="s"/>
+      <x:c r="N6" s="1" t="s"/>
+      <x:c r="O6" s="1" t="s"/>
+      <x:c r="P6" s="1" t="s"/>
+      <x:c r="Q6" s="1" t="s"/>
+      <x:c r="R6" s="1" t="s"/>
+      <x:c r="S6" s="1" t="s"/>
+      <x:c r="T6" s="1" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A7" s="2" t="s"/>
+      <x:c r="B7" s="1" t="s"/>
+      <x:c r="M7" s="1" t="s"/>
+      <x:c r="N7" s="1" t="s"/>
+      <x:c r="O7" s="1" t="s"/>
+      <x:c r="P7" s="1" t="s"/>
+      <x:c r="Q7" s="1" t="s"/>
+      <x:c r="R7" s="1" t="s"/>
+      <x:c r="S7" s="1" t="s"/>
+      <x:c r="T7" s="1" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A8" s="2" t="s"/>
+      <x:c r="B8" s="1" t="s"/>
+      <x:c r="M8" s="1" t="s"/>
+      <x:c r="N8" s="1" t="s"/>
+      <x:c r="O8" s="1" t="s"/>
+      <x:c r="P8" s="1" t="s"/>
+      <x:c r="Q8" s="1" t="s"/>
+      <x:c r="R8" s="1" t="s"/>
+      <x:c r="S8" s="1" t="s"/>
+      <x:c r="T8" s="1" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A9" s="2" t="s"/>
+      <x:c r="B9" s="1" t="s"/>
+      <x:c r="M9" s="1" t="s"/>
+      <x:c r="N9" s="1" t="s"/>
+      <x:c r="O9" s="1" t="s"/>
+      <x:c r="P9" s="1" t="s"/>
+      <x:c r="Q9" s="1" t="s"/>
+      <x:c r="R9" s="1" t="s"/>
+      <x:c r="S9" s="1" t="s"/>
+      <x:c r="T9" s="1" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A10" s="2" t="s"/>
+      <x:c r="B10" s="1" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A11" s="2" t="s"/>
+      <x:c r="B11" s="1" t="s"/>
+      <x:c r="D11" s="1" t="s"/>
+      <x:c r="E11" s="1" t="s"/>
+      <x:c r="F11" s="1" t="s"/>
+      <x:c r="G11" s="1" t="s"/>
+      <x:c r="H11" s="1" t="s"/>
+      <x:c r="I11" s="1" t="s"/>
+      <x:c r="J11" s="1" t="s"/>
+      <x:c r="K11" s="1" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A12" s="2" t="s"/>
+      <x:c r="B12" s="1" t="s"/>
+      <x:c r="D12" s="1" t="s"/>
+      <x:c r="E12" s="1" t="s"/>
+      <x:c r="F12" s="1" t="s"/>
+      <x:c r="G12" s="1" t="s"/>
+      <x:c r="H12" s="1" t="s"/>
+      <x:c r="I12" s="1" t="s"/>
+      <x:c r="J12" s="1" t="s"/>
+      <x:c r="K12" s="1" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A13" s="2" t="s"/>
+      <x:c r="B13" s="1" t="s"/>
+      <x:c r="D13" s="1" t="s"/>
+      <x:c r="E13" s="1" t="s"/>
+      <x:c r="F13" s="1" t="s"/>
+      <x:c r="G13" s="1" t="s"/>
+      <x:c r="H13" s="1" t="s"/>
+      <x:c r="I13" s="1" t="s"/>
+      <x:c r="J13" s="1" t="s"/>
+      <x:c r="K13" s="1" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:21" customFormat="1" ht="101.25" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="2">
-    <x:mergeCell ref="A1:B1"/>
-    <x:mergeCell ref="A2:B2"/>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="H4:I5"/>
+    <x:mergeCell ref="F4:G5"/>
+    <x:mergeCell ref="B4:C5"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
+  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter/>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,22 +9,79 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$J$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$B$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <x:si>
-    <x:t xml:space="preserve"> 山﨑　靜世 様</x:t>
-  </x:si>
-  <x:si>
-    <x:t>三ー三二ー十ー三〇三グランダ世田谷上町</x:t>
-  </x:si>
-  <x:si>
-    <x:t>世田谷区桜</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <x:si>
+    <x:t>黒　川　家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>西4区1側31番 4㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>清掃契約</x:t>
+  </x:si>
+  <x:si>
+    <x:t>植木手入れ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>平　沼　家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>西5区1側28番 4㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>田　中　家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>北3区1側15番 4㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>東特区2側10番 12㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>草取り</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水　野　家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>東2区6側10番 5㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>河　野　家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>東2区6側19番 5㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>髙　橋　家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中1区2側15番 9㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>児　島　家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中10区4側3番 7㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>岡　家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>南5区2側24番 6㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>野　田　家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>西2区8側45番 4㎡</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -34,7 +91,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="6">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -46,52 +103,35 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="HG正楷書体-PRO"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
+      <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
+      <x:sz val="65"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="HG正楷書体-PRO"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
+      <x:b/>
       <x:vertAlign val="baseline"/>
       <x:sz val="48"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="30"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="HG正楷書体-PRO"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="2">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="4">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -103,6 +143,57 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -117,19 +208,19 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -142,24 +233,24 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -457,188 +548,253 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U14"/>
+  <x:dimension ref="A1:B40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
-    <x:col min="3" max="5" width="3.420625" style="1" customWidth="1"/>
-    <x:col min="6" max="9" width="3.570625" style="1" customWidth="1"/>
-    <x:col min="10" max="10" width="2.140625" style="1" customWidth="1"/>
-    <x:col min="11" max="11" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="8.000625" style="1" customWidth="1"/>
-    <x:col min="13" max="20" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="21" max="21" width="1.020625" style="1" customWidth="1"/>
+    <x:col min="3" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="43.570625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="52.420625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:21" customFormat="1" ht="101.25" customHeight="1"/>
-    <x:row r="2" spans="1:21" customFormat="1" ht="38.25" customHeight="1">
-      <x:c r="C2" s="3" t="n">
+    <x:row r="1" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A2" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="3" t="n">
+      <x:c r="B2" s="5" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
+      <x:c r="A3" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
+    <x:row r="5" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
+      <x:c r="A5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A6" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="n">
+      <x:c r="B6" s="5" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
+      <x:c r="A7" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B7" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
+    <x:row r="9" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
+      <x:c r="A9" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F2" s="3" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G2" s="3" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="3" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I2" s="3" t="n">
+      <x:c r="B9" s="3" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A10" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B10" s="5" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
+      <x:c r="A11" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B11" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:21" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <x:c r="A3" s="2" t="s"/>
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="D3" s="1" t="s"/>
-      <x:c r="E3" s="1" t="s"/>
-      <x:c r="F3" s="1" t="s"/>
-      <x:c r="G3" s="1" t="s"/>
-      <x:c r="H3" s="1" t="s"/>
-      <x:c r="I3" s="1" t="s"/>
-      <x:c r="J3" s="1" t="s"/>
-      <x:c r="K3" s="1" t="s"/>
-      <x:c r="M3" s="1" t="s"/>
-      <x:c r="N3" s="1" t="s"/>
-      <x:c r="O3" s="1" t="s"/>
-      <x:c r="P3" s="1" t="s"/>
-      <x:c r="Q3" s="1" t="s"/>
-      <x:c r="R3" s="1" t="s"/>
-      <x:c r="S3" s="1" t="s"/>
-      <x:c r="T3" s="1" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:21" customFormat="1" ht="409.5" customHeight="1">
-      <x:c r="B4" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="4" t="s"/>
-      <x:c r="F4" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G4" s="5" t="s"/>
-      <x:c r="H4" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I4" s="6" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:21" customFormat="1" ht="133.5" customHeight="1">
-      <x:c r="B5" s="4" t="s"/>
-      <x:c r="C5" s="4" t="s"/>
-      <x:c r="F5" s="5" t="s"/>
-      <x:c r="G5" s="5" t="s"/>
-      <x:c r="H5" s="6" t="s"/>
-      <x:c r="I5" s="6" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:21" s="2" customFormat="1" ht="36" customHeight="1">
-      <x:c r="A6" s="2" t="s"/>
-      <x:c r="B6" s="1" t="s"/>
-      <x:c r="M6" s="1" t="s"/>
-      <x:c r="N6" s="1" t="s"/>
-      <x:c r="O6" s="1" t="s"/>
-      <x:c r="P6" s="1" t="s"/>
-      <x:c r="Q6" s="1" t="s"/>
-      <x:c r="R6" s="1" t="s"/>
-      <x:c r="S6" s="1" t="s"/>
-      <x:c r="T6" s="1" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A7" s="2" t="s"/>
-      <x:c r="B7" s="1" t="s"/>
-      <x:c r="M7" s="1" t="s"/>
-      <x:c r="N7" s="1" t="s"/>
-      <x:c r="O7" s="1" t="s"/>
-      <x:c r="P7" s="1" t="s"/>
-      <x:c r="Q7" s="1" t="s"/>
-      <x:c r="R7" s="1" t="s"/>
-      <x:c r="S7" s="1" t="s"/>
-      <x:c r="T7" s="1" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A8" s="2" t="s"/>
-      <x:c r="B8" s="1" t="s"/>
-      <x:c r="M8" s="1" t="s"/>
-      <x:c r="N8" s="1" t="s"/>
-      <x:c r="O8" s="1" t="s"/>
-      <x:c r="P8" s="1" t="s"/>
-      <x:c r="Q8" s="1" t="s"/>
-      <x:c r="R8" s="1" t="s"/>
-      <x:c r="S8" s="1" t="s"/>
-      <x:c r="T8" s="1" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A9" s="2" t="s"/>
-      <x:c r="B9" s="1" t="s"/>
-      <x:c r="M9" s="1" t="s"/>
-      <x:c r="N9" s="1" t="s"/>
-      <x:c r="O9" s="1" t="s"/>
-      <x:c r="P9" s="1" t="s"/>
-      <x:c r="Q9" s="1" t="s"/>
-      <x:c r="R9" s="1" t="s"/>
-      <x:c r="S9" s="1" t="s"/>
-      <x:c r="T9" s="1" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A10" s="2" t="s"/>
-      <x:c r="B10" s="1" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A11" s="2" t="s"/>
-      <x:c r="B11" s="1" t="s"/>
-      <x:c r="D11" s="1" t="s"/>
-      <x:c r="E11" s="1" t="s"/>
-      <x:c r="F11" s="1" t="s"/>
-      <x:c r="G11" s="1" t="s"/>
-      <x:c r="H11" s="1" t="s"/>
-      <x:c r="I11" s="1" t="s"/>
-      <x:c r="J11" s="1" t="s"/>
-      <x:c r="K11" s="1" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A12" s="2" t="s"/>
-      <x:c r="B12" s="1" t="s"/>
-      <x:c r="D12" s="1" t="s"/>
-      <x:c r="E12" s="1" t="s"/>
-      <x:c r="F12" s="1" t="s"/>
-      <x:c r="G12" s="1" t="s"/>
-      <x:c r="H12" s="1" t="s"/>
-      <x:c r="I12" s="1" t="s"/>
-      <x:c r="J12" s="1" t="s"/>
-      <x:c r="K12" s="1" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A13" s="2" t="s"/>
-      <x:c r="B13" s="1" t="s"/>
-      <x:c r="D13" s="1" t="s"/>
-      <x:c r="E13" s="1" t="s"/>
-      <x:c r="F13" s="1" t="s"/>
-      <x:c r="G13" s="1" t="s"/>
-      <x:c r="H13" s="1" t="s"/>
-      <x:c r="I13" s="1" t="s"/>
-      <x:c r="J13" s="1" t="s"/>
-      <x:c r="K13" s="1" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:21" customFormat="1" ht="101.25" customHeight="1"/>
+    <x:row r="12" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
+    <x:row r="13" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
+      <x:c r="A13" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B13" s="3" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A14" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B14" s="5" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
+      <x:c r="A15" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B15" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
+    <x:row r="17" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
+      <x:c r="A17" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B17" s="3" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A18" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B18" s="5" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
+      <x:c r="A19" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B19" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
+    <x:row r="21" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
+      <x:c r="A21" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B21" s="3" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A22" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B22" s="5" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
+      <x:c r="A23" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B23" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
+    <x:row r="25" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
+      <x:c r="A25" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B25" s="3" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A26" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B26" s="5" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
+      <x:c r="A27" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B27" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
+    <x:row r="29" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
+      <x:c r="A29" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B29" s="3" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A30" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B30" s="5" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
+      <x:c r="A31" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B31" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
+    <x:row r="33" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
+      <x:c r="A33" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A34" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B34" s="5" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
+      <x:c r="A35" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B35" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
+    <x:row r="37" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
+      <x:c r="A37" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B37" s="3" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A38" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B38" s="5" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
+      <x:c r="A39" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B39" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="3">
-    <x:mergeCell ref="H4:I5"/>
-    <x:mergeCell ref="F4:G5"/>
-    <x:mergeCell ref="B4:C5"/>
+  <x:mergeCells count="20">
+    <x:mergeCell ref="A1:B1"/>
+    <x:mergeCell ref="A2:B2"/>
+    <x:mergeCell ref="A5:B5"/>
+    <x:mergeCell ref="A6:B6"/>
+    <x:mergeCell ref="A9:B9"/>
+    <x:mergeCell ref="A10:B10"/>
+    <x:mergeCell ref="A13:B13"/>
+    <x:mergeCell ref="A14:B14"/>
+    <x:mergeCell ref="A17:B17"/>
+    <x:mergeCell ref="A18:B18"/>
+    <x:mergeCell ref="A21:B21"/>
+    <x:mergeCell ref="A22:B22"/>
+    <x:mergeCell ref="A25:B25"/>
+    <x:mergeCell ref="A26:B26"/>
+    <x:mergeCell ref="A29:B29"/>
+    <x:mergeCell ref="A30:B30"/>
+    <x:mergeCell ref="A33:B33"/>
+    <x:mergeCell ref="A34:B34"/>
+    <x:mergeCell ref="A37:B37"/>
+    <x:mergeCell ref="A38:B38"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0" right="0" top="0" bottom="2" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
     <x:oddHeader/>
     <x:oddFooter/>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,79 +9,46 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$B$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <x:si>
-    <x:t>黒　川　家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>西4区1側31番 4㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>清掃契約</x:t>
-  </x:si>
-  <x:si>
-    <x:t>植木手入れ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>平　沼　家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>西5区1側28番 4㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>田　中　家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>北3区1側15番 4㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>東特区2側10番 12㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>草取り</x:t>
-  </x:si>
-  <x:si>
-    <x:t>水　野　家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>東2区6側10番 5㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>河　野　家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>東2区6側19番 5㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>髙　橋　家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>中1区2側15番 9㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>児　島　家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>中10区4側3番 7㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>岡　家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>南5区2側24番 6㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>野　田　家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>西2区8側45番 4㎡</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <x:si>
+    <x:t>\</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理番号 : 001234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〒241-0002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>西4区5側1番</x:t>
+  </x:si>
+  <x:si>
+    <x:t>横浜市旭区上白根</x:t>
+  </x:si>
+  <x:si>
+    <x:t>面積 : 3.5 ㎡あああああああああああああああああああああああああああああああ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>３－３３－２４</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 横浜市旭区上白根</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ３－３３－２４</x:t>
+  </x:si>
+  <x:si>
+    <x:t>阿部　孝一 様</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -103,23 +70,21 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HG正楷書体-PRO"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
-      <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="65"/>
+      <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HG正楷書体-PRO"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
-      <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="48"/>
+      <x:sz val="9"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HG正楷書体-PRO"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -131,7 +96,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="4">
+  <x:borders count="1">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -149,82 +114,22 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="7">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="7">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -233,24 +138,28 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -548,261 +457,272 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B40"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="3" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="43.570625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="52.420625" style="1" customWidth="1"/>
+    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="4.420625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.850625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="8.280625" style="0" customWidth="1"/>
+    <x:col min="4" max="11" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="8.000625" style="0" customWidth="1"/>
+    <x:col min="13" max="16" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="17" max="17" width="2.850625" style="1" customWidth="1"/>
+    <x:col min="18" max="20" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="21" max="21" width="1.020625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
-      <x:c r="A1" s="2" t="s">
+    <x:row r="1" spans="1:21" s="0" customFormat="1" ht="283.5" customHeight="1">
+      <x:c r="B1" s="1" t="s"/>
+      <x:c r="D1" s="1" t="s"/>
+      <x:c r="E1" s="1" t="s"/>
+      <x:c r="F1" s="1" t="s"/>
+      <x:c r="G1" s="1" t="s"/>
+      <x:c r="H1" s="1" t="s"/>
+      <x:c r="I1" s="1" t="s"/>
+      <x:c r="J1" s="1" t="s"/>
+      <x:c r="K1" s="1" t="s"/>
+      <x:c r="M1" s="1" t="s"/>
+      <x:c r="N1" s="1" t="s"/>
+      <x:c r="O1" s="1" t="s"/>
+      <x:c r="P1" s="1" t="s"/>
+      <x:c r="Q1" s="1" t="s"/>
+      <x:c r="R1" s="1" t="s"/>
+      <x:c r="S1" s="1" t="s"/>
+      <x:c r="T1" s="1" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:21" s="0" customFormat="1" ht="172.5" customHeight="1">
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="D2" s="1" t="s"/>
+      <x:c r="E2" s="1" t="s"/>
+      <x:c r="F2" s="1" t="s"/>
+      <x:c r="G2" s="1" t="s"/>
+      <x:c r="H2" s="1" t="s"/>
+      <x:c r="I2" s="1" t="s"/>
+      <x:c r="J2" s="1" t="s"/>
+      <x:c r="K2" s="1" t="s"/>
+      <x:c r="M2" s="1" t="s"/>
+      <x:c r="N2" s="1" t="s"/>
+      <x:c r="O2" s="1" t="s"/>
+      <x:c r="P2" s="1" t="s"/>
+      <x:c r="Q2" s="1" t="s"/>
+      <x:c r="R2" s="1" t="s"/>
+      <x:c r="S2" s="1" t="s"/>
+      <x:c r="T2" s="1" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
+      <x:c r="D3" s="2" t="s"/>
+      <x:c r="E3" s="2" t="s"/>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A2" s="4" t="s">
+    </x:row>
+    <x:row r="4" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B4" s="1" t="s"/>
+      <x:c r="D4" s="1" t="s"/>
+      <x:c r="E4" s="1" t="s"/>
+      <x:c r="F4" s="1" t="s"/>
+      <x:c r="G4" s="1" t="s"/>
+      <x:c r="H4" s="1" t="s"/>
+      <x:c r="I4" s="1" t="s"/>
+      <x:c r="J4" s="1" t="s"/>
+      <x:c r="K4" s="1" t="s"/>
+      <x:c r="M4" s="1" t="s"/>
+      <x:c r="N4" s="1" t="s"/>
+      <x:c r="O4" s="1" t="s"/>
+      <x:c r="P4" s="1" t="s"/>
+      <x:c r="Q4" s="1" t="s"/>
+      <x:c r="R4" s="1" t="s"/>
+      <x:c r="S4" s="1" t="s"/>
+      <x:c r="T4" s="1" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B5" s="1" t="s"/>
+      <x:c r="D5" s="1" t="s"/>
+      <x:c r="E5" s="1" t="s"/>
+      <x:c r="F5" s="1" t="s"/>
+      <x:c r="G5" s="1" t="s"/>
+      <x:c r="H5" s="1" t="s"/>
+      <x:c r="I5" s="1" t="s"/>
+      <x:c r="J5" s="1" t="s"/>
+      <x:c r="K5" s="1" t="s"/>
+      <x:c r="M5" s="1" t="s"/>
+      <x:c r="N5" s="1" t="s"/>
+      <x:c r="O5" s="1" t="s"/>
+      <x:c r="P5" s="1" t="s"/>
+      <x:c r="Q5" s="1" t="s"/>
+      <x:c r="R5" s="1" t="s"/>
+      <x:c r="S5" s="1" t="s"/>
+      <x:c r="T5" s="1" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="D6" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="5" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
-      <x:c r="A3" s="6" t="s">
+      <x:c r="E6" s="3" t="s"/>
+      <x:c r="F6" s="3" t="s"/>
+      <x:c r="G6" s="3" t="s"/>
+      <x:c r="H6" s="3" t="s"/>
+      <x:c r="I6" s="3" t="s"/>
+      <x:c r="J6" s="3" t="s"/>
+      <x:c r="K6" s="3" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B7" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="6" t="s">
+      <x:c r="D7" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
-    <x:row r="5" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="E7" s="3" t="s"/>
+      <x:c r="F7" s="3" t="s"/>
+      <x:c r="G7" s="3" t="s"/>
+      <x:c r="H7" s="3" t="s"/>
+      <x:c r="I7" s="3" t="s"/>
+      <x:c r="J7" s="3" t="s"/>
+      <x:c r="K7" s="3" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B8" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A6" s="4" t="s">
+      <x:c r="D8" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B6" s="5" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
-      <x:c r="A7" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B7" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
-    <x:row r="9" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="E8" s="3" t="s"/>
+      <x:c r="F8" s="3" t="s"/>
+      <x:c r="G8" s="3" t="s"/>
+      <x:c r="H8" s="3" t="s"/>
+      <x:c r="I8" s="3" t="s"/>
+      <x:c r="J8" s="3" t="s"/>
+      <x:c r="K8" s="3" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B9" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A10" s="4" t="s">
+      <x:c r="D9" s="3" t="s"/>
+      <x:c r="E9" s="3" t="s"/>
+      <x:c r="F9" s="3" t="s"/>
+      <x:c r="G9" s="3" t="s"/>
+      <x:c r="H9" s="3" t="s"/>
+      <x:c r="I9" s="3" t="s"/>
+      <x:c r="J9" s="3" t="s"/>
+      <x:c r="K9" s="3" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B10" s="4" t="s"/>
+      <x:c r="D10" s="3" t="s"/>
+      <x:c r="E10" s="3" t="s"/>
+      <x:c r="F10" s="3" t="s"/>
+      <x:c r="G10" s="3" t="s"/>
+      <x:c r="H10" s="3" t="s"/>
+      <x:c r="I10" s="3" t="s"/>
+      <x:c r="J10" s="3" t="s"/>
+      <x:c r="K10" s="3" t="s"/>
+      <x:c r="M10" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B10" s="5" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
-      <x:c r="A11" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B11" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
-    <x:row r="13" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
-      <x:c r="A13" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A14" s="4" t="s">
+      <x:c r="N10" s="5" t="s"/>
+      <x:c r="O10" s="5" t="s"/>
+      <x:c r="P10" s="5" t="s"/>
+      <x:c r="Q10" s="5" t="s"/>
+      <x:c r="R10" s="5" t="s"/>
+      <x:c r="S10" s="5" t="s"/>
+      <x:c r="T10" s="5" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="M11" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B14" s="5" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
-      <x:c r="A15" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B15" s="6" t="s">
+      <x:c r="N11" s="5" t="s"/>
+      <x:c r="O11" s="5" t="s"/>
+      <x:c r="P11" s="5" t="s"/>
+      <x:c r="Q11" s="5" t="s"/>
+      <x:c r="R11" s="5" t="s"/>
+      <x:c r="S11" s="5" t="s"/>
+      <x:c r="T11" s="5" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B12" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
-    <x:row r="17" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="M12" s="5" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A18" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B18" s="5" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
-      <x:c r="A19" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B19" s="6" t="s">
+      <x:c r="N12" s="5" t="s"/>
+      <x:c r="O12" s="5" t="s"/>
+      <x:c r="P12" s="5" t="s"/>
+      <x:c r="Q12" s="5" t="s"/>
+      <x:c r="R12" s="5" t="s"/>
+      <x:c r="S12" s="5" t="s"/>
+      <x:c r="T12" s="5" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="M13" s="7" t="s">
         <x:v>9</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
-    <x:row r="21" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
-      <x:c r="A21" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A22" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B22" s="5" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
-      <x:c r="A23" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B23" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
-    <x:row r="25" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
-      <x:c r="A25" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A26" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B26" s="5" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
-      <x:c r="A27" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B27" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
-    <x:row r="29" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
-      <x:c r="A29" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B29" s="3" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A30" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B30" s="5" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
-      <x:c r="A31" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B31" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
-    <x:row r="33" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
-      <x:c r="A33" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B33" s="3" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A34" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B34" s="5" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
-      <x:c r="A35" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B35" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
-    <x:row r="37" spans="1:2" customFormat="1" ht="82.5" customHeight="1">
-      <x:c r="A37" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B37" s="3" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A38" s="4" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B38" s="5" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:2" customFormat="1" ht="73.5" customHeight="1">
-      <x:c r="A39" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B39" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:2" customFormat="1" ht="10.5" customHeight="1"/>
+      <x:c r="N13" s="7" t="s"/>
+      <x:c r="O13" s="7" t="s"/>
+      <x:c r="P13" s="7" t="s"/>
+      <x:c r="Q13" s="7" t="s"/>
+      <x:c r="R13" s="7" t="s"/>
+      <x:c r="S13" s="7" t="s"/>
+      <x:c r="T13" s="7" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:21" s="0" customFormat="1" ht="101.25" customHeight="1">
+      <x:c r="B14" s="1" t="s"/>
+      <x:c r="D14" s="1" t="s"/>
+      <x:c r="E14" s="1" t="s"/>
+      <x:c r="F14" s="1" t="s"/>
+      <x:c r="G14" s="1" t="s"/>
+      <x:c r="H14" s="1" t="s"/>
+      <x:c r="I14" s="1" t="s"/>
+      <x:c r="J14" s="1" t="s"/>
+      <x:c r="K14" s="1" t="s"/>
+      <x:c r="M14" s="1" t="s"/>
+      <x:c r="N14" s="1" t="s"/>
+      <x:c r="O14" s="1" t="s"/>
+      <x:c r="P14" s="1" t="s"/>
+      <x:c r="Q14" s="1" t="s"/>
+      <x:c r="R14" s="1" t="s"/>
+      <x:c r="S14" s="1" t="s"/>
+      <x:c r="T14" s="1" t="s"/>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="20">
-    <x:mergeCell ref="A1:B1"/>
-    <x:mergeCell ref="A2:B2"/>
-    <x:mergeCell ref="A5:B5"/>
-    <x:mergeCell ref="A6:B6"/>
-    <x:mergeCell ref="A9:B9"/>
-    <x:mergeCell ref="A10:B10"/>
-    <x:mergeCell ref="A13:B13"/>
-    <x:mergeCell ref="A14:B14"/>
-    <x:mergeCell ref="A17:B17"/>
-    <x:mergeCell ref="A18:B18"/>
-    <x:mergeCell ref="A21:B21"/>
-    <x:mergeCell ref="A22:B22"/>
-    <x:mergeCell ref="A25:B25"/>
-    <x:mergeCell ref="A26:B26"/>
-    <x:mergeCell ref="A29:B29"/>
-    <x:mergeCell ref="A30:B30"/>
-    <x:mergeCell ref="A33:B33"/>
-    <x:mergeCell ref="A34:B34"/>
-    <x:mergeCell ref="A37:B37"/>
-    <x:mergeCell ref="A38:B38"/>
+  <x:mergeCells count="9">
+    <x:mergeCell ref="D6:K6"/>
+    <x:mergeCell ref="D7:K7"/>
+    <x:mergeCell ref="D8:K8"/>
+    <x:mergeCell ref="D9:K9"/>
+    <x:mergeCell ref="D10:K10"/>
+    <x:mergeCell ref="M10:T10"/>
+    <x:mergeCell ref="M11:T11"/>
+    <x:mergeCell ref="M12:T12"/>
+    <x:mergeCell ref="M13:T13"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0" right="0" top="0" bottom="2" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,46 +9,28 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$E$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <x:si>
-    <x:t>\</x:t>
-  </x:si>
-  <x:si>
-    <x:t>管理番号 : 001234</x:t>
-  </x:si>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
     <x:t>〒241-0002</x:t>
   </x:si>
   <x:si>
-    <x:t>西4区5側1番</x:t>
+    <x:t>阿部　孝一 様</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ああああああああああああああああああああ三ー三三ー二四</x:t>
   </x:si>
   <x:si>
     <x:t>横浜市旭区上白根</x:t>
   </x:si>
   <x:si>
-    <x:t>面積 : 3.5 ㎡あああああああああああああああああああああああああああああああ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>３－３３－２４</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 横浜市旭区上白根</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> ３－３３－２４</x:t>
-  </x:si>
-  <x:si>
-    <x:t>阿部　孝一 様</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
+    <x:t>三ー三三ー二四</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -58,7 +40,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="5">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -70,30 +52,42 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
+      <x:sz val="36"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="9"/>
+      <x:sz val="85"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="HGP行書体"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="43"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+      </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="1">
@@ -115,17 +109,26 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -138,28 +141,28 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -457,272 +460,108 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:E12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="4.420625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.850625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.280625" style="0" customWidth="1"/>
-    <x:col min="4" max="11" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="8.000625" style="0" customWidth="1"/>
-    <x:col min="13" max="16" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="17" max="17" width="2.850625" style="1" customWidth="1"/>
-    <x:col min="18" max="20" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="21" max="21" width="1.020625" style="0" customWidth="1"/>
+    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="50.140625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="29.570625" style="1" customWidth="1"/>
+    <x:col min="4" max="5" width="10.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:21" s="0" customFormat="1" ht="283.5" customHeight="1">
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="D1" s="1" t="s"/>
-      <x:c r="E1" s="1" t="s"/>
-      <x:c r="F1" s="1" t="s"/>
-      <x:c r="G1" s="1" t="s"/>
-      <x:c r="H1" s="1" t="s"/>
-      <x:c r="I1" s="1" t="s"/>
-      <x:c r="J1" s="1" t="s"/>
-      <x:c r="K1" s="1" t="s"/>
-      <x:c r="M1" s="1" t="s"/>
-      <x:c r="N1" s="1" t="s"/>
-      <x:c r="O1" s="1" t="s"/>
-      <x:c r="P1" s="1" t="s"/>
-      <x:c r="Q1" s="1" t="s"/>
-      <x:c r="R1" s="1" t="s"/>
-      <x:c r="S1" s="1" t="s"/>
-      <x:c r="T1" s="1" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:21" s="0" customFormat="1" ht="172.5" customHeight="1">
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="D2" s="1" t="s"/>
-      <x:c r="E2" s="1" t="s"/>
-      <x:c r="F2" s="1" t="s"/>
-      <x:c r="G2" s="1" t="s"/>
-      <x:c r="H2" s="1" t="s"/>
-      <x:c r="I2" s="1" t="s"/>
-      <x:c r="J2" s="1" t="s"/>
-      <x:c r="K2" s="1" t="s"/>
-      <x:c r="M2" s="1" t="s"/>
-      <x:c r="N2" s="1" t="s"/>
-      <x:c r="O2" s="1" t="s"/>
-      <x:c r="P2" s="1" t="s"/>
-      <x:c r="Q2" s="1" t="s"/>
-      <x:c r="R2" s="1" t="s"/>
-      <x:c r="S2" s="1" t="s"/>
-      <x:c r="T2" s="1" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
+    <x:row r="1" spans="1:5" customFormat="1" ht="45.75" customHeight="1">
+      <x:c r="B1" s="2" t="s"/>
+      <x:c r="C1" s="2" t="s"/>
+      <x:c r="D1" s="2" t="s"/>
+      <x:c r="E1" s="2" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:5" customFormat="1" ht="132.75" customHeight="1">
+      <x:c r="C2" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="s"/>
+      <x:c r="E2" s="3" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:5" customFormat="1" ht="51.75" customHeight="1">
+      <x:c r="B3" s="2" t="s"/>
+      <x:c r="C3" s="2" t="s"/>
       <x:c r="D3" s="2" t="s"/>
       <x:c r="E3" s="2" t="s"/>
-      <x:c r="F3" s="2" t="s"/>
-      <x:c r="G3" s="2" t="s"/>
-      <x:c r="H3" s="2" t="s"/>
-      <x:c r="I3" s="2" t="s"/>
-      <x:c r="J3" s="2" t="s"/>
-      <x:c r="K3" s="2" t="s">
+    </x:row>
+    <x:row r="4" spans="1:5" customFormat="1" ht="409.5" customHeight="1">
+      <x:c r="B4" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D4" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E4" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5" customFormat="1" ht="375" customHeight="1">
+      <x:c r="B5" s="4" t="s"/>
+      <x:c r="D5" s="5" t="s"/>
+      <x:c r="E5" s="6" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:5" customFormat="1" ht="34.5" customHeight="1">
+      <x:c r="B6" s="2" t="s"/>
+      <x:c r="C6" s="2" t="s"/>
+      <x:c r="D6" s="2" t="s"/>
+      <x:c r="E6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:5" customFormat="1" ht="45.75" customHeight="1"/>
+    <x:row r="8" spans="1:5" customFormat="1" ht="132.75" customHeight="1">
+      <x:c r="C8" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
-      <x:c r="E4" s="1" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
-      <x:c r="G4" s="1" t="s"/>
-      <x:c r="H4" s="1" t="s"/>
-      <x:c r="I4" s="1" t="s"/>
-      <x:c r="J4" s="1" t="s"/>
-      <x:c r="K4" s="1" t="s"/>
-      <x:c r="M4" s="1" t="s"/>
-      <x:c r="N4" s="1" t="s"/>
-      <x:c r="O4" s="1" t="s"/>
-      <x:c r="P4" s="1" t="s"/>
-      <x:c r="Q4" s="1" t="s"/>
-      <x:c r="R4" s="1" t="s"/>
-      <x:c r="S4" s="1" t="s"/>
-      <x:c r="T4" s="1" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B5" s="1" t="s"/>
-      <x:c r="D5" s="1" t="s"/>
-      <x:c r="E5" s="1" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
-      <x:c r="G5" s="1" t="s"/>
-      <x:c r="H5" s="1" t="s"/>
-      <x:c r="I5" s="1" t="s"/>
-      <x:c r="J5" s="1" t="s"/>
-      <x:c r="K5" s="1" t="s"/>
-      <x:c r="M5" s="1" t="s"/>
-      <x:c r="N5" s="1" t="s"/>
-      <x:c r="O5" s="1" t="s"/>
-      <x:c r="P5" s="1" t="s"/>
-      <x:c r="Q5" s="1" t="s"/>
-      <x:c r="R5" s="1" t="s"/>
-      <x:c r="S5" s="1" t="s"/>
-      <x:c r="T5" s="1" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="D6" s="3" t="s">
+      <x:c r="D8" s="3" t="s"/>
+      <x:c r="E8" s="3" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:5" customFormat="1" ht="51.75" customHeight="1"/>
+    <x:row r="10" spans="1:5" customFormat="1" ht="409.5" customHeight="1">
+      <x:c r="B10" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E6" s="3" t="s"/>
-      <x:c r="F6" s="3" t="s"/>
-      <x:c r="G6" s="3" t="s"/>
-      <x:c r="H6" s="3" t="s"/>
-      <x:c r="I6" s="3" t="s"/>
-      <x:c r="J6" s="3" t="s"/>
-      <x:c r="K6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B7" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
+      <x:c r="D10" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E10" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E7" s="3" t="s"/>
-      <x:c r="F7" s="3" t="s"/>
-      <x:c r="G7" s="3" t="s"/>
-      <x:c r="H7" s="3" t="s"/>
-      <x:c r="I7" s="3" t="s"/>
-      <x:c r="J7" s="3" t="s"/>
-      <x:c r="K7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B8" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="s"/>
-      <x:c r="F8" s="3" t="s"/>
-      <x:c r="G8" s="3" t="s"/>
-      <x:c r="H8" s="3" t="s"/>
-      <x:c r="I8" s="3" t="s"/>
-      <x:c r="J8" s="3" t="s"/>
-      <x:c r="K8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B9" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s"/>
-      <x:c r="E9" s="3" t="s"/>
-      <x:c r="F9" s="3" t="s"/>
-      <x:c r="G9" s="3" t="s"/>
-      <x:c r="H9" s="3" t="s"/>
-      <x:c r="I9" s="3" t="s"/>
-      <x:c r="J9" s="3" t="s"/>
-      <x:c r="K9" s="3" t="s"/>
-      <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s"/>
-      <x:c r="P9" s="2" t="s"/>
-      <x:c r="Q9" s="2" t="s"/>
-      <x:c r="R9" s="2" t="s"/>
-      <x:c r="S9" s="2" t="s"/>
-      <x:c r="T9" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B10" s="4" t="s"/>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s"/>
-      <x:c r="F10" s="3" t="s"/>
-      <x:c r="G10" s="3" t="s"/>
-      <x:c r="H10" s="3" t="s"/>
-      <x:c r="I10" s="3" t="s"/>
-      <x:c r="J10" s="3" t="s"/>
-      <x:c r="K10" s="3" t="s"/>
-      <x:c r="M10" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="N10" s="5" t="s"/>
-      <x:c r="O10" s="5" t="s"/>
-      <x:c r="P10" s="5" t="s"/>
-      <x:c r="Q10" s="5" t="s"/>
-      <x:c r="R10" s="5" t="s"/>
-      <x:c r="S10" s="5" t="s"/>
-      <x:c r="T10" s="5" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M11" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="N11" s="5" t="s"/>
-      <x:c r="O11" s="5" t="s"/>
-      <x:c r="P11" s="5" t="s"/>
-      <x:c r="Q11" s="5" t="s"/>
-      <x:c r="R11" s="5" t="s"/>
-      <x:c r="S11" s="5" t="s"/>
-      <x:c r="T11" s="5" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B12" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M12" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="N12" s="5" t="s"/>
-      <x:c r="O12" s="5" t="s"/>
-      <x:c r="P12" s="5" t="s"/>
-      <x:c r="Q12" s="5" t="s"/>
-      <x:c r="R12" s="5" t="s"/>
-      <x:c r="S12" s="5" t="s"/>
-      <x:c r="T12" s="5" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M13" s="7" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="N13" s="7" t="s"/>
-      <x:c r="O13" s="7" t="s"/>
-      <x:c r="P13" s="7" t="s"/>
-      <x:c r="Q13" s="7" t="s"/>
-      <x:c r="R13" s="7" t="s"/>
-      <x:c r="S13" s="7" t="s"/>
-      <x:c r="T13" s="7" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:21" s="0" customFormat="1" ht="101.25" customHeight="1">
-      <x:c r="B14" s="1" t="s"/>
-      <x:c r="D14" s="1" t="s"/>
-      <x:c r="E14" s="1" t="s"/>
-      <x:c r="F14" s="1" t="s"/>
-      <x:c r="G14" s="1" t="s"/>
-      <x:c r="H14" s="1" t="s"/>
-      <x:c r="I14" s="1" t="s"/>
-      <x:c r="J14" s="1" t="s"/>
-      <x:c r="K14" s="1" t="s"/>
-      <x:c r="M14" s="1" t="s"/>
-      <x:c r="N14" s="1" t="s"/>
-      <x:c r="O14" s="1" t="s"/>
-      <x:c r="P14" s="1" t="s"/>
-      <x:c r="Q14" s="1" t="s"/>
-      <x:c r="R14" s="1" t="s"/>
-      <x:c r="S14" s="1" t="s"/>
-      <x:c r="T14" s="1" t="s"/>
-    </x:row>
+    </x:row>
+    <x:row r="11" spans="1:5" customFormat="1" ht="375" customHeight="1">
+      <x:c r="B11" s="4" t="s"/>
+      <x:c r="D11" s="7" t="s"/>
+      <x:c r="E11" s="6" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:5" customFormat="1" ht="34.5" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="9">
-    <x:mergeCell ref="D6:K6"/>
-    <x:mergeCell ref="D7:K7"/>
-    <x:mergeCell ref="D8:K8"/>
-    <x:mergeCell ref="D9:K9"/>
-    <x:mergeCell ref="D10:K10"/>
-    <x:mergeCell ref="M10:T10"/>
-    <x:mergeCell ref="M11:T11"/>
-    <x:mergeCell ref="M12:T12"/>
-    <x:mergeCell ref="M13:T13"/>
+  <x:mergeCells count="8">
+    <x:mergeCell ref="C2:E2"/>
+    <x:mergeCell ref="B4:B5"/>
+    <x:mergeCell ref="D4:D5"/>
+    <x:mergeCell ref="E4:E5"/>
+    <x:mergeCell ref="C8:E8"/>
+    <x:mergeCell ref="B10:B11"/>
+    <x:mergeCell ref="D10:D11"/>
+    <x:mergeCell ref="E10:E11"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter/>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,28 +9,22 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$E$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$J$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <x:si>
-    <x:t>〒241-0002</x:t>
+    <x:t xml:space="preserve"> 阿部　孝一 様</x:t>
   </x:si>
   <x:si>
-    <x:t>阿部　孝一 様</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ああああああああああああああああああああ三ー三三ー二四</x:t>
+    <x:t>三ー三三ー二四</x:t>
   </x:si>
   <x:si>
     <x:t>横浜市旭区上白根</x:t>
-  </x:si>
-  <x:si>
-    <x:t>三ー三三ー二四</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -57,37 +51,32 @@
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="36"/>
+      <x:sz val="16"/>
       <x:color rgb="FF000000"/>
       <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="85"/>
+      <x:sz val="48"/>
       <x:color rgb="FF000000"/>
       <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="43"/>
+      <x:sz val="30"/>
       <x:color rgb="FF000000"/>
       <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="2">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-      </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="1">
@@ -109,30 +98,24 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="7">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -141,28 +124,20 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -460,108 +435,109 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E12"/>
+  <x:dimension ref="A1:J6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="50.140625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="29.570625" style="1" customWidth="1"/>
-    <x:col min="4" max="5" width="10.140625" style="1" customWidth="1"/>
+    <x:col min="11" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="22.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
+    <x:col min="3" max="5" width="3.420625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="1.040625" style="1" customWidth="1"/>
+    <x:col min="7" max="10" width="3.420625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" customFormat="1" ht="45.75" customHeight="1">
-      <x:c r="B1" s="2" t="s"/>
-      <x:c r="C1" s="2" t="s"/>
-      <x:c r="D1" s="2" t="s"/>
-      <x:c r="E1" s="2" t="s"/>
+    <x:row r="1" spans="1:10" s="0" customFormat="1" ht="101.25" customHeight="1">
+      <x:c r="B1" s="1" t="s"/>
+      <x:c r="C1" s="1" t="s"/>
+      <x:c r="D1" s="1" t="s"/>
+      <x:c r="E1" s="1" t="s"/>
+      <x:c r="F1" s="1" t="s"/>
+      <x:c r="G1" s="1" t="s"/>
+      <x:c r="H1" s="1" t="s"/>
+      <x:c r="I1" s="1" t="s"/>
+      <x:c r="J1" s="1" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:5" customFormat="1" ht="132.75" customHeight="1">
-      <x:c r="C2" s="3" t="s">
+    <x:row r="2" spans="1:10" customFormat="1" ht="38.25" customHeight="1">
+      <x:c r="C2" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D2" s="3" t="s"/>
-      <x:c r="E2" s="3" t="s"/>
+      <x:c r="H2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:5" customFormat="1" ht="51.75" customHeight="1">
-      <x:c r="B3" s="2" t="s"/>
-      <x:c r="C3" s="2" t="s"/>
-      <x:c r="D3" s="2" t="s"/>
-      <x:c r="E3" s="2" t="s"/>
+    <x:row r="3" spans="1:10" s="0" customFormat="1" ht="14.25" customHeight="1">
+      <x:c r="B3" s="1" t="s"/>
+      <x:c r="C3" s="1" t="s"/>
+      <x:c r="D3" s="1" t="s"/>
+      <x:c r="E3" s="1" t="s"/>
+      <x:c r="F3" s="1" t="s"/>
+      <x:c r="G3" s="1" t="s"/>
+      <x:c r="H3" s="1" t="s"/>
+      <x:c r="I3" s="1" t="s"/>
+      <x:c r="J3" s="1" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:5" customFormat="1" ht="409.5" customHeight="1">
-      <x:c r="B4" s="4" t="s">
+    <x:row r="4" spans="1:10" customFormat="1" ht="409.5" customHeight="1">
+      <x:c r="B4" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s"/>
+      <x:c r="G4" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D4" s="5" t="s">
+      <x:c r="H4" s="4" t="s"/>
+      <x:c r="I4" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E4" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="J4" s="5" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:5" customFormat="1" ht="375" customHeight="1">
-      <x:c r="B5" s="4" t="s"/>
-      <x:c r="D5" s="5" t="s"/>
-      <x:c r="E5" s="6" t="s"/>
+    <x:row r="5" spans="1:10" customFormat="1" ht="133.5" customHeight="1">
+      <x:c r="B5" s="3" t="s"/>
+      <x:c r="C5" s="3" t="s"/>
+      <x:c r="G5" s="4" t="s"/>
+      <x:c r="H5" s="4" t="s"/>
+      <x:c r="I5" s="5" t="s"/>
+      <x:c r="J5" s="5" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:5" customFormat="1" ht="34.5" customHeight="1">
-      <x:c r="B6" s="2" t="s"/>
-      <x:c r="C6" s="2" t="s"/>
-      <x:c r="D6" s="2" t="s"/>
-      <x:c r="E6" s="2" t="s"/>
+    <x:row r="6" spans="1:10" s="0" customFormat="1" ht="36" customHeight="1">
+      <x:c r="B6" s="1" t="s"/>
+      <x:c r="C6" s="1" t="s"/>
+      <x:c r="D6" s="1" t="s"/>
+      <x:c r="E6" s="1" t="s"/>
+      <x:c r="F6" s="1" t="s"/>
+      <x:c r="G6" s="1" t="s"/>
+      <x:c r="H6" s="1" t="s"/>
+      <x:c r="I6" s="1" t="s"/>
+      <x:c r="J6" s="1" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:5" customFormat="1" ht="45.75" customHeight="1"/>
-    <x:row r="8" spans="1:5" customFormat="1" ht="132.75" customHeight="1">
-      <x:c r="C8" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:5" customFormat="1" ht="51.75" customHeight="1"/>
-    <x:row r="10" spans="1:5" customFormat="1" ht="409.5" customHeight="1">
-      <x:c r="B10" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D10" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E10" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5" customFormat="1" ht="375" customHeight="1">
-      <x:c r="B11" s="4" t="s"/>
-      <x:c r="D11" s="7" t="s"/>
-      <x:c r="E11" s="6" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:5" customFormat="1" ht="34.5" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="8">
-    <x:mergeCell ref="C2:E2"/>
-    <x:mergeCell ref="B4:B5"/>
-    <x:mergeCell ref="D4:D5"/>
-    <x:mergeCell ref="E4:E5"/>
-    <x:mergeCell ref="C8:E8"/>
-    <x:mergeCell ref="B10:B11"/>
-    <x:mergeCell ref="D10:D11"/>
-    <x:mergeCell ref="E10:E11"/>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="I4:J5"/>
+    <x:mergeCell ref="G4:H5"/>
+    <x:mergeCell ref="B4:C5"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,22 +9,31 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$J$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$B$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <x:si>
-    <x:t xml:space="preserve"> 阿部　孝一 様</x:t>
+    <x:t>矢　吹　家</x:t>
   </x:si>
   <x:si>
-    <x:t>三ー三三ー二四</x:t>
+    <x:t>北5区17側36番 4㎡</x:t>
   </x:si>
   <x:si>
-    <x:t>横浜市旭区上白根</x:t>
+    <x:t>清掃契約</x:t>
+  </x:si>
+  <x:si>
+    <x:t>井　上　家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>南4区5側50番 4㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>草取り</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -34,7 +43,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="5">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -46,28 +55,23 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="HG正楷書体-PRO"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
+      <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
+      <x:sz val="65"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="HG正楷書体-PRO"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
+      <x:b/>
       <x:vertAlign val="baseline"/>
       <x:sz val="48"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="30"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="HG正楷書体-PRO"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -79,7 +83,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="4">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -91,6 +95,57 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -98,24 +153,30 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -124,20 +185,24 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -435,108 +500,97 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J6"/>
+  <x:dimension ref="A1:B12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="11" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="22.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
-    <x:col min="3" max="5" width="3.420625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="1.040625" style="1" customWidth="1"/>
-    <x:col min="7" max="10" width="3.420625" style="1" customWidth="1"/>
+    <x:col min="3" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="43.570625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="52.420625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:10" s="0" customFormat="1" ht="101.25" customHeight="1">
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="C1" s="1" t="s"/>
-      <x:c r="D1" s="1" t="s"/>
-      <x:c r="E1" s="1" t="s"/>
-      <x:c r="F1" s="1" t="s"/>
-      <x:c r="G1" s="1" t="s"/>
-      <x:c r="H1" s="1" t="s"/>
-      <x:c r="I1" s="1" t="s"/>
-      <x:c r="J1" s="1" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:10" customFormat="1" ht="38.25" customHeight="1">
-      <x:c r="C2" s="2" t="n">
+    <x:row r="1" spans="1:2" customFormat="1" ht="75" customHeight="1">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A2" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:2" customFormat="1" ht="63.75" customHeight="1">
+      <x:c r="A3" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="n">
+      <x:c r="B3" s="6" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:2" s="0" customFormat="1" ht="25.5" customHeight="1">
+      <x:c r="A4" s="1" t="s"/>
+      <x:c r="B4" s="1" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:2" customFormat="1" ht="75" customHeight="1">
+      <x:c r="A5" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A6" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="n">
+      <x:c r="B6" s="5" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:2" customFormat="1" ht="63.75" customHeight="1">
+      <x:c r="A7" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B7" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2" s="0" customFormat="1" ht="25.5" customHeight="1">
+      <x:c r="A8" s="1" t="s"/>
+      <x:c r="B8" s="1" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:2" customFormat="1" ht="75" customHeight="1">
+      <x:c r="A9" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A10" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F2" s="2" t="s"/>
-      <x:c r="G2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2" s="2" t="n">
+      <x:c r="B10" s="5" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:2" customFormat="1" ht="63.75" customHeight="1">
+      <x:c r="A11" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:10" s="0" customFormat="1" ht="14.25" customHeight="1">
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="C3" s="1" t="s"/>
-      <x:c r="D3" s="1" t="s"/>
-      <x:c r="E3" s="1" t="s"/>
-      <x:c r="F3" s="1" t="s"/>
-      <x:c r="G3" s="1" t="s"/>
-      <x:c r="H3" s="1" t="s"/>
-      <x:c r="I3" s="1" t="s"/>
-      <x:c r="J3" s="1" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:10" customFormat="1" ht="409.5" customHeight="1">
-      <x:c r="B4" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s"/>
-      <x:c r="G4" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H4" s="4" t="s"/>
-      <x:c r="I4" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J4" s="5" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:10" customFormat="1" ht="133.5" customHeight="1">
-      <x:c r="B5" s="3" t="s"/>
-      <x:c r="C5" s="3" t="s"/>
-      <x:c r="G5" s="4" t="s"/>
-      <x:c r="H5" s="4" t="s"/>
-      <x:c r="I5" s="5" t="s"/>
-      <x:c r="J5" s="5" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:10" s="0" customFormat="1" ht="36" customHeight="1">
-      <x:c r="B6" s="1" t="s"/>
-      <x:c r="C6" s="1" t="s"/>
-      <x:c r="D6" s="1" t="s"/>
-      <x:c r="E6" s="1" t="s"/>
-      <x:c r="F6" s="1" t="s"/>
-      <x:c r="G6" s="1" t="s"/>
-      <x:c r="H6" s="1" t="s"/>
-      <x:c r="I6" s="1" t="s"/>
-      <x:c r="J6" s="1" t="s"/>
+      <x:c r="B11" s="6" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:2" s="0" customFormat="1" ht="25.5" customHeight="1">
+      <x:c r="A12" s="1" t="s"/>
+      <x:c r="B12" s="1" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="3">
-    <x:mergeCell ref="I4:J5"/>
-    <x:mergeCell ref="G4:H5"/>
-    <x:mergeCell ref="B4:C5"/>
+  <x:mergeCells count="6">
+    <x:mergeCell ref="A1:B1"/>
+    <x:mergeCell ref="A2:B2"/>
+    <x:mergeCell ref="A5:B5"/>
+    <x:mergeCell ref="A6:B6"/>
+    <x:mergeCell ref="A9:B9"/>
+    <x:mergeCell ref="A10:B10"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0" right="0" top="0" bottom="2" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,31 +9,173 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$B$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$C$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <x:si>
-    <x:t>矢　吹　家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>北5区17側36番 4㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>清掃契約</x:t>
-  </x:si>
-  <x:si>
-    <x:t>井　上　家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>南4区5側50番 4㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>草取り</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <x:si>
+    <x:t xml:space="preserve">          〒 606-8107
+          京都市左京区高野東開町
+          ２０－５０９
+          天内 俊介 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 241-0011
+          横浜市旭区川島町
+          ２９７６－１５
+          井寺 薫 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 157-0072
+          世田谷区祖師谷
+          １－３３－９
+          稲好 純也 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 195-0061
+          町田市鶴川
+          ４－４－３
+          大原 宏彦 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0036
+          川崎市麻生区はるひ野
+          ２－２８－１１
+          片岡 彰 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 252-0303
+          相模原市南区相模大野
+          ７－２２－５アーバンハイム２０
+          １
+          萱森 春枝 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 234-0055
+          横浜市港南区日野南
+          ３－７－１１－２１２プライム港
+          南台
+          木村 善彦 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 156-0054
+          世田谷区桜丘
+          １－８－１２
+          近藤 一郎 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 158-0098
+          世田谷区上用賀
+          ３－１９－８　フランシスコ・ヴ
+          ィラ３５５
+          坂野 浦子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 194-0032
+          町田市本町田
+          ２０８７－１６
+          笊畑 三樹生 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 182-0021
+          調布市調布ケ丘
+          ４－４－１１
+          宿谷 静子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 216-0015
+          川崎市宮前区菅生
+          ４－１０－２４
+          鈴木 政晴 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0021
+          川崎市多摩区宿河原
+          ７－３－２１
+          須藤 七五三 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 181-0004
+          三鷹市新川
+          ５－３－１６
+          竹中 智恵子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0013
+          川崎市多摩区登戸新町
+          １５６
+          竹村 君子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0039
+          川崎市多摩区栗谷
+          １－３－１７
+          田中 芙美子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 157-0066
+          世田谷区成城
+          ３－２６－５
+          德田 恵美 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0005
+          川崎市多摩区寺尾台
+          １－４９１４－１７
+          冨永 和之 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 215-0014
+          川崎市麻生区白山
+          ４－１－２－１２０
+          西村 周一 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 252-0314
+          相模原市南区南台
+          ４－１２－５１相模原市営南台団
+          地１号棟７０９
+          ワシントン 芳香 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 164-0013
+          中野区弥生町
+          ２－３１－１２
+          早川 雅子 様
+</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -43,7 +185,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -53,25 +195,9 @@
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
+      <x:sz val="10"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HG正楷書体-PRO"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="65"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="HG正楷書体-PRO"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="48"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="HG正楷書体-PRO"/>
+      <x:name val="ＭＳ Ｐゴシック"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -83,7 +209,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="4">
+  <x:borders count="1">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -101,108 +227,26 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="7">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="7">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -500,96 +544,97 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B12"/>
+  <x:dimension ref="A1:C7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="3" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="43.570625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="52.420625" style="1" customWidth="1"/>
+    <x:col min="4" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="34.710625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="31.570625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="75" customHeight="1">
+    <x:row r="1" spans="1:3" customFormat="1" ht="120" customHeight="1">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s"/>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A2" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s"/>
+    <x:row r="2" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:2" customFormat="1" ht="63.75" customHeight="1">
-      <x:c r="A3" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="6" t="s"/>
+    <x:row r="3" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A3" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:2" s="0" customFormat="1" ht="25.5" customHeight="1">
-      <x:c r="A4" s="1" t="s"/>
-      <x:c r="B4" s="1" t="s"/>
+    <x:row r="4" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A4" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
-    <x:row r="5" spans="1:2" customFormat="1" ht="75" customHeight="1">
+    <x:row r="5" spans="1:3" customFormat="1" ht="120" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s"/>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A6" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="5" t="s"/>
+    <x:row r="6" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A6" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:2" customFormat="1" ht="63.75" customHeight="1">
-      <x:c r="A7" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B7" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2" s="0" customFormat="1" ht="25.5" customHeight="1">
-      <x:c r="A8" s="1" t="s"/>
-      <x:c r="B8" s="1" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:2" customFormat="1" ht="75" customHeight="1">
-      <x:c r="A9" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A10" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B10" s="5" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:2" customFormat="1" ht="63.75" customHeight="1">
-      <x:c r="A11" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B11" s="6" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:2" s="0" customFormat="1" ht="25.5" customHeight="1">
-      <x:c r="A12" s="1" t="s"/>
-      <x:c r="B12" s="1" t="s"/>
+    <x:row r="7" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A7" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="6">
-    <x:mergeCell ref="A1:B1"/>
-    <x:mergeCell ref="A2:B2"/>
-    <x:mergeCell ref="A5:B5"/>
-    <x:mergeCell ref="A6:B6"/>
-    <x:mergeCell ref="A9:B9"/>
-    <x:mergeCell ref="A10:B10"/>
-  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0" right="0" top="0" bottom="2" header="0.5" footer="0.75"/>
+  <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,173 +9,46 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$C$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <x:si>
-    <x:t xml:space="preserve">          〒 606-8107
-          京都市左京区高野東開町
-          ２０－５０９
-          天内 俊介 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">          〒 241-0011
-          横浜市旭区川島町
-          ２９７６－１５
-          井寺 薫 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">          〒 157-0072
-          世田谷区祖師谷
-          １－３３－９
-          稲好 純也 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">          〒 195-0061
-          町田市鶴川
-          ４－４－３
-          大原 宏彦 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">          〒 215-0036
-          川崎市麻生区はるひ野
-          ２－２８－１１
-          片岡 彰 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">          〒 252-0303
-          相模原市南区相模大野
-          ７－２２－５アーバンハイム２０
-          １
-          萱森 春枝 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">          〒 234-0055
-          横浜市港南区日野南
-          ３－７－１１－２１２プライム港
-          南台
-          木村 善彦 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">          〒 156-0054
-          世田谷区桜丘
-          １－８－１２
-          近藤 一郎 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">          〒 158-0098
-          世田谷区上用賀
-          ３－１９－８　フランシスコ・ヴ
-          ィラ３５５
-          坂野 浦子 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">          〒 194-0032
-          町田市本町田
-          ２０８７－１６
-          笊畑 三樹生 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">          〒 182-0021
-          調布市調布ケ丘
-          ４－４－１１
-          宿谷 静子 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">          〒 216-0015
-          川崎市宮前区菅生
-          ４－１０－２４
-          鈴木 政晴 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          〒 214-0021
-          川崎市多摩区宿河原
-          ７－３－２１
-          須藤 七五三 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          〒 181-0004
-          三鷹市新川
-          ５－３－１６
-          竹中 智恵子 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          〒 214-0013
-          川崎市多摩区登戸新町
-          １５６
-          竹村 君子 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          〒 214-0039
-          川崎市多摩区栗谷
-          １－３－１７
-          田中 芙美子 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          〒 157-0066
-          世田谷区成城
-          ３－２６－５
-          德田 恵美 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          〒 214-0005
-          川崎市多摩区寺尾台
-          １－４９１４－１７
-          冨永 和之 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          〒 215-0014
-          川崎市麻生区白山
-          ４－１－２－１２０
-          西村 周一 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          〒 252-0314
-          相模原市南区南台
-          ４－１２－５１相模原市営南台団
-          地１号棟７０９
-          ワシントン 芳香 様
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-          〒 164-0013
-          中野区弥生町
-          ２－３１－１２
-          早川 雅子 様
-</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <x:si>
+    <x:t>\</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理番号 : 031447</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〒154-0004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>二特区5側11番</x:t>
+  </x:si>
+  <x:si>
+    <x:t>世田谷区太子堂</x:t>
+  </x:si>
+  <x:si>
+    <x:t>面積 : 15.0 ㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>５－９－４</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 世田谷区太子堂</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ５－９－４</x:t>
+  </x:si>
+  <x:si>
+    <x:t>田中　勝久 様</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -185,7 +58,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -195,9 +68,23 @@
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="10"/>
+      <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="14"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="9"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -228,25 +115,58 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -544,99 +464,281 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C7"/>
+  <x:dimension ref="A1:U14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="4" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="2" width="34.710625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="31.570625" style="1" customWidth="1"/>
+    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="4.420625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="25.850625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="8.280625" style="1" customWidth="1"/>
+    <x:col min="4" max="11" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="8.000625" style="1" customWidth="1"/>
+    <x:col min="13" max="16" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="17" max="17" width="2.850625" style="1" customWidth="1"/>
+    <x:col min="18" max="20" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="21" max="21" width="1.020625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3" customFormat="1" ht="120" customHeight="1">
-      <x:c r="A1" s="2" t="s">
+    <x:row r="1" spans="1:21" customFormat="1" ht="283.5" customHeight="1">
+      <x:c r="B1" s="2" t="s"/>
+      <x:c r="D1" s="2" t="s"/>
+      <x:c r="E1" s="2" t="s"/>
+      <x:c r="F1" s="2" t="s"/>
+      <x:c r="G1" s="2" t="s"/>
+      <x:c r="H1" s="2" t="s"/>
+      <x:c r="I1" s="2" t="s"/>
+      <x:c r="J1" s="2" t="s"/>
+      <x:c r="K1" s="2" t="s"/>
+      <x:c r="M1" s="2" t="s"/>
+      <x:c r="N1" s="2" t="s"/>
+      <x:c r="O1" s="2" t="s"/>
+      <x:c r="P1" s="2" t="s"/>
+      <x:c r="Q1" s="2" t="s"/>
+      <x:c r="R1" s="2" t="s"/>
+      <x:c r="S1" s="2" t="s"/>
+      <x:c r="T1" s="2" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:21" customFormat="1" ht="172.5" customHeight="1">
+      <x:c r="B2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="s"/>
+      <x:c r="H2" s="2" t="s"/>
+      <x:c r="I2" s="2" t="s"/>
+      <x:c r="J2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
+      <x:c r="P2" s="2" t="s"/>
+      <x:c r="Q2" s="2" t="s"/>
+      <x:c r="R2" s="2" t="s"/>
+      <x:c r="S2" s="2" t="s"/>
+      <x:c r="T2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
+      <x:c r="C3" s="2" t="s"/>
+      <x:c r="D3" s="3" t="s"/>
+      <x:c r="E3" s="3" t="s"/>
+      <x:c r="F3" s="3" t="s"/>
+      <x:c r="G3" s="3" t="s"/>
+      <x:c r="H3" s="3" t="s"/>
+      <x:c r="I3" s="3" t="s"/>
+      <x:c r="J3" s="3" t="s"/>
+      <x:c r="K3" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+    </x:row>
+    <x:row r="4" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s"/>
+      <x:c r="E4" s="2" t="s"/>
+      <x:c r="F4" s="2" t="s"/>
+      <x:c r="G4" s="2" t="s"/>
+      <x:c r="H4" s="2" t="s"/>
+      <x:c r="I4" s="2" t="s"/>
+      <x:c r="J4" s="2" t="s"/>
+      <x:c r="K4" s="2" t="s"/>
+      <x:c r="M4" s="2" t="s"/>
+      <x:c r="N4" s="2" t="s"/>
+      <x:c r="O4" s="2" t="s"/>
+      <x:c r="P4" s="2" t="s"/>
+      <x:c r="Q4" s="2" t="s"/>
+      <x:c r="R4" s="2" t="s"/>
+      <x:c r="S4" s="2" t="s"/>
+      <x:c r="T4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B5" s="2" t="s"/>
+      <x:c r="D5" s="2" t="s"/>
+      <x:c r="E5" s="2" t="s"/>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="D6" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="E6" s="4" t="s"/>
+      <x:c r="F6" s="4" t="s"/>
+      <x:c r="G6" s="4" t="s"/>
+      <x:c r="H6" s="4" t="s"/>
+      <x:c r="I6" s="4" t="s"/>
+      <x:c r="J6" s="4" t="s"/>
+      <x:c r="K6" s="4" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B7" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3" customFormat="1" ht="120" customHeight="1">
-      <x:c r="A2" s="2" t="s">
+      <x:c r="D7" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+      <x:c r="E7" s="4" t="s"/>
+      <x:c r="F7" s="4" t="s"/>
+      <x:c r="G7" s="4" t="s"/>
+      <x:c r="H7" s="4" t="s"/>
+      <x:c r="I7" s="4" t="s"/>
+      <x:c r="J7" s="4" t="s"/>
+      <x:c r="K7" s="4" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B8" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="D8" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3" customFormat="1" ht="120" customHeight="1">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="E8" s="4" t="s"/>
+      <x:c r="F8" s="4" t="s"/>
+      <x:c r="G8" s="4" t="s"/>
+      <x:c r="H8" s="4" t="s"/>
+      <x:c r="I8" s="4" t="s"/>
+      <x:c r="J8" s="4" t="s"/>
+      <x:c r="K8" s="4" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B9" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="D9" s="4" t="s"/>
+      <x:c r="E9" s="4" t="s"/>
+      <x:c r="F9" s="4" t="s"/>
+      <x:c r="G9" s="4" t="s"/>
+      <x:c r="H9" s="4" t="s"/>
+      <x:c r="I9" s="4" t="s"/>
+      <x:c r="J9" s="4" t="s"/>
+      <x:c r="K9" s="4" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="3" t="s"/>
+      <x:c r="N9" s="3" t="s"/>
+      <x:c r="O9" s="3" t="s"/>
+      <x:c r="P9" s="3" t="s"/>
+      <x:c r="Q9" s="3" t="s"/>
+      <x:c r="R9" s="3" t="s"/>
+      <x:c r="S9" s="3" t="s"/>
+      <x:c r="T9" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B10" s="5" t="s"/>
+      <x:c r="D10" s="4" t="s"/>
+      <x:c r="E10" s="4" t="s"/>
+      <x:c r="F10" s="4" t="s"/>
+      <x:c r="G10" s="4" t="s"/>
+      <x:c r="H10" s="4" t="s"/>
+      <x:c r="I10" s="4" t="s"/>
+      <x:c r="J10" s="4" t="s"/>
+      <x:c r="K10" s="4" t="s"/>
+      <x:c r="M10" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="N10" s="6" t="s"/>
+      <x:c r="O10" s="6" t="s"/>
+      <x:c r="P10" s="6" t="s"/>
+      <x:c r="Q10" s="6" t="s"/>
+      <x:c r="R10" s="6" t="s"/>
+      <x:c r="S10" s="6" t="s"/>
+      <x:c r="T10" s="6" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="M11" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3" customFormat="1" ht="120" customHeight="1">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="N11" s="6" t="s"/>
+      <x:c r="O11" s="6" t="s"/>
+      <x:c r="P11" s="6" t="s"/>
+      <x:c r="Q11" s="6" t="s"/>
+      <x:c r="R11" s="6" t="s"/>
+      <x:c r="S11" s="6" t="s"/>
+      <x:c r="T11" s="6" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B12" s="7" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="M12" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3" customFormat="1" ht="120" customHeight="1">
-      <x:c r="A5" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" customFormat="1" ht="120" customHeight="1">
-      <x:c r="A6" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3" customFormat="1" ht="120" customHeight="1">
-      <x:c r="A7" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
+      <x:c r="N12" s="6" t="s"/>
+      <x:c r="O12" s="6" t="s"/>
+      <x:c r="P12" s="6" t="s"/>
+      <x:c r="Q12" s="6" t="s"/>
+      <x:c r="R12" s="6" t="s"/>
+      <x:c r="S12" s="6" t="s"/>
+      <x:c r="T12" s="6" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="M13" s="8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="N13" s="8" t="s"/>
+      <x:c r="O13" s="8" t="s"/>
+      <x:c r="P13" s="8" t="s"/>
+      <x:c r="Q13" s="8" t="s"/>
+      <x:c r="R13" s="8" t="s"/>
+      <x:c r="S13" s="8" t="s"/>
+      <x:c r="T13" s="8" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:21" customFormat="1" ht="101.25" customHeight="1">
+      <x:c r="B14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s"/>
+      <x:c r="E14" s="2" t="s"/>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="9">
+    <x:mergeCell ref="D6:K6"/>
+    <x:mergeCell ref="D7:K7"/>
+    <x:mergeCell ref="D8:K8"/>
+    <x:mergeCell ref="D9:K9"/>
+    <x:mergeCell ref="D10:K10"/>
+    <x:mergeCell ref="M10:T10"/>
+    <x:mergeCell ref="M11:T11"/>
+    <x:mergeCell ref="M12:T12"/>
+    <x:mergeCell ref="M13:T13"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
+  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter/>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,46 +9,22 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$J$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <x:si>
-    <x:t>\</x:t>
+    <x:t xml:space="preserve"> 阿部　孝一 様</x:t>
   </x:si>
   <x:si>
-    <x:t>管理番号 : 031447</x:t>
+    <x:t>三ー三三ー二四</x:t>
   </x:si>
   <x:si>
-    <x:t>〒154-0004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>二特区5側11番</x:t>
-  </x:si>
-  <x:si>
-    <x:t>世田谷区太子堂</x:t>
-  </x:si>
-  <x:si>
-    <x:t>面積 : 15.0 ㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>５－９－４</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 世田谷区太子堂</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> ５－９－４</x:t>
-  </x:si>
-  <x:si>
-    <x:t>田中　勝久 様</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
+    <x:t>横浜市旭区上白根</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -58,7 +34,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="5">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -70,21 +46,28 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
+      <x:sz val="16"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="9"/>
+      <x:sz val="48"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="HGP行書体"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="30"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -122,17 +105,17 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="9">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -141,32 +124,20 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -464,281 +435,115 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U14"/>
+  <x:dimension ref="A1:J6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="4.420625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="25.850625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.280625" style="1" customWidth="1"/>
-    <x:col min="4" max="11" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="8.000625" style="1" customWidth="1"/>
-    <x:col min="13" max="16" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="17" max="17" width="2.850625" style="1" customWidth="1"/>
-    <x:col min="18" max="20" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="21" max="21" width="1.020625" style="1" customWidth="1"/>
+    <x:col min="11" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="22.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
+    <x:col min="3" max="5" width="3.420625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="1.040625" style="1" customWidth="1"/>
+    <x:col min="7" max="10" width="3.420625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:21" customFormat="1" ht="283.5" customHeight="1">
-      <x:c r="B1" s="2" t="s"/>
-      <x:c r="D1" s="2" t="s"/>
-      <x:c r="E1" s="2" t="s"/>
-      <x:c r="F1" s="2" t="s"/>
-      <x:c r="G1" s="2" t="s"/>
-      <x:c r="H1" s="2" t="s"/>
-      <x:c r="I1" s="2" t="s"/>
-      <x:c r="J1" s="2" t="s"/>
-      <x:c r="K1" s="2" t="s"/>
-      <x:c r="M1" s="2" t="s"/>
-      <x:c r="N1" s="2" t="s"/>
-      <x:c r="O1" s="2" t="s"/>
-      <x:c r="P1" s="2" t="s"/>
-      <x:c r="Q1" s="2" t="s"/>
-      <x:c r="R1" s="2" t="s"/>
-      <x:c r="S1" s="2" t="s"/>
-      <x:c r="T1" s="2" t="s"/>
+    <x:row r="1" spans="1:10" s="0" customFormat="1" ht="101.25" customHeight="1">
+      <x:c r="B1" s="1" t="s"/>
+      <x:c r="C1" s="1" t="s"/>
+      <x:c r="D1" s="1" t="s"/>
+      <x:c r="E1" s="1" t="s"/>
+      <x:c r="F1" s="1" t="s"/>
+      <x:c r="G1" s="1" t="s"/>
+      <x:c r="H1" s="1" t="s"/>
+      <x:c r="I1" s="1" t="s"/>
+      <x:c r="J1" s="1" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:21" customFormat="1" ht="172.5" customHeight="1">
-      <x:c r="B2" s="2" t="s"/>
-      <x:c r="D2" s="2" t="s"/>
-      <x:c r="E2" s="2" t="s"/>
+    <x:row r="2" spans="1:10" customFormat="1" ht="38.25" customHeight="1">
+      <x:c r="C2" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="F2" s="2" t="s"/>
-      <x:c r="G2" s="2" t="s"/>
-      <x:c r="H2" s="2" t="s"/>
-      <x:c r="I2" s="2" t="s"/>
-      <x:c r="J2" s="2" t="s"/>
-      <x:c r="K2" s="2" t="s"/>
-      <x:c r="M2" s="2" t="s"/>
-      <x:c r="N2" s="2" t="s"/>
-      <x:c r="O2" s="2" t="s"/>
-      <x:c r="P2" s="2" t="s"/>
-      <x:c r="Q2" s="2" t="s"/>
-      <x:c r="R2" s="2" t="s"/>
-      <x:c r="S2" s="2" t="s"/>
-      <x:c r="T2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
-      <x:c r="C3" s="2" t="s"/>
-      <x:c r="D3" s="3" t="s"/>
-      <x:c r="E3" s="3" t="s"/>
-      <x:c r="F3" s="3" t="s"/>
-      <x:c r="G3" s="3" t="s"/>
-      <x:c r="H3" s="3" t="s"/>
-      <x:c r="I3" s="3" t="s"/>
-      <x:c r="J3" s="3" t="s"/>
-      <x:c r="K3" s="3" t="s">
+    <x:row r="3" spans="1:10" s="0" customFormat="1" ht="14.25" customHeight="1">
+      <x:c r="B3" s="1" t="s"/>
+      <x:c r="C3" s="1" t="s"/>
+      <x:c r="D3" s="1" t="s"/>
+      <x:c r="E3" s="1" t="s"/>
+      <x:c r="F3" s="1" t="s"/>
+      <x:c r="G3" s="1" t="s"/>
+      <x:c r="H3" s="1" t="s"/>
+      <x:c r="I3" s="1" t="s"/>
+      <x:c r="J3" s="1" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:10" customFormat="1" ht="409.5" customHeight="1">
+      <x:c r="B4" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="C4" s="3" t="s"/>
+      <x:c r="D4" s="4" t="s"/>
+      <x:c r="E4" s="4" t="s"/>
+      <x:c r="F4" s="5" t="s"/>
+      <x:c r="G4" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H4" s="5" t="s"/>
+      <x:c r="I4" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J4" s="4" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B4" s="2" t="s"/>
-      <x:c r="D4" s="2" t="s"/>
-      <x:c r="E4" s="2" t="s"/>
-      <x:c r="F4" s="2" t="s"/>
-      <x:c r="G4" s="2" t="s"/>
-      <x:c r="H4" s="2" t="s"/>
-      <x:c r="I4" s="2" t="s"/>
-      <x:c r="J4" s="2" t="s"/>
-      <x:c r="K4" s="2" t="s"/>
-      <x:c r="M4" s="2" t="s"/>
-      <x:c r="N4" s="2" t="s"/>
-      <x:c r="O4" s="2" t="s"/>
-      <x:c r="P4" s="2" t="s"/>
-      <x:c r="Q4" s="2" t="s"/>
-      <x:c r="R4" s="2" t="s"/>
-      <x:c r="S4" s="2" t="s"/>
-      <x:c r="T4" s="2" t="s"/>
+    <x:row r="5" spans="1:10" customFormat="1" ht="133.5" customHeight="1">
+      <x:c r="B5" s="3" t="s"/>
+      <x:c r="C5" s="3" t="s"/>
+      <x:c r="D5" s="4" t="s"/>
+      <x:c r="E5" s="4" t="s"/>
+      <x:c r="G5" s="5" t="s"/>
+      <x:c r="H5" s="5" t="s"/>
+      <x:c r="I5" s="4" t="s"/>
+      <x:c r="J5" s="4" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B5" s="2" t="s"/>
-      <x:c r="D5" s="2" t="s"/>
-      <x:c r="E5" s="2" t="s"/>
-      <x:c r="F5" s="2" t="s"/>
-      <x:c r="G5" s="2" t="s"/>
-      <x:c r="H5" s="2" t="s"/>
-      <x:c r="I5" s="2" t="s"/>
-      <x:c r="J5" s="2" t="s"/>
-      <x:c r="K5" s="2" t="s"/>
-      <x:c r="M5" s="2" t="s"/>
-      <x:c r="N5" s="2" t="s"/>
-      <x:c r="O5" s="2" t="s"/>
-      <x:c r="P5" s="2" t="s"/>
-      <x:c r="Q5" s="2" t="s"/>
-      <x:c r="R5" s="2" t="s"/>
-      <x:c r="S5" s="2" t="s"/>
-      <x:c r="T5" s="2" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="D6" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E6" s="4" t="s"/>
-      <x:c r="F6" s="4" t="s"/>
-      <x:c r="G6" s="4" t="s"/>
-      <x:c r="H6" s="4" t="s"/>
-      <x:c r="I6" s="4" t="s"/>
-      <x:c r="J6" s="4" t="s"/>
-      <x:c r="K6" s="4" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B7" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D7" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E7" s="4" t="s"/>
-      <x:c r="F7" s="4" t="s"/>
-      <x:c r="G7" s="4" t="s"/>
-      <x:c r="H7" s="4" t="s"/>
-      <x:c r="I7" s="4" t="s"/>
-      <x:c r="J7" s="4" t="s"/>
-      <x:c r="K7" s="4" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B8" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D8" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E8" s="4" t="s"/>
-      <x:c r="F8" s="4" t="s"/>
-      <x:c r="G8" s="4" t="s"/>
-      <x:c r="H8" s="4" t="s"/>
-      <x:c r="I8" s="4" t="s"/>
-      <x:c r="J8" s="4" t="s"/>
-      <x:c r="K8" s="4" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B9" s="5" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D9" s="4" t="s"/>
-      <x:c r="E9" s="4" t="s"/>
-      <x:c r="F9" s="4" t="s"/>
-      <x:c r="G9" s="4" t="s"/>
-      <x:c r="H9" s="4" t="s"/>
-      <x:c r="I9" s="4" t="s"/>
-      <x:c r="J9" s="4" t="s"/>
-      <x:c r="K9" s="4" t="s"/>
-      <x:c r="L9" s="2" t="s"/>
-      <x:c r="M9" s="3" t="s"/>
-      <x:c r="N9" s="3" t="s"/>
-      <x:c r="O9" s="3" t="s"/>
-      <x:c r="P9" s="3" t="s"/>
-      <x:c r="Q9" s="3" t="s"/>
-      <x:c r="R9" s="3" t="s"/>
-      <x:c r="S9" s="3" t="s"/>
-      <x:c r="T9" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B10" s="5" t="s"/>
-      <x:c r="D10" s="4" t="s"/>
-      <x:c r="E10" s="4" t="s"/>
-      <x:c r="F10" s="4" t="s"/>
-      <x:c r="G10" s="4" t="s"/>
-      <x:c r="H10" s="4" t="s"/>
-      <x:c r="I10" s="4" t="s"/>
-      <x:c r="J10" s="4" t="s"/>
-      <x:c r="K10" s="4" t="s"/>
-      <x:c r="M10" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="N10" s="6" t="s"/>
-      <x:c r="O10" s="6" t="s"/>
-      <x:c r="P10" s="6" t="s"/>
-      <x:c r="Q10" s="6" t="s"/>
-      <x:c r="R10" s="6" t="s"/>
-      <x:c r="S10" s="6" t="s"/>
-      <x:c r="T10" s="6" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M11" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="N11" s="6" t="s"/>
-      <x:c r="O11" s="6" t="s"/>
-      <x:c r="P11" s="6" t="s"/>
-      <x:c r="Q11" s="6" t="s"/>
-      <x:c r="R11" s="6" t="s"/>
-      <x:c r="S11" s="6" t="s"/>
-      <x:c r="T11" s="6" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B12" s="7" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M12" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="N12" s="6" t="s"/>
-      <x:c r="O12" s="6" t="s"/>
-      <x:c r="P12" s="6" t="s"/>
-      <x:c r="Q12" s="6" t="s"/>
-      <x:c r="R12" s="6" t="s"/>
-      <x:c r="S12" s="6" t="s"/>
-      <x:c r="T12" s="6" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M13" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="N13" s="8" t="s"/>
-      <x:c r="O13" s="8" t="s"/>
-      <x:c r="P13" s="8" t="s"/>
-      <x:c r="Q13" s="8" t="s"/>
-      <x:c r="R13" s="8" t="s"/>
-      <x:c r="S13" s="8" t="s"/>
-      <x:c r="T13" s="8" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:21" customFormat="1" ht="101.25" customHeight="1">
-      <x:c r="B14" s="2" t="s"/>
-      <x:c r="D14" s="2" t="s"/>
-      <x:c r="E14" s="2" t="s"/>
-      <x:c r="F14" s="2" t="s"/>
-      <x:c r="G14" s="2" t="s"/>
-      <x:c r="H14" s="2" t="s"/>
-      <x:c r="I14" s="2" t="s"/>
-      <x:c r="J14" s="2" t="s"/>
-      <x:c r="K14" s="2" t="s"/>
-      <x:c r="M14" s="2" t="s"/>
-      <x:c r="N14" s="2" t="s"/>
-      <x:c r="O14" s="2" t="s"/>
-      <x:c r="P14" s="2" t="s"/>
-      <x:c r="Q14" s="2" t="s"/>
-      <x:c r="R14" s="2" t="s"/>
-      <x:c r="S14" s="2" t="s"/>
-      <x:c r="T14" s="2" t="s"/>
+    <x:row r="6" spans="1:10" s="0" customFormat="1" ht="36" customHeight="1">
+      <x:c r="B6" s="1" t="s"/>
+      <x:c r="C6" s="1" t="s"/>
+      <x:c r="D6" s="1" t="s"/>
+      <x:c r="E6" s="1" t="s"/>
+      <x:c r="F6" s="1" t="s"/>
+      <x:c r="G6" s="1" t="s"/>
+      <x:c r="H6" s="1" t="s"/>
+      <x:c r="I6" s="1" t="s"/>
+      <x:c r="J6" s="1" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="9">
-    <x:mergeCell ref="D6:K6"/>
-    <x:mergeCell ref="D7:K7"/>
-    <x:mergeCell ref="D8:K8"/>
-    <x:mergeCell ref="D9:K9"/>
-    <x:mergeCell ref="D10:K10"/>
-    <x:mergeCell ref="M10:T10"/>
-    <x:mergeCell ref="M11:T11"/>
-    <x:mergeCell ref="M12:T12"/>
-    <x:mergeCell ref="M13:T13"/>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="I4:J5"/>
+    <x:mergeCell ref="G4:H5"/>
+    <x:mergeCell ref="D4:E5"/>
+    <x:mergeCell ref="B4:C5"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,22 +9,46 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$J$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <x:si>
-    <x:t xml:space="preserve"> 阿部　孝一 様</x:t>
-  </x:si>
-  <x:si>
-    <x:t>三ー三三ー二四</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <x:si>
+    <x:t>\</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理番号 : 001234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〒241-0002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>西4区5側1番</x:t>
   </x:si>
   <x:si>
     <x:t>横浜市旭区上白根</x:t>
+  </x:si>
+  <x:si>
+    <x:t>面積 : 3.5 ㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>３－３３－２４</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 横浜市旭区上白根</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ３－３３－２４</x:t>
+  </x:si>
+  <x:si>
+    <x:t>阿部　孝一 様</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -34,7 +58,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="5">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -46,28 +70,21 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
+      <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="48"/>
+      <x:sz val="9"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="30"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -105,17 +122,17 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -124,20 +141,32 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -435,115 +464,281 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J6"/>
+  <x:dimension ref="A1:U14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="11" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="22.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
-    <x:col min="3" max="5" width="3.420625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="1.040625" style="1" customWidth="1"/>
-    <x:col min="7" max="10" width="3.420625" style="1" customWidth="1"/>
+    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="4.420625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="25.850625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="8.280625" style="1" customWidth="1"/>
+    <x:col min="4" max="11" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="8.000625" style="1" customWidth="1"/>
+    <x:col min="13" max="16" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="17" max="17" width="2.850625" style="1" customWidth="1"/>
+    <x:col min="18" max="20" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="21" max="21" width="1.020625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:10" s="0" customFormat="1" ht="101.25" customHeight="1">
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="C1" s="1" t="s"/>
-      <x:c r="D1" s="1" t="s"/>
-      <x:c r="E1" s="1" t="s"/>
-      <x:c r="F1" s="1" t="s"/>
-      <x:c r="G1" s="1" t="s"/>
-      <x:c r="H1" s="1" t="s"/>
-      <x:c r="I1" s="1" t="s"/>
-      <x:c r="J1" s="1" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:10" customFormat="1" ht="38.25" customHeight="1">
-      <x:c r="C2" s="2" t="n">
+    <x:row r="1" spans="1:21" customFormat="1" ht="283.5" customHeight="1">
+      <x:c r="B1" s="2" t="s"/>
+      <x:c r="D1" s="2" t="s"/>
+      <x:c r="E1" s="2" t="s"/>
+      <x:c r="F1" s="2" t="s"/>
+      <x:c r="G1" s="2" t="s"/>
+      <x:c r="H1" s="2" t="s"/>
+      <x:c r="I1" s="2" t="s"/>
+      <x:c r="J1" s="2" t="s"/>
+      <x:c r="K1" s="2" t="s"/>
+      <x:c r="M1" s="2" t="s"/>
+      <x:c r="N1" s="2" t="s"/>
+      <x:c r="O1" s="2" t="s"/>
+      <x:c r="P1" s="2" t="s"/>
+      <x:c r="Q1" s="2" t="s"/>
+      <x:c r="R1" s="2" t="s"/>
+      <x:c r="S1" s="2" t="s"/>
+      <x:c r="T1" s="2" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:21" customFormat="1" ht="172.5" customHeight="1">
+      <x:c r="B2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="s"/>
+      <x:c r="H2" s="2" t="s"/>
+      <x:c r="I2" s="2" t="s"/>
+      <x:c r="J2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
+      <x:c r="P2" s="2" t="s"/>
+      <x:c r="Q2" s="2" t="s"/>
+      <x:c r="R2" s="2" t="s"/>
+      <x:c r="S2" s="2" t="s"/>
+      <x:c r="T2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
+      <x:c r="C3" s="2" t="s"/>
+      <x:c r="D3" s="3" t="s"/>
+      <x:c r="E3" s="3" t="s"/>
+      <x:c r="F3" s="3" t="s"/>
+      <x:c r="G3" s="3" t="s"/>
+      <x:c r="H3" s="3" t="s"/>
+      <x:c r="I3" s="3" t="s"/>
+      <x:c r="J3" s="3" t="s"/>
+      <x:c r="K3" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s"/>
+      <x:c r="E4" s="2" t="s"/>
+      <x:c r="F4" s="2" t="s"/>
+      <x:c r="G4" s="2" t="s"/>
+      <x:c r="H4" s="2" t="s"/>
+      <x:c r="I4" s="2" t="s"/>
+      <x:c r="J4" s="2" t="s"/>
+      <x:c r="K4" s="2" t="s"/>
+      <x:c r="M4" s="2" t="s"/>
+      <x:c r="N4" s="2" t="s"/>
+      <x:c r="O4" s="2" t="s"/>
+      <x:c r="P4" s="2" t="s"/>
+      <x:c r="Q4" s="2" t="s"/>
+      <x:c r="R4" s="2" t="s"/>
+      <x:c r="S4" s="2" t="s"/>
+      <x:c r="T4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B5" s="2" t="s"/>
+      <x:c r="D5" s="2" t="s"/>
+      <x:c r="E5" s="2" t="s"/>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="D6" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E6" s="4" t="s"/>
+      <x:c r="F6" s="4" t="s"/>
+      <x:c r="G6" s="4" t="s"/>
+      <x:c r="H6" s="4" t="s"/>
+      <x:c r="I6" s="4" t="s"/>
+      <x:c r="J6" s="4" t="s"/>
+      <x:c r="K6" s="4" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B7" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="n">
+      <x:c r="D7" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E7" s="4" t="s"/>
+      <x:c r="F7" s="4" t="s"/>
+      <x:c r="G7" s="4" t="s"/>
+      <x:c r="H7" s="4" t="s"/>
+      <x:c r="I7" s="4" t="s"/>
+      <x:c r="J7" s="4" t="s"/>
+      <x:c r="K7" s="4" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B8" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s"/>
-      <x:c r="G2" s="2" t="n">
+      <x:c r="D8" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E8" s="4" t="s"/>
+      <x:c r="F8" s="4" t="s"/>
+      <x:c r="G8" s="4" t="s"/>
+      <x:c r="H8" s="4" t="s"/>
+      <x:c r="I8" s="4" t="s"/>
+      <x:c r="J8" s="4" t="s"/>
+      <x:c r="K8" s="4" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B9" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D9" s="4" t="s"/>
+      <x:c r="E9" s="4" t="s"/>
+      <x:c r="F9" s="4" t="s"/>
+      <x:c r="G9" s="4" t="s"/>
+      <x:c r="H9" s="4" t="s"/>
+      <x:c r="I9" s="4" t="s"/>
+      <x:c r="J9" s="4" t="s"/>
+      <x:c r="K9" s="4" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="3" t="s"/>
+      <x:c r="N9" s="3" t="s"/>
+      <x:c r="O9" s="3" t="s"/>
+      <x:c r="P9" s="3" t="s"/>
+      <x:c r="Q9" s="3" t="s"/>
+      <x:c r="R9" s="3" t="s"/>
+      <x:c r="S9" s="3" t="s"/>
+      <x:c r="T9" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2" s="2" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:10" s="0" customFormat="1" ht="14.25" customHeight="1">
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="C3" s="1" t="s"/>
-      <x:c r="D3" s="1" t="s"/>
-      <x:c r="E3" s="1" t="s"/>
-      <x:c r="F3" s="1" t="s"/>
-      <x:c r="G3" s="1" t="s"/>
-      <x:c r="H3" s="1" t="s"/>
-      <x:c r="I3" s="1" t="s"/>
-      <x:c r="J3" s="1" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:10" customFormat="1" ht="409.5" customHeight="1">
-      <x:c r="B4" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s"/>
-      <x:c r="D4" s="4" t="s"/>
-      <x:c r="E4" s="4" t="s"/>
-      <x:c r="F4" s="5" t="s"/>
-      <x:c r="G4" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H4" s="5" t="s"/>
-      <x:c r="I4" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J4" s="4" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:10" customFormat="1" ht="133.5" customHeight="1">
-      <x:c r="B5" s="3" t="s"/>
-      <x:c r="C5" s="3" t="s"/>
-      <x:c r="D5" s="4" t="s"/>
-      <x:c r="E5" s="4" t="s"/>
-      <x:c r="G5" s="5" t="s"/>
-      <x:c r="H5" s="5" t="s"/>
-      <x:c r="I5" s="4" t="s"/>
-      <x:c r="J5" s="4" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:10" s="0" customFormat="1" ht="36" customHeight="1">
-      <x:c r="B6" s="1" t="s"/>
-      <x:c r="C6" s="1" t="s"/>
-      <x:c r="D6" s="1" t="s"/>
-      <x:c r="E6" s="1" t="s"/>
-      <x:c r="F6" s="1" t="s"/>
-      <x:c r="G6" s="1" t="s"/>
-      <x:c r="H6" s="1" t="s"/>
-      <x:c r="I6" s="1" t="s"/>
-      <x:c r="J6" s="1" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B10" s="5" t="s"/>
+      <x:c r="D10" s="4" t="s"/>
+      <x:c r="E10" s="4" t="s"/>
+      <x:c r="F10" s="4" t="s"/>
+      <x:c r="G10" s="4" t="s"/>
+      <x:c r="H10" s="4" t="s"/>
+      <x:c r="I10" s="4" t="s"/>
+      <x:c r="J10" s="4" t="s"/>
+      <x:c r="K10" s="4" t="s"/>
+      <x:c r="M10" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N10" s="6" t="s"/>
+      <x:c r="O10" s="6" t="s"/>
+      <x:c r="P10" s="6" t="s"/>
+      <x:c r="Q10" s="6" t="s"/>
+      <x:c r="R10" s="6" t="s"/>
+      <x:c r="S10" s="6" t="s"/>
+      <x:c r="T10" s="6" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="M11" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N11" s="6" t="s"/>
+      <x:c r="O11" s="6" t="s"/>
+      <x:c r="P11" s="6" t="s"/>
+      <x:c r="Q11" s="6" t="s"/>
+      <x:c r="R11" s="6" t="s"/>
+      <x:c r="S11" s="6" t="s"/>
+      <x:c r="T11" s="6" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B12" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="M12" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N12" s="6" t="s"/>
+      <x:c r="O12" s="6" t="s"/>
+      <x:c r="P12" s="6" t="s"/>
+      <x:c r="Q12" s="6" t="s"/>
+      <x:c r="R12" s="6" t="s"/>
+      <x:c r="S12" s="6" t="s"/>
+      <x:c r="T12" s="6" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="M13" s="8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="N13" s="8" t="s"/>
+      <x:c r="O13" s="8" t="s"/>
+      <x:c r="P13" s="8" t="s"/>
+      <x:c r="Q13" s="8" t="s"/>
+      <x:c r="R13" s="8" t="s"/>
+      <x:c r="S13" s="8" t="s"/>
+      <x:c r="T13" s="8" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:21" customFormat="1" ht="101.25" customHeight="1">
+      <x:c r="B14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s"/>
+      <x:c r="E14" s="2" t="s"/>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="4">
-    <x:mergeCell ref="I4:J5"/>
-    <x:mergeCell ref="G4:H5"/>
-    <x:mergeCell ref="D4:E5"/>
-    <x:mergeCell ref="B4:C5"/>
+  <x:mergeCells count="9">
+    <x:mergeCell ref="D6:K6"/>
+    <x:mergeCell ref="D7:K7"/>
+    <x:mergeCell ref="D8:K8"/>
+    <x:mergeCell ref="D9:K9"/>
+    <x:mergeCell ref="D10:K10"/>
+    <x:mergeCell ref="M10:T10"/>
+    <x:mergeCell ref="M11:T11"/>
+    <x:mergeCell ref="M12:T12"/>
+    <x:mergeCell ref="M13:T13"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
+  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter/>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -21,34 +21,34 @@
     <x:t>\</x:t>
   </x:si>
   <x:si>
-    <x:t>管理番号 : 032049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〒337-0002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>北9区15側3番</x:t>
-  </x:si>
-  <x:si>
-    <x:t>埼玉県さいたま市見沼区春野</x:t>
-  </x:si>
-  <x:si>
-    <x:t>面積 : 1.5 ㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>２－１０－２５－９１２</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 埼玉県さいたま市見沼区</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 春野２－１０－２５－９</x:t>
-  </x:si>
-  <x:si>
-    <x:t>張　典子 様</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> １２</x:t>
+    <x:t>管理番号 : 001234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〒241-0002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>西4区5側1番</x:t>
+  </x:si>
+  <x:si>
+    <x:t>横浜市旭区上白根</x:t>
+  </x:si>
+  <x:si>
+    <x:t>面積 : 3.5 ㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>３－３３－２４</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 横浜市旭区上白根</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ３－３３－２４</x:t>
+  </x:si>
+  <x:si>
+    <x:t>阿部　孝一 様</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
   </x:si>
 </x:sst>
 </file>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -16,39 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <x:si>
     <x:t>\</x:t>
   </x:si>
   <x:si>
-    <x:t>管理番号 : 001234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〒241-0002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>西4区5側1番</x:t>
-  </x:si>
-  <x:si>
-    <x:t>横浜市旭区上白根</x:t>
-  </x:si>
-  <x:si>
-    <x:t>面積 : 3.5 ㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>３－３３－２４</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 横浜市旭区上白根</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> ３－３３－２４</x:t>
-  </x:si>
-  <x:si>
-    <x:t>阿部　孝一 様</x:t>
+    <x:t>〒</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 様</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -565,9 +544,7 @@
       <x:c r="T5" s="1" t="s"/>
     </x:row>
     <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="D6" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
+      <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s"/>
       <x:c r="F6" s="3" t="s"/>
       <x:c r="G6" s="3" t="s"/>
@@ -578,11 +555,9 @@
     </x:row>
     <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
       <x:c r="B7" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s"/>
       <x:c r="E7" s="3" t="s"/>
       <x:c r="F7" s="3" t="s"/>
       <x:c r="G7" s="3" t="s"/>
@@ -592,12 +567,8 @@
       <x:c r="K7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B8" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="B8" s="4" t="s"/>
+      <x:c r="D8" s="3" t="s"/>
       <x:c r="E8" s="3" t="s"/>
       <x:c r="F8" s="3" t="s"/>
       <x:c r="G8" s="3" t="s"/>
@@ -607,9 +578,7 @@
       <x:c r="K8" s="3" t="s"/>
     </x:row>
     <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B9" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
+      <x:c r="B9" s="4" t="s"/>
       <x:c r="D9" s="3" t="s"/>
       <x:c r="E9" s="3" t="s"/>
       <x:c r="F9" s="3" t="s"/>
@@ -641,7 +610,7 @@
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
       <x:c r="M10" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N10" s="5" t="s"/>
       <x:c r="O10" s="5" t="s"/>
@@ -653,7 +622,7 @@
     </x:row>
     <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
       <x:c r="M11" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N11" s="5" t="s"/>
       <x:c r="O11" s="5" t="s"/>
@@ -665,10 +634,10 @@
     </x:row>
     <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
       <x:c r="B12" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M12" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N12" s="5" t="s"/>
       <x:c r="O12" s="5" t="s"/>
@@ -680,7 +649,7 @@
     </x:row>
     <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
       <x:c r="M13" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N13" s="7" t="s"/>
       <x:c r="O13" s="7" t="s"/>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,25 +9,22 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$B$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <x:si>
-    <x:t>\</x:t>
+    <x:t>鮫　島　家</x:t>
   </x:si>
   <x:si>
-    <x:t>〒</x:t>
+    <x:t>二特区2側3番 9㎡</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 様</x:t>
+    <x:t>清掃契約</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -49,21 +46,23 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="HG正楷書体-PRO"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
+      <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
+      <x:sz val="65"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="HG正楷書体-PRO"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
+      <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="9"/>
+      <x:sz val="48"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="HG正楷書体-PRO"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -75,7 +74,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="4">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -87,6 +86,57 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -94,21 +144,30 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -117,28 +176,24 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -436,263 +491,47 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:B4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="4.420625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.850625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.280625" style="0" customWidth="1"/>
-    <x:col min="4" max="11" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="8.000625" style="0" customWidth="1"/>
-    <x:col min="13" max="16" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="17" max="17" width="2.850625" style="1" customWidth="1"/>
-    <x:col min="18" max="20" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="21" max="21" width="1.020625" style="0" customWidth="1"/>
+    <x:col min="3" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="43.570625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="52.420625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:21" s="0" customFormat="1" ht="283.5" customHeight="1">
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="D1" s="1" t="s"/>
-      <x:c r="E1" s="1" t="s"/>
-      <x:c r="F1" s="1" t="s"/>
-      <x:c r="G1" s="1" t="s"/>
-      <x:c r="H1" s="1" t="s"/>
-      <x:c r="I1" s="1" t="s"/>
-      <x:c r="J1" s="1" t="s"/>
-      <x:c r="K1" s="1" t="s"/>
-      <x:c r="M1" s="1" t="s"/>
-      <x:c r="N1" s="1" t="s"/>
-      <x:c r="O1" s="1" t="s"/>
-      <x:c r="P1" s="1" t="s"/>
-      <x:c r="Q1" s="1" t="s"/>
-      <x:c r="R1" s="1" t="s"/>
-      <x:c r="S1" s="1" t="s"/>
-      <x:c r="T1" s="1" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:21" s="0" customFormat="1" ht="172.5" customHeight="1">
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="D2" s="1" t="s"/>
-      <x:c r="E2" s="1" t="s"/>
-      <x:c r="F2" s="1" t="s"/>
-      <x:c r="G2" s="1" t="s"/>
-      <x:c r="H2" s="1" t="s"/>
-      <x:c r="I2" s="1" t="s"/>
-      <x:c r="J2" s="1" t="s"/>
-      <x:c r="K2" s="1" t="s"/>
-      <x:c r="M2" s="1" t="s"/>
-      <x:c r="N2" s="1" t="s"/>
-      <x:c r="O2" s="1" t="s"/>
-      <x:c r="P2" s="1" t="s"/>
-      <x:c r="Q2" s="1" t="s"/>
-      <x:c r="R2" s="1" t="s"/>
-      <x:c r="S2" s="1" t="s"/>
-      <x:c r="T2" s="1" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
-      <x:c r="C3" s="1" t="s"/>
-      <x:c r="D3" s="2" t="s"/>
-      <x:c r="E3" s="2" t="s"/>
-      <x:c r="F3" s="2" t="s"/>
-      <x:c r="G3" s="2" t="s"/>
-      <x:c r="H3" s="2" t="s"/>
-      <x:c r="I3" s="2" t="s"/>
-      <x:c r="J3" s="2" t="s"/>
-      <x:c r="K3" s="2" t="s">
+    <x:row r="1" spans="1:2" customFormat="1" ht="75" customHeight="1">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="B1" s="3" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
-      <x:c r="E4" s="1" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
-      <x:c r="G4" s="1" t="s"/>
-      <x:c r="H4" s="1" t="s"/>
-      <x:c r="I4" s="1" t="s"/>
-      <x:c r="J4" s="1" t="s"/>
-      <x:c r="K4" s="1" t="s"/>
-      <x:c r="M4" s="1" t="s"/>
-      <x:c r="N4" s="1" t="s"/>
-      <x:c r="O4" s="1" t="s"/>
-      <x:c r="P4" s="1" t="s"/>
-      <x:c r="Q4" s="1" t="s"/>
-      <x:c r="R4" s="1" t="s"/>
-      <x:c r="S4" s="1" t="s"/>
-      <x:c r="T4" s="1" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B5" s="1" t="s"/>
-      <x:c r="D5" s="1" t="s"/>
-      <x:c r="E5" s="1" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
-      <x:c r="G5" s="1" t="s"/>
-      <x:c r="H5" s="1" t="s"/>
-      <x:c r="I5" s="1" t="s"/>
-      <x:c r="J5" s="1" t="s"/>
-      <x:c r="K5" s="1" t="s"/>
-      <x:c r="M5" s="1" t="s"/>
-      <x:c r="N5" s="1" t="s"/>
-      <x:c r="O5" s="1" t="s"/>
-      <x:c r="P5" s="1" t="s"/>
-      <x:c r="Q5" s="1" t="s"/>
-      <x:c r="R5" s="1" t="s"/>
-      <x:c r="S5" s="1" t="s"/>
-      <x:c r="T5" s="1" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-      <x:c r="F6" s="3" t="s"/>
-      <x:c r="G6" s="3" t="s"/>
-      <x:c r="H6" s="3" t="s"/>
-      <x:c r="I6" s="3" t="s"/>
-      <x:c r="J6" s="3" t="s"/>
-      <x:c r="K6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B7" s="4" t="s">
+    <x:row r="2" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
+      <x:c r="A2" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s"/>
-      <x:c r="F7" s="3" t="s"/>
-      <x:c r="G7" s="3" t="s"/>
-      <x:c r="H7" s="3" t="s"/>
-      <x:c r="I7" s="3" t="s"/>
-      <x:c r="J7" s="3" t="s"/>
-      <x:c r="K7" s="3" t="s"/>
+      <x:c r="B2" s="5" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B8" s="4" t="s"/>
-      <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s"/>
-      <x:c r="F8" s="3" t="s"/>
-      <x:c r="G8" s="3" t="s"/>
-      <x:c r="H8" s="3" t="s"/>
-      <x:c r="I8" s="3" t="s"/>
-      <x:c r="J8" s="3" t="s"/>
-      <x:c r="K8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B9" s="4" t="s"/>
-      <x:c r="D9" s="3" t="s"/>
-      <x:c r="E9" s="3" t="s"/>
-      <x:c r="F9" s="3" t="s"/>
-      <x:c r="G9" s="3" t="s"/>
-      <x:c r="H9" s="3" t="s"/>
-      <x:c r="I9" s="3" t="s"/>
-      <x:c r="J9" s="3" t="s"/>
-      <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="1" t="s"/>
-      <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s"/>
-      <x:c r="P9" s="2" t="s"/>
-      <x:c r="Q9" s="2" t="s"/>
-      <x:c r="R9" s="2" t="s"/>
-      <x:c r="S9" s="2" t="s"/>
-      <x:c r="T9" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B10" s="4" t="s"/>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s"/>
-      <x:c r="F10" s="3" t="s"/>
-      <x:c r="G10" s="3" t="s"/>
-      <x:c r="H10" s="3" t="s"/>
-      <x:c r="I10" s="3" t="s"/>
-      <x:c r="J10" s="3" t="s"/>
-      <x:c r="K10" s="3" t="s"/>
-      <x:c r="M10" s="5" t="s">
+    <x:row r="3" spans="1:2" customFormat="1" ht="63.75" customHeight="1">
+      <x:c r="A3" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="N10" s="5" t="s"/>
-      <x:c r="O10" s="5" t="s"/>
-      <x:c r="P10" s="5" t="s"/>
-      <x:c r="Q10" s="5" t="s"/>
-      <x:c r="R10" s="5" t="s"/>
-      <x:c r="S10" s="5" t="s"/>
-      <x:c r="T10" s="5" t="s"/>
+      <x:c r="B3" s="6" t="s"/>
     </x:row>
-    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M11" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N11" s="5" t="s"/>
-      <x:c r="O11" s="5" t="s"/>
-      <x:c r="P11" s="5" t="s"/>
-      <x:c r="Q11" s="5" t="s"/>
-      <x:c r="R11" s="5" t="s"/>
-      <x:c r="S11" s="5" t="s"/>
-      <x:c r="T11" s="5" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B12" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M12" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N12" s="5" t="s"/>
-      <x:c r="O12" s="5" t="s"/>
-      <x:c r="P12" s="5" t="s"/>
-      <x:c r="Q12" s="5" t="s"/>
-      <x:c r="R12" s="5" t="s"/>
-      <x:c r="S12" s="5" t="s"/>
-      <x:c r="T12" s="5" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M13" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="N13" s="7" t="s"/>
-      <x:c r="O13" s="7" t="s"/>
-      <x:c r="P13" s="7" t="s"/>
-      <x:c r="Q13" s="7" t="s"/>
-      <x:c r="R13" s="7" t="s"/>
-      <x:c r="S13" s="7" t="s"/>
-      <x:c r="T13" s="7" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:21" s="0" customFormat="1" ht="101.25" customHeight="1">
-      <x:c r="B14" s="1" t="s"/>
-      <x:c r="D14" s="1" t="s"/>
-      <x:c r="E14" s="1" t="s"/>
-      <x:c r="F14" s="1" t="s"/>
-      <x:c r="G14" s="1" t="s"/>
-      <x:c r="H14" s="1" t="s"/>
-      <x:c r="I14" s="1" t="s"/>
-      <x:c r="J14" s="1" t="s"/>
-      <x:c r="K14" s="1" t="s"/>
-      <x:c r="M14" s="1" t="s"/>
-      <x:c r="N14" s="1" t="s"/>
-      <x:c r="O14" s="1" t="s"/>
-      <x:c r="P14" s="1" t="s"/>
-      <x:c r="Q14" s="1" t="s"/>
-      <x:c r="R14" s="1" t="s"/>
-      <x:c r="S14" s="1" t="s"/>
-      <x:c r="T14" s="1" t="s"/>
+    <x:row r="4" spans="1:2" s="0" customFormat="1" ht="25.5" customHeight="1">
+      <x:c r="A4" s="1" t="s"/>
+      <x:c r="B4" s="1" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="9">
-    <x:mergeCell ref="D6:K6"/>
-    <x:mergeCell ref="D7:K7"/>
-    <x:mergeCell ref="D8:K8"/>
-    <x:mergeCell ref="D9:K9"/>
-    <x:mergeCell ref="D10:K10"/>
-    <x:mergeCell ref="M10:T10"/>
-    <x:mergeCell ref="M11:T11"/>
-    <x:mergeCell ref="M12:T12"/>
-    <x:mergeCell ref="M13:T13"/>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A1:B1"/>
+    <x:mergeCell ref="A2:B2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0" right="0" top="0" bottom="2" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,22 +9,46 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$B$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <x:si>
-    <x:t>鮫　島　家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>二特区2側3番 9㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>清掃契約</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <x:si>
+    <x:t>\</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理番号 : 001236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〒158-0094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中10区15側4番</x:t>
+  </x:si>
+  <x:si>
+    <x:t>世田谷区玉川</x:t>
+  </x:si>
+  <x:si>
+    <x:t>面積 : 4.0 ㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>１－１５－３－１５０４</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 世田谷区玉川</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> １－１５－３－１５０４</x:t>
+  </x:si>
+  <x:si>
+    <x:t>雨宮　隆 様</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -46,23 +70,21 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HG正楷書体-PRO"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
-      <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="65"/>
+      <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HG正楷書体-PRO"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
-      <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="48"/>
+      <x:sz val="9"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HG正楷書体-PRO"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -74,7 +96,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="4">
+  <x:borders count="1">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -92,82 +114,22 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thick">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="7">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="7">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -176,24 +138,28 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -491,47 +457,273 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B4"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="3" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="43.570625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="52.420625" style="1" customWidth="1"/>
+    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="4.420625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.850625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="8.280625" style="0" customWidth="1"/>
+    <x:col min="4" max="11" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="8.000625" style="0" customWidth="1"/>
+    <x:col min="13" max="16" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="17" max="17" width="2.850625" style="1" customWidth="1"/>
+    <x:col min="18" max="20" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="21" max="21" width="1.020625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" customFormat="1" ht="75" customHeight="1">
-      <x:c r="A1" s="2" t="s">
+    <x:row r="1" spans="1:21" s="0" customFormat="1" ht="283.5" customHeight="1">
+      <x:c r="B1" s="1" t="s"/>
+      <x:c r="D1" s="1" t="s"/>
+      <x:c r="E1" s="1" t="s"/>
+      <x:c r="F1" s="1" t="s"/>
+      <x:c r="G1" s="1" t="s"/>
+      <x:c r="H1" s="1" t="s"/>
+      <x:c r="I1" s="1" t="s"/>
+      <x:c r="J1" s="1" t="s"/>
+      <x:c r="K1" s="1" t="s"/>
+      <x:c r="M1" s="1" t="s"/>
+      <x:c r="N1" s="1" t="s"/>
+      <x:c r="O1" s="1" t="s"/>
+      <x:c r="P1" s="1" t="s"/>
+      <x:c r="Q1" s="1" t="s"/>
+      <x:c r="R1" s="1" t="s"/>
+      <x:c r="S1" s="1" t="s"/>
+      <x:c r="T1" s="1" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:21" s="0" customFormat="1" ht="172.5" customHeight="1">
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="D2" s="1" t="s"/>
+      <x:c r="E2" s="1" t="s"/>
+      <x:c r="F2" s="1" t="s"/>
+      <x:c r="G2" s="1" t="s"/>
+      <x:c r="H2" s="1" t="s"/>
+      <x:c r="I2" s="1" t="s"/>
+      <x:c r="J2" s="1" t="s"/>
+      <x:c r="K2" s="1" t="s"/>
+      <x:c r="M2" s="1" t="s"/>
+      <x:c r="N2" s="1" t="s"/>
+      <x:c r="O2" s="1" t="s"/>
+      <x:c r="P2" s="1" t="s"/>
+      <x:c r="Q2" s="1" t="s"/>
+      <x:c r="R2" s="1" t="s"/>
+      <x:c r="S2" s="1" t="s"/>
+      <x:c r="T2" s="1" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
+      <x:c r="C3" s="1" t="s"/>
+      <x:c r="D3" s="2" t="s"/>
+      <x:c r="E3" s="2" t="s"/>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:2" customFormat="1" ht="67.5" customHeight="1">
-      <x:c r="A2" s="4" t="s">
+    </x:row>
+    <x:row r="4" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B4" s="1" t="s"/>
+      <x:c r="D4" s="1" t="s"/>
+      <x:c r="E4" s="1" t="s"/>
+      <x:c r="F4" s="1" t="s"/>
+      <x:c r="G4" s="1" t="s"/>
+      <x:c r="H4" s="1" t="s"/>
+      <x:c r="I4" s="1" t="s"/>
+      <x:c r="J4" s="1" t="s"/>
+      <x:c r="K4" s="1" t="s"/>
+      <x:c r="M4" s="1" t="s"/>
+      <x:c r="N4" s="1" t="s"/>
+      <x:c r="O4" s="1" t="s"/>
+      <x:c r="P4" s="1" t="s"/>
+      <x:c r="Q4" s="1" t="s"/>
+      <x:c r="R4" s="1" t="s"/>
+      <x:c r="S4" s="1" t="s"/>
+      <x:c r="T4" s="1" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B5" s="1" t="s"/>
+      <x:c r="D5" s="1" t="s"/>
+      <x:c r="E5" s="1" t="s"/>
+      <x:c r="F5" s="1" t="s"/>
+      <x:c r="G5" s="1" t="s"/>
+      <x:c r="H5" s="1" t="s"/>
+      <x:c r="I5" s="1" t="s"/>
+      <x:c r="J5" s="1" t="s"/>
+      <x:c r="K5" s="1" t="s"/>
+      <x:c r="M5" s="1" t="s"/>
+      <x:c r="N5" s="1" t="s"/>
+      <x:c r="O5" s="1" t="s"/>
+      <x:c r="P5" s="1" t="s"/>
+      <x:c r="Q5" s="1" t="s"/>
+      <x:c r="R5" s="1" t="s"/>
+      <x:c r="S5" s="1" t="s"/>
+      <x:c r="T5" s="1" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="D6" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="5" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:2" customFormat="1" ht="63.75" customHeight="1">
-      <x:c r="A3" s="6" t="s">
+      <x:c r="E6" s="3" t="s"/>
+      <x:c r="F6" s="3" t="s"/>
+      <x:c r="G6" s="3" t="s"/>
+      <x:c r="H6" s="3" t="s"/>
+      <x:c r="I6" s="3" t="s"/>
+      <x:c r="J6" s="3" t="s"/>
+      <x:c r="K6" s="3" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B7" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="6" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:2" s="0" customFormat="1" ht="25.5" customHeight="1">
-      <x:c r="A4" s="1" t="s"/>
-      <x:c r="B4" s="1" t="s"/>
+      <x:c r="D7" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s"/>
+      <x:c r="F7" s="3" t="s"/>
+      <x:c r="G7" s="3" t="s"/>
+      <x:c r="H7" s="3" t="s"/>
+      <x:c r="I7" s="3" t="s"/>
+      <x:c r="J7" s="3" t="s"/>
+      <x:c r="K7" s="3" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B8" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s"/>
+      <x:c r="F8" s="3" t="s"/>
+      <x:c r="G8" s="3" t="s"/>
+      <x:c r="H8" s="3" t="s"/>
+      <x:c r="I8" s="3" t="s"/>
+      <x:c r="J8" s="3" t="s"/>
+      <x:c r="K8" s="3" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B9" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="s"/>
+      <x:c r="E9" s="3" t="s"/>
+      <x:c r="F9" s="3" t="s"/>
+      <x:c r="G9" s="3" t="s"/>
+      <x:c r="H9" s="3" t="s"/>
+      <x:c r="I9" s="3" t="s"/>
+      <x:c r="J9" s="3" t="s"/>
+      <x:c r="K9" s="3" t="s"/>
+      <x:c r="L9" s="1" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B10" s="4" t="s"/>
+      <x:c r="D10" s="3" t="s"/>
+      <x:c r="E10" s="3" t="s"/>
+      <x:c r="F10" s="3" t="s"/>
+      <x:c r="G10" s="3" t="s"/>
+      <x:c r="H10" s="3" t="s"/>
+      <x:c r="I10" s="3" t="s"/>
+      <x:c r="J10" s="3" t="s"/>
+      <x:c r="K10" s="3" t="s"/>
+      <x:c r="M10" s="5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N10" s="5" t="s"/>
+      <x:c r="O10" s="5" t="s"/>
+      <x:c r="P10" s="5" t="s"/>
+      <x:c r="Q10" s="5" t="s"/>
+      <x:c r="R10" s="5" t="s"/>
+      <x:c r="S10" s="5" t="s"/>
+      <x:c r="T10" s="5" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="M11" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N11" s="5" t="s"/>
+      <x:c r="O11" s="5" t="s"/>
+      <x:c r="P11" s="5" t="s"/>
+      <x:c r="Q11" s="5" t="s"/>
+      <x:c r="R11" s="5" t="s"/>
+      <x:c r="S11" s="5" t="s"/>
+      <x:c r="T11" s="5" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B12" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="M12" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N12" s="5" t="s"/>
+      <x:c r="O12" s="5" t="s"/>
+      <x:c r="P12" s="5" t="s"/>
+      <x:c r="Q12" s="5" t="s"/>
+      <x:c r="R12" s="5" t="s"/>
+      <x:c r="S12" s="5" t="s"/>
+      <x:c r="T12" s="5" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="M13" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="N13" s="7" t="s"/>
+      <x:c r="O13" s="7" t="s"/>
+      <x:c r="P13" s="7" t="s"/>
+      <x:c r="Q13" s="7" t="s"/>
+      <x:c r="R13" s="7" t="s"/>
+      <x:c r="S13" s="7" t="s"/>
+      <x:c r="T13" s="7" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:21" s="0" customFormat="1" ht="101.25" customHeight="1">
+      <x:c r="B14" s="1" t="s"/>
+      <x:c r="D14" s="1" t="s"/>
+      <x:c r="E14" s="1" t="s"/>
+      <x:c r="F14" s="1" t="s"/>
+      <x:c r="G14" s="1" t="s"/>
+      <x:c r="H14" s="1" t="s"/>
+      <x:c r="I14" s="1" t="s"/>
+      <x:c r="J14" s="1" t="s"/>
+      <x:c r="K14" s="1" t="s"/>
+      <x:c r="M14" s="1" t="s"/>
+      <x:c r="N14" s="1" t="s"/>
+      <x:c r="O14" s="1" t="s"/>
+      <x:c r="P14" s="1" t="s"/>
+      <x:c r="Q14" s="1" t="s"/>
+      <x:c r="R14" s="1" t="s"/>
+      <x:c r="S14" s="1" t="s"/>
+      <x:c r="T14" s="1" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="2">
-    <x:mergeCell ref="A1:B1"/>
-    <x:mergeCell ref="A2:B2"/>
+  <x:mergeCells count="9">
+    <x:mergeCell ref="D6:K6"/>
+    <x:mergeCell ref="D7:K7"/>
+    <x:mergeCell ref="D8:K8"/>
+    <x:mergeCell ref="D9:K9"/>
+    <x:mergeCell ref="D10:K10"/>
+    <x:mergeCell ref="M10:T10"/>
+    <x:mergeCell ref="M11:T11"/>
+    <x:mergeCell ref="M12:T12"/>
+    <x:mergeCell ref="M13:T13"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0" right="0" top="0" bottom="2" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,46 +9,679 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$C$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <x:si>
-    <x:t>\</x:t>
-  </x:si>
-  <x:si>
-    <x:t>管理番号 : 001236</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〒158-0094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>中10区15側4番</x:t>
-  </x:si>
-  <x:si>
-    <x:t>世田谷区玉川</x:t>
-  </x:si>
-  <x:si>
-    <x:t>面積 : 4.0 ㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>１－１５－３－１５０４</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 世田谷区玉川</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> １－１５－３－１５０４</x:t>
-  </x:si>
-  <x:si>
-    <x:t>雨宮　隆 様</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0034
+          川崎市多摩区三田
+          １－１６－１－５０７
+          相原 征弘 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 206-0024
+          多摩市諏訪
+          ４－１８－３－１０４ライオンズ
+          マンション
+          秋山 喜美子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 201-0014
+          狛江市東和泉
+          １－３０－５
+          東 啓生 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0035
+          川崎市多摩区長沢
+          ３－３－２１
+          阿部 和子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 212-0027
+          川崎市幸区新塚越
+          １－２サウザンドシティ１－３０
+          １２
+          有座 俊史 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 152-0034
+          目黒区緑が丘
+          ３－９－５
+          安藤 登美子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0007
+          川崎市多摩区菅城下
+          ２－１６
+          飯塚 温子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 225-0002
+          横浜市青葉区美しが丘
+          ４－２１－６
+          池田 和子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0036
+          川崎市多摩区南生田
+          １丁目２３－７
+          石瀬 博 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0004
+          川崎市麻生区万福寺
+          ３－１２－２－４０９
+          市橋 フサ子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0036
+          川崎市多摩区南生田
+          ２－１８－２４
+          今川 明美 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0038
+          川崎市多摩区生田
+          ６－２５－１３
+          上春 三郎 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 215-0003
+          川崎市麻生区高石
+          ６－９－７
+          臼井 光昌 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 277-0856
+          千葉県柏市新富町
+          １－２－５８－３０４
+          薄井 美弥 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0036
+          川崎市多摩区南生田
+          ５－１８－７－２Ｆ
+          内山 圭永子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 140-0001
+          品川区北品川
+          ３－６－７
+          梅村 郁 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 247-0061
+          鎌倉市台
+          ５－１２－１０グランドマスト北
+          鎌倉３１２
+          大田 和子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 154-0016
+          世田谷区弦巻
+          ５－３５－１３－３０５
+          太田 恭子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 215-0003
+          川崎市麻生区高石
+          ３－３６－２
+          太田 弘子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 156-0055
+          世田谷区船橋
+          ３－１７－７－６１１
+          大谷 朋子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 224-0012
+          横浜市都筑区牛久保
+          １－４－５
+          大谷 祐治 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 154-0005
+          世田谷区三宿
+          ２－２７－１４－５０５
+          岡 和子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 157-0067
+          世田谷区喜多見
+          ２－１０－１１－５０５
+          小川 渉 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0038
+          川崎市多摩区生田
+          ６－３３－１０
+          奥山 育子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0036
+          川崎市多摩区南生田
+          ２－１８－１４
+          尾作 雄二 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 216-0026
+          川崎市宮前区初山
+          ２－１６－３初山団地２０５
+          小野 とよ子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 216-0022
+          川崎市宮前区平
+          ３－９－６１
+          角守 理恵 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0001
+          川崎市麻生区細山
+          ５－２０－９
+          勝田 明子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 143-0023
+          大田区山王
+          ２－４１－４
+          加藤 精一 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0005
+          川崎市多摩区寺尾台
+          ２－６－１３
+          川島 ひで子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0032
+          川崎市多摩区枡形
+          ３－７－５
+          河原 芳夫 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0012
+          川崎市麻生区東百合丘
+          ４－２９－８
+          川原 和子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0036
+          川崎市多摩区南生田
+          １－９－５
+          菅野 明男 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0034
+          川崎市多摩区三田
+          ４－５５５６
+          京 隆志 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 216-0003
+          川崎市宮前区有馬
+          ８－２０－３１
+          草道 扶二美 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0034
+          川崎市多摩区三田
+          ４－１０－３０コーポ井田１０１
+          号
+          久野 満里子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 353-0005
+          埼玉県志木市幸町
+          ４－２－８５
+          久保田 明 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 247-0056
+          鎌倉市大船
+          ２２１６－８０
+          窪田 昇 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 201-0005
+          狛江市岩戸南
+          ２－２４－１２
+          後藤 芙美子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 216-0044
+          川崎市宮前区西野川
+          ２－４－４１
+          小山 慶子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0036
+          川崎市多摩区南生田
+          ６－１－７－３０１
+          齋藤 由紀子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 225-0026
+          横浜市青葉区もみの木台
+          ２６－３
+          酒見 圭子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0011
+          川崎市麻生区百合丘
+          ２－２－１０
+          佐藤 絹子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0005
+          川崎市麻生区千代ケ丘
+          ４－２３－３－２０６
+          佐藤 宏子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0034
+          川崎市多摩区三田
+          ４－５５４６－８
+          佐藤 陽子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 216-0015
+          川崎市宮前区菅生
+          ４－１６－３２
+          田上 繁夫 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0003
+          川崎市麻生区高石
+          ６－１０－６
+          竹園 規子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 277-0885
+          千葉県柏市西原
+          ３－８－３４
+          田中 梅子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0012
+          川崎市麻生区東百合丘
+          ２－１８－１９－２
+          棚川 潔 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0014
+          川崎市麻生区白山
+          ５－１－８－７１２
+          谷口 永恭 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 216-0015
+          川崎市宮前区菅生
+          １－８－４２
+          竹間 みつ子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0036
+          川崎市多摩区南生田
+          ３－３－４
+          土屋 和勇 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0014
+          川崎市多摩区登戸
+          ２１１
+          土谷 靜香 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0005
+          川崎市多摩区寺尾台
+          １－４－１０
+          寺崎 巌 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 145-0062
+          大田区北千束
+          １－１８－１６－３０８
+          徳井 巖 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0012
+          川崎市多摩区中野島
+          ６－２９－１－６０６
+          戸田 道男 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 213-0001
+          川崎市高津区溝口
+          ５－１１－６
+          直江 鶴子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 227-0036
+          横浜市青葉区奈良町
+          ２７６２－２４
+          永井 アイ 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0004
+          川崎市多摩区菅馬場
+          １－８－２０－１０５
+          中林 稔 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0034
+          川崎市多摩区三田
+          ５－４－１１
+          中谷内 精治 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 215-0003
+          川崎市麻生区高石
+          ２－３０－５
+          成川 民子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0038
+          川崎市多摩区生田
+          ８－１３－１－１０２
+          西出 順一 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 215-0014
+          川崎市麻生区白山
+          ４－１－２－１２０
+          西村 周一 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 225-0002
+          横浜市青葉区美しが丘
+          ３－１６－１０
+          乃万 美智子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0034
+          川崎市多摩区三田
+          １－１５－７－４－４０４
+          萩原 伸咲 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 213-0032
+          川崎市高津区久地
+          ２－５－４１
+          橋場 スミイ 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0001
+          川崎市麻生区細山
+          ４－１９－３
+          長谷川 泰雄 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 244-0001
+          横浜市戸塚区鳥が丘
+          ６８－９
+          原 智重子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0035
+          川崎市多摩区長沢
+          １－１９－３－３０３なごみ福祉
+          会グループホーム内
+          火口 慎也 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0034
+          川崎市多摩区三田
+          ３－１－２－７－３０４
+          福島 勝子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 201-0004
+          狛江市岩戸北
+          １－１－１狛江ﾘﾘｴﾝﾊｲﾑ２
+          ０７
+          福留 勝代 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0038
+          川崎市多摩区生田
+          ６－１９－２－３１２福尾様方
+          藤原 恵子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0038
+          川崎市多摩区生田
+          ６－２５－１９
+          堀 三四子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0005
+          川崎市多摩区寺尾台
+          １－１１－２
+          堀内 勝枝 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 211-0042
+          川崎市中原区下新城
+          ３－１２－１５－３１４
+          本間 幸子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 154-0012
+          世田谷区駒沢
+          ２－４４－８
+          前田 武一 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 206-0804
+          稲城市百村
+          ２１０７－１５
+          前屋舗 尚 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 215-0011
+          川崎市麻生区百合丘
+          １－１８－２
+          松本 伸一郎 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 154-0017
+          世田谷区世田谷
+          １－３６－１６
+          間仁田 永治 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 215-0003
+          川崎市麻生区高石
+          ６－１－１
+          宮岡 紀子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0013
+          川崎市多摩区登戸新町
+          ４６９－３
+          宮城 三千峯 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 206-0801
+          稲城市大丸
+          ９５１
+          村田 光惠 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 214-0039
+          川崎市多摩区栗谷
+          ３－１２－２９　池畠様方
+          矢菅 君江 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 224-0021
+          横浜市都筑区北山田
+          ５－６－１－７０１
+          柳 孝則 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0003
+          川崎市麻生区高石
+          ４－３２－１９
+          栁澤 満里重 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 212-0024
+          川崎市幸区塚越
+          ４－３２８
+          山岸 みち江 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 103-0024
+          中央区日本橋小舟町
+          ６－１　山田産業株式会社
+          山田 裕幸 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 247-0061
+          鎌倉市台
+          １７１８－９
+          木 綿 花 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 171-0042
+          豊島区高松
+          ３－１－１６ルミエール高松２０
+          ２
+          吉田 佳苗 様
+</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -58,7 +691,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -68,23 +701,16 @@
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
+      <x:sz val="10"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="ＭＳ Ｐゴシック"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
+      <x:sz val="10"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="9"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -115,7 +741,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -125,41 +751,22 @@
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -457,273 +1064,593 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:C79"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="4.420625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.850625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.280625" style="0" customWidth="1"/>
-    <x:col min="4" max="11" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="8.000625" style="0" customWidth="1"/>
-    <x:col min="13" max="16" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="17" max="17" width="2.850625" style="1" customWidth="1"/>
-    <x:col min="18" max="20" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="21" max="21" width="1.020625" style="0" customWidth="1"/>
+    <x:col min="4" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="34.710625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="31.570625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:21" s="0" customFormat="1" ht="283.5" customHeight="1">
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="D1" s="1" t="s"/>
-      <x:c r="E1" s="1" t="s"/>
-      <x:c r="F1" s="1" t="s"/>
-      <x:c r="G1" s="1" t="s"/>
-      <x:c r="H1" s="1" t="s"/>
-      <x:c r="I1" s="1" t="s"/>
-      <x:c r="J1" s="1" t="s"/>
-      <x:c r="K1" s="1" t="s"/>
-      <x:c r="M1" s="1" t="s"/>
-      <x:c r="N1" s="1" t="s"/>
-      <x:c r="O1" s="1" t="s"/>
-      <x:c r="P1" s="1" t="s"/>
-      <x:c r="Q1" s="1" t="s"/>
-      <x:c r="R1" s="1" t="s"/>
-      <x:c r="S1" s="1" t="s"/>
-      <x:c r="T1" s="1" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:21" s="0" customFormat="1" ht="172.5" customHeight="1">
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="D2" s="1" t="s"/>
-      <x:c r="E2" s="1" t="s"/>
-      <x:c r="F2" s="1" t="s"/>
-      <x:c r="G2" s="1" t="s"/>
-      <x:c r="H2" s="1" t="s"/>
-      <x:c r="I2" s="1" t="s"/>
-      <x:c r="J2" s="1" t="s"/>
-      <x:c r="K2" s="1" t="s"/>
-      <x:c r="M2" s="1" t="s"/>
-      <x:c r="N2" s="1" t="s"/>
-      <x:c r="O2" s="1" t="s"/>
-      <x:c r="P2" s="1" t="s"/>
-      <x:c r="Q2" s="1" t="s"/>
-      <x:c r="R2" s="1" t="s"/>
-      <x:c r="S2" s="1" t="s"/>
-      <x:c r="T2" s="1" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
-      <x:c r="C3" s="1" t="s"/>
-      <x:c r="D3" s="2" t="s"/>
-      <x:c r="E3" s="2" t="s"/>
-      <x:c r="F3" s="2" t="s"/>
-      <x:c r="G3" s="2" t="s"/>
-      <x:c r="H3" s="2" t="s"/>
-      <x:c r="I3" s="2" t="s"/>
-      <x:c r="J3" s="2" t="s"/>
-      <x:c r="K3" s="2" t="s">
+    <x:row r="1" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
-      <x:c r="E4" s="1" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
-      <x:c r="G4" s="1" t="s"/>
-      <x:c r="H4" s="1" t="s"/>
-      <x:c r="I4" s="1" t="s"/>
-      <x:c r="J4" s="1" t="s"/>
-      <x:c r="K4" s="1" t="s"/>
-      <x:c r="M4" s="1" t="s"/>
-      <x:c r="N4" s="1" t="s"/>
-      <x:c r="O4" s="1" t="s"/>
-      <x:c r="P4" s="1" t="s"/>
-      <x:c r="Q4" s="1" t="s"/>
-      <x:c r="R4" s="1" t="s"/>
-      <x:c r="S4" s="1" t="s"/>
-      <x:c r="T4" s="1" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B5" s="1" t="s"/>
-      <x:c r="D5" s="1" t="s"/>
-      <x:c r="E5" s="1" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
-      <x:c r="G5" s="1" t="s"/>
-      <x:c r="H5" s="1" t="s"/>
-      <x:c r="I5" s="1" t="s"/>
-      <x:c r="J5" s="1" t="s"/>
-      <x:c r="K5" s="1" t="s"/>
-      <x:c r="M5" s="1" t="s"/>
-      <x:c r="N5" s="1" t="s"/>
-      <x:c r="O5" s="1" t="s"/>
-      <x:c r="P5" s="1" t="s"/>
-      <x:c r="Q5" s="1" t="s"/>
-      <x:c r="R5" s="1" t="s"/>
-      <x:c r="S5" s="1" t="s"/>
-      <x:c r="T5" s="1" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="D6" s="3" t="s">
+      <x:c r="B1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E6" s="3" t="s"/>
-      <x:c r="F6" s="3" t="s"/>
-      <x:c r="G6" s="3" t="s"/>
-      <x:c r="H6" s="3" t="s"/>
-      <x:c r="I6" s="3" t="s"/>
-      <x:c r="J6" s="3" t="s"/>
-      <x:c r="K6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B7" s="4" t="s">
+      <x:c r="C1" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D7" s="3" t="s">
+    </x:row>
+    <x:row r="2" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A2" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E7" s="3" t="s"/>
-      <x:c r="F7" s="3" t="s"/>
-      <x:c r="G7" s="3" t="s"/>
-      <x:c r="H7" s="3" t="s"/>
-      <x:c r="I7" s="3" t="s"/>
-      <x:c r="J7" s="3" t="s"/>
-      <x:c r="K7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B8" s="4" t="s">
+      <x:c r="B2" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D8" s="3" t="s">
+      <x:c r="C2" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E8" s="3" t="s"/>
-      <x:c r="F8" s="3" t="s"/>
-      <x:c r="G8" s="3" t="s"/>
-      <x:c r="H8" s="3" t="s"/>
-      <x:c r="I8" s="3" t="s"/>
-      <x:c r="J8" s="3" t="s"/>
-      <x:c r="K8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B9" s="4" t="s">
+    </x:row>
+    <x:row r="3" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A3" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D9" s="3" t="s"/>
-      <x:c r="E9" s="3" t="s"/>
-      <x:c r="F9" s="3" t="s"/>
-      <x:c r="G9" s="3" t="s"/>
-      <x:c r="H9" s="3" t="s"/>
-      <x:c r="I9" s="3" t="s"/>
-      <x:c r="J9" s="3" t="s"/>
-      <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="1" t="s"/>
-      <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s"/>
-      <x:c r="P9" s="2" t="s"/>
-      <x:c r="Q9" s="2" t="s"/>
-      <x:c r="R9" s="2" t="s"/>
-      <x:c r="S9" s="2" t="s"/>
-      <x:c r="T9" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B10" s="4" t="s"/>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s"/>
-      <x:c r="F10" s="3" t="s"/>
-      <x:c r="G10" s="3" t="s"/>
-      <x:c r="H10" s="3" t="s"/>
-      <x:c r="I10" s="3" t="s"/>
-      <x:c r="J10" s="3" t="s"/>
-      <x:c r="K10" s="3" t="s"/>
-      <x:c r="M10" s="5" t="s">
+      <x:c r="B3" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="N10" s="5" t="s"/>
-      <x:c r="O10" s="5" t="s"/>
-      <x:c r="P10" s="5" t="s"/>
-      <x:c r="Q10" s="5" t="s"/>
-      <x:c r="R10" s="5" t="s"/>
-      <x:c r="S10" s="5" t="s"/>
-      <x:c r="T10" s="5" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M11" s="5" t="s">
+      <x:c r="C3" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="N11" s="5" t="s"/>
-      <x:c r="O11" s="5" t="s"/>
-      <x:c r="P11" s="5" t="s"/>
-      <x:c r="Q11" s="5" t="s"/>
-      <x:c r="R11" s="5" t="s"/>
-      <x:c r="S11" s="5" t="s"/>
-      <x:c r="T11" s="5" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B12" s="6" t="s">
+    </x:row>
+    <x:row r="4" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A4" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="M12" s="5" t="s">
+      <x:c r="B4" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="N12" s="5" t="s"/>
-      <x:c r="O12" s="5" t="s"/>
-      <x:c r="P12" s="5" t="s"/>
-      <x:c r="Q12" s="5" t="s"/>
-      <x:c r="R12" s="5" t="s"/>
-      <x:c r="S12" s="5" t="s"/>
-      <x:c r="T12" s="5" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M13" s="7" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="N13" s="7" t="s"/>
-      <x:c r="O13" s="7" t="s"/>
-      <x:c r="P13" s="7" t="s"/>
-      <x:c r="Q13" s="7" t="s"/>
-      <x:c r="R13" s="7" t="s"/>
-      <x:c r="S13" s="7" t="s"/>
-      <x:c r="T13" s="7" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:21" s="0" customFormat="1" ht="101.25" customHeight="1">
-      <x:c r="B14" s="1" t="s"/>
-      <x:c r="D14" s="1" t="s"/>
-      <x:c r="E14" s="1" t="s"/>
-      <x:c r="F14" s="1" t="s"/>
-      <x:c r="G14" s="1" t="s"/>
-      <x:c r="H14" s="1" t="s"/>
-      <x:c r="I14" s="1" t="s"/>
-      <x:c r="J14" s="1" t="s"/>
-      <x:c r="K14" s="1" t="s"/>
-      <x:c r="M14" s="1" t="s"/>
-      <x:c r="N14" s="1" t="s"/>
-      <x:c r="O14" s="1" t="s"/>
-      <x:c r="P14" s="1" t="s"/>
-      <x:c r="Q14" s="1" t="s"/>
-      <x:c r="R14" s="1" t="s"/>
-      <x:c r="S14" s="1" t="s"/>
-      <x:c r="T14" s="1" t="s"/>
+      <x:c r="C4" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A5" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A6" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A7" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A8" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A9" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A10" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A11" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B11" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A12" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A13" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B13" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A14" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A15" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B15" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A16" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B16" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A17" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B17" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A18" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B18" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A19" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B19" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A20" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B20" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="3" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A21" s="3" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B21" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="3" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A22" s="3" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B22" s="3" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="3" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A23" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B23" s="3" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A24" s="3" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B24" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="3" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A25" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B25" s="3" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A26" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B26" s="3" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="3" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A27" s="3" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B27" s="3" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="3" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A28" s="3" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B28" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="3" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A29" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B29" s="3" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A30" s="3" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B30" s="3" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A31" s="1" t="s"/>
+      <x:c r="B31" s="1" t="s"/>
+      <x:c r="C31" s="1" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A32" s="1" t="s"/>
+      <x:c r="B32" s="1" t="s"/>
+      <x:c r="C32" s="1" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A33" s="1" t="s"/>
+      <x:c r="B33" s="1" t="s"/>
+      <x:c r="C33" s="1" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A34" s="1" t="s"/>
+      <x:c r="B34" s="1" t="s"/>
+      <x:c r="C34" s="1" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A35" s="1" t="s"/>
+      <x:c r="B35" s="1" t="s"/>
+      <x:c r="C35" s="1" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A36" s="1" t="s"/>
+      <x:c r="B36" s="1" t="s"/>
+      <x:c r="C36" s="1" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A37" s="1" t="s"/>
+      <x:c r="B37" s="1" t="s"/>
+      <x:c r="C37" s="1" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A38" s="1" t="s"/>
+      <x:c r="B38" s="1" t="s"/>
+      <x:c r="C38" s="1" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A39" s="1" t="s"/>
+      <x:c r="B39" s="1" t="s"/>
+      <x:c r="C39" s="1" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A40" s="1" t="s"/>
+      <x:c r="B40" s="1" t="s"/>
+      <x:c r="C40" s="1" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A41" s="1" t="s"/>
+      <x:c r="B41" s="1" t="s"/>
+      <x:c r="C41" s="1" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A42" s="1" t="s"/>
+      <x:c r="B42" s="1" t="s"/>
+      <x:c r="C42" s="1" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A43" s="1" t="s"/>
+      <x:c r="B43" s="1" t="s"/>
+      <x:c r="C43" s="1" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A44" s="1" t="s"/>
+      <x:c r="B44" s="1" t="s"/>
+      <x:c r="C44" s="1" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A45" s="1" t="s"/>
+      <x:c r="B45" s="1" t="s"/>
+      <x:c r="C45" s="1" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A46" s="1" t="s"/>
+      <x:c r="B46" s="1" t="s"/>
+      <x:c r="C46" s="1" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A47" s="1" t="s"/>
+      <x:c r="B47" s="1" t="s"/>
+      <x:c r="C47" s="1" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A48" s="1" t="s"/>
+      <x:c r="B48" s="1" t="s"/>
+      <x:c r="C48" s="1" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A49" s="1" t="s"/>
+      <x:c r="B49" s="1" t="s"/>
+      <x:c r="C49" s="1" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A50" s="1" t="s"/>
+      <x:c r="B50" s="1" t="s"/>
+      <x:c r="C50" s="1" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A51" s="1" t="s"/>
+      <x:c r="B51" s="1" t="s"/>
+      <x:c r="C51" s="1" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A52" s="1" t="s"/>
+      <x:c r="B52" s="1" t="s"/>
+      <x:c r="C52" s="1" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A53" s="1" t="s"/>
+      <x:c r="B53" s="1" t="s"/>
+      <x:c r="C53" s="1" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A54" s="1" t="s"/>
+      <x:c r="B54" s="1" t="s"/>
+      <x:c r="C54" s="1" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A55" s="1" t="s"/>
+      <x:c r="B55" s="1" t="s"/>
+      <x:c r="C55" s="1" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A56" s="1" t="s"/>
+      <x:c r="B56" s="1" t="s"/>
+      <x:c r="C56" s="1" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A57" s="1" t="s"/>
+      <x:c r="B57" s="1" t="s"/>
+      <x:c r="C57" s="1" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A58" s="1" t="s"/>
+      <x:c r="B58" s="1" t="s"/>
+      <x:c r="C58" s="1" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A59" s="1" t="s"/>
+      <x:c r="B59" s="1" t="s"/>
+      <x:c r="C59" s="1" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A60" s="1" t="s"/>
+      <x:c r="B60" s="1" t="s"/>
+      <x:c r="C60" s="1" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A61" s="1" t="s"/>
+      <x:c r="B61" s="1" t="s"/>
+      <x:c r="C61" s="1" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A62" s="1" t="s"/>
+      <x:c r="B62" s="1" t="s"/>
+      <x:c r="C62" s="1" t="s"/>
+    </x:row>
+    <x:row r="63" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A63" s="1" t="s"/>
+      <x:c r="B63" s="1" t="s"/>
+      <x:c r="C63" s="1" t="s"/>
+    </x:row>
+    <x:row r="64" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A64" s="1" t="s"/>
+      <x:c r="B64" s="1" t="s"/>
+      <x:c r="C64" s="1" t="s"/>
+    </x:row>
+    <x:row r="65" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A65" s="1" t="s"/>
+      <x:c r="B65" s="1" t="s"/>
+      <x:c r="C65" s="1" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A66" s="1" t="s"/>
+      <x:c r="B66" s="1" t="s"/>
+      <x:c r="C66" s="1" t="s"/>
+    </x:row>
+    <x:row r="67" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A67" s="1" t="s"/>
+      <x:c r="B67" s="1" t="s"/>
+      <x:c r="C67" s="1" t="s"/>
+    </x:row>
+    <x:row r="68" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A68" s="1" t="s"/>
+      <x:c r="B68" s="1" t="s"/>
+      <x:c r="C68" s="1" t="s"/>
+    </x:row>
+    <x:row r="69" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A69" s="1" t="s"/>
+      <x:c r="B69" s="1" t="s"/>
+      <x:c r="C69" s="1" t="s"/>
+    </x:row>
+    <x:row r="70" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A70" s="1" t="s"/>
+      <x:c r="B70" s="1" t="s"/>
+      <x:c r="C70" s="1" t="s"/>
+    </x:row>
+    <x:row r="71" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A71" s="1" t="s"/>
+      <x:c r="B71" s="1" t="s"/>
+      <x:c r="C71" s="1" t="s"/>
+    </x:row>
+    <x:row r="72" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A72" s="1" t="s"/>
+      <x:c r="B72" s="1" t="s"/>
+      <x:c r="C72" s="1" t="s"/>
+    </x:row>
+    <x:row r="73" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A73" s="1" t="s"/>
+      <x:c r="B73" s="1" t="s"/>
+      <x:c r="C73" s="1" t="s"/>
+    </x:row>
+    <x:row r="74" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A74" s="1" t="s"/>
+      <x:c r="B74" s="1" t="s"/>
+      <x:c r="C74" s="1" t="s"/>
+    </x:row>
+    <x:row r="75" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A75" s="1" t="s"/>
+      <x:c r="B75" s="1" t="s"/>
+      <x:c r="C75" s="1" t="s"/>
+    </x:row>
+    <x:row r="76" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A76" s="1" t="s"/>
+      <x:c r="B76" s="1" t="s"/>
+      <x:c r="C76" s="1" t="s"/>
+    </x:row>
+    <x:row r="77" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A77" s="1" t="s"/>
+      <x:c r="B77" s="1" t="s"/>
+      <x:c r="C77" s="1" t="s"/>
+    </x:row>
+    <x:row r="78" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A78" s="1" t="s"/>
+      <x:c r="B78" s="1" t="s"/>
+      <x:c r="C78" s="1" t="s"/>
+    </x:row>
+    <x:row r="79" spans="1:3" s="2" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A79" s="1" t="s"/>
+      <x:c r="B79" s="1" t="s"/>
+      <x:c r="C79" s="1" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="9">
-    <x:mergeCell ref="D6:K6"/>
-    <x:mergeCell ref="D7:K7"/>
-    <x:mergeCell ref="D8:K8"/>
-    <x:mergeCell ref="D9:K9"/>
-    <x:mergeCell ref="D10:K10"/>
-    <x:mergeCell ref="M10:T10"/>
-    <x:mergeCell ref="M11:T11"/>
-    <x:mergeCell ref="M12:T12"/>
-    <x:mergeCell ref="M13:T13"/>
-  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -45,7 +45,7 @@
     <x:t xml:space="preserve"> ３－３３－２４</x:t>
   </x:si>
   <x:si>
-    <x:t>阿部　孝一 様</x:t>
+    <x:t>阿部　孝一 御中</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> </x:t>
@@ -494,7 +494,7 @@
       <x:c r="S1" s="1" t="s"/>
       <x:c r="T1" s="1" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:21" s="0" customFormat="1" ht="172.5" customHeight="1">
+    <x:row r="2" spans="1:21" s="0" customFormat="1" ht="165" customHeight="1">
       <x:c r="B2" s="1" t="s"/>
       <x:c r="D2" s="1" t="s"/>
       <x:c r="E2" s="1" t="s"/>
@@ -517,22 +517,12 @@
       <x:c r="C3" s="1" t="s"/>
       <x:c r="D3" s="2" t="s"/>
       <x:c r="E3" s="2" t="s"/>
-      <x:c r="F3" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G3" s="2" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I3" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J3" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K3" s="2" t="n">
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -555,7 +545,7 @@
       <x:c r="S4" s="1" t="s"/>
       <x:c r="T4" s="1" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
+    <x:row r="5" spans="1:21" s="0" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="B5" s="1" t="s"/>
       <x:c r="D5" s="1" t="s"/>
       <x:c r="E5" s="1" t="s"/>
@@ -631,22 +621,12 @@
       <x:c r="L9" s="1" t="s"/>
       <x:c r="M9" s="2" t="s"/>
       <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P9" s="2" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q9" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R9" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S9" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T9" s="2" t="n">
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -710,7 +690,7 @@
       <x:c r="S13" s="7" t="s"/>
       <x:c r="T13" s="7" t="s"/>
     </x:row>
-    <x:row r="14" spans="1:21" s="0" customFormat="1" ht="101.25" customHeight="1">
+    <x:row r="14" spans="1:21" s="0" customFormat="1" ht="105.75" customHeight="1">
       <x:c r="B14" s="1" t="s"/>
       <x:c r="D14" s="1" t="s"/>
       <x:c r="E14" s="1" t="s"/>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -16,39 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
     <x:t>\</x:t>
   </x:si>
   <x:si>
-    <x:t>管理番号 : 001234</x:t>
+    <x:t>〒</x:t>
   </x:si>
   <x:si>
-    <x:t>〒241-0002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>西4区5側1番</x:t>
-  </x:si>
-  <x:si>
-    <x:t>横浜市旭区上白根</x:t>
-  </x:si>
-  <x:si>
-    <x:t>面積 : 3.5 ㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>３－３３－２４</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 横浜市旭区上白根</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> ３－３３－２４</x:t>
-  </x:si>
-  <x:si>
-    <x:t>阿部　孝一 御中</x:t>
+    <x:t>５－３－１勝どきザ・タワー２１０３</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ５－３－１勝どきザ・タ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 様</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ワー２１０３</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -565,9 +553,7 @@
       <x:c r="T5" s="1" t="s"/>
     </x:row>
     <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="D6" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
+      <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s"/>
       <x:c r="F6" s="3" t="s"/>
       <x:c r="G6" s="3" t="s"/>
@@ -578,11 +564,9 @@
     </x:row>
     <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
       <x:c r="B7" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s"/>
       <x:c r="E7" s="3" t="s"/>
       <x:c r="F7" s="3" t="s"/>
       <x:c r="G7" s="3" t="s"/>
@@ -592,12 +576,8 @@
       <x:c r="K7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B8" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="B8" s="4" t="s"/>
+      <x:c r="D8" s="3" t="s"/>
       <x:c r="E8" s="3" t="s"/>
       <x:c r="F8" s="3" t="s"/>
       <x:c r="G8" s="3" t="s"/>
@@ -608,7 +588,7 @@
     </x:row>
     <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
       <x:c r="B9" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s"/>
       <x:c r="E9" s="3" t="s"/>
@@ -641,7 +621,7 @@
       <x:c r="J10" s="3" t="s"/>
       <x:c r="K10" s="3" t="s"/>
       <x:c r="M10" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N10" s="5" t="s"/>
       <x:c r="O10" s="5" t="s"/>
@@ -653,7 +633,7 @@
     </x:row>
     <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
       <x:c r="M11" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N11" s="5" t="s"/>
       <x:c r="O11" s="5" t="s"/>
@@ -665,10 +645,10 @@
     </x:row>
     <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
       <x:c r="B12" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M12" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N12" s="5" t="s"/>
       <x:c r="O12" s="5" t="s"/>
@@ -680,7 +660,7 @@
     </x:row>
     <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
       <x:c r="M13" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N13" s="7" t="s"/>
       <x:c r="O13" s="7" t="s"/>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,34 +9,235 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$C$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <x:si>
-    <x:t>\</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〒</x:t>
-  </x:si>
-  <x:si>
-    <x:t>５－３－１勝どきザ・タワー２１０３</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> ５－３－１勝どきザ・タ</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 様</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> ワー２１０３</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0038
+          川崎市多摩区生田
+          ６－１９－１－４０８
+          飯塚 由彦 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0003
+          川崎市麻生区高石
+          ５－７－１－２０８
+          池田 和代 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 104-0045
+          中央区築地
+          １－８－１　新三浦ビル
+          江頭 信正 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 184-0002
+          小金井市梶野町
+          ５－１０－４６
+          奥村 晃博 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 373-0006
+          群馬県太田市成塚町
+          １５０－５２５
+          尾見 裕子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 104-0052
+          中央区月島
+          ２－１８－３
+          鹿島 英雄 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 183-0041
+          府中市北山町
+          １－４－５
+          河合 靜子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 194-0043
+          町田市成瀬台
+          １－１１－２０
+          黒川 はるみ 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 213-0011
+          川崎市高津区久本
+          ３－６－１パークシティＡ棟３０
+          ２
+          齋藤 美栄子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 182-0023
+          調布市染地
+          ３－５－２０６
+          島崎 雄愛 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 201-0002
+          狛江市東野川
+          １－３０－２２グランメール１０
+          １
+          杉﨑 吉男 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 212-0005
+          川崎市幸区戸手
+          ２－５－４－５０３
+          染谷 薫 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 158-0094
+          世田谷区玉川
+          ３－２４－１２
+          武田 信男 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 157-0066
+          世田谷区成城
+          ７－５－１４
+          内藤 昌欣 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 142-0041
+          品川区戸越
+          ６－２３－９
+          西 美惠子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 241-0801
+          横浜市旭区若葉台
+          ３－６－１１０４
+          野村 長生 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 211-0025
+          川崎市中原区木月
+          ３－３４－１７－３０１トレスル
+          ナアルボール
+          萩原 誠一朗 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 158-0091
+          世田谷区中町
+          ５－３１－７
+          俵木 伸夫 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 156-0055
+          世田谷区船橋
+          １－１－１５
+          藤田 恵子 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 357-0048
+          埼玉県飯能市岩渕
+          ２３２－２
+          藤原 忠治 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+          〒 201-0005
+          狛江市岩戸南
+          ３－９－１
+          堀 英夫 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0038
+          川崎市多摩区生田
+          ６－３－４－２０２
+          前田 登美 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0031
+          川崎市多摩区東生田
+          １－２１－３
+          松永 和喜 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0011
+          川崎市麻生区百合丘
+          １－１８－２
+          松本 伸一郎 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 214-0023
+          川崎市多摩区長尾
+          ６－３０－１
+          山岡 忠章 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 216-0004
+          川崎市宮前区鷺沼
+          ３－１１－９５
+          山縣 史郎 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 227-0054
+          横浜市青葉区しらとり台
+          ２５－９
+          山本 信博 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 201-0014
+          狛江市東和泉
+          ２－１３－１
+          米田 哲夫 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 230-0043
+          横浜市鶴見区汐入町
+          ３－４８－７
+          脇川 竜也 様
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">          〒 215-0018
+          川崎市麻生区王禅寺東
+          １－１０－８
+          渡邉 和子 様
+</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -46,7 +247,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -56,23 +257,9 @@
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
+      <x:sz val="10"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="9"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="ＭＳ Ｐゴシック"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -103,51 +290,32 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -445,266 +613,244 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:C31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="4.420625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.850625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.280625" style="0" customWidth="1"/>
-    <x:col min="4" max="11" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="8.000625" style="0" customWidth="1"/>
-    <x:col min="13" max="16" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="17" max="17" width="2.850625" style="1" customWidth="1"/>
-    <x:col min="18" max="20" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="21" max="21" width="1.020625" style="0" customWidth="1"/>
+    <x:col min="4" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="34.710625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="31.570625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:21" s="0" customFormat="1" ht="283.5" customHeight="1">
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="D1" s="1" t="s"/>
-      <x:c r="E1" s="1" t="s"/>
-      <x:c r="F1" s="1" t="s"/>
-      <x:c r="G1" s="1" t="s"/>
-      <x:c r="H1" s="1" t="s"/>
-      <x:c r="I1" s="1" t="s"/>
-      <x:c r="J1" s="1" t="s"/>
-      <x:c r="K1" s="1" t="s"/>
-      <x:c r="M1" s="1" t="s"/>
-      <x:c r="N1" s="1" t="s"/>
-      <x:c r="O1" s="1" t="s"/>
-      <x:c r="P1" s="1" t="s"/>
-      <x:c r="Q1" s="1" t="s"/>
-      <x:c r="R1" s="1" t="s"/>
-      <x:c r="S1" s="1" t="s"/>
-      <x:c r="T1" s="1" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:21" s="0" customFormat="1" ht="165" customHeight="1">
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="D2" s="1" t="s"/>
-      <x:c r="E2" s="1" t="s"/>
-      <x:c r="F2" s="1" t="s"/>
-      <x:c r="G2" s="1" t="s"/>
-      <x:c r="H2" s="1" t="s"/>
-      <x:c r="I2" s="1" t="s"/>
-      <x:c r="J2" s="1" t="s"/>
-      <x:c r="K2" s="1" t="s"/>
-      <x:c r="M2" s="1" t="s"/>
-      <x:c r="N2" s="1" t="s"/>
-      <x:c r="O2" s="1" t="s"/>
-      <x:c r="P2" s="1" t="s"/>
-      <x:c r="Q2" s="1" t="s"/>
-      <x:c r="R2" s="1" t="s"/>
-      <x:c r="S2" s="1" t="s"/>
-      <x:c r="T2" s="1" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
-      <x:c r="C3" s="1" t="s"/>
-      <x:c r="D3" s="2" t="s"/>
-      <x:c r="E3" s="2" t="s"/>
-      <x:c r="F3" s="2" t="s"/>
-      <x:c r="G3" s="2" t="s"/>
-      <x:c r="H3" s="2" t="s"/>
-      <x:c r="I3" s="2" t="s"/>
-      <x:c r="J3" s="2" t="s"/>
-      <x:c r="K3" s="2" t="s">
+    <x:row r="1" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
-      <x:c r="E4" s="1" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
-      <x:c r="G4" s="1" t="s"/>
-      <x:c r="H4" s="1" t="s"/>
-      <x:c r="I4" s="1" t="s"/>
-      <x:c r="J4" s="1" t="s"/>
-      <x:c r="K4" s="1" t="s"/>
-      <x:c r="M4" s="1" t="s"/>
-      <x:c r="N4" s="1" t="s"/>
-      <x:c r="O4" s="1" t="s"/>
-      <x:c r="P4" s="1" t="s"/>
-      <x:c r="Q4" s="1" t="s"/>
-      <x:c r="R4" s="1" t="s"/>
-      <x:c r="S4" s="1" t="s"/>
-      <x:c r="T4" s="1" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:21" s="0" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="B5" s="1" t="s"/>
-      <x:c r="D5" s="1" t="s"/>
-      <x:c r="E5" s="1" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
-      <x:c r="G5" s="1" t="s"/>
-      <x:c r="H5" s="1" t="s"/>
-      <x:c r="I5" s="1" t="s"/>
-      <x:c r="J5" s="1" t="s"/>
-      <x:c r="K5" s="1" t="s"/>
-      <x:c r="M5" s="1" t="s"/>
-      <x:c r="N5" s="1" t="s"/>
-      <x:c r="O5" s="1" t="s"/>
-      <x:c r="P5" s="1" t="s"/>
-      <x:c r="Q5" s="1" t="s"/>
-      <x:c r="R5" s="1" t="s"/>
-      <x:c r="S5" s="1" t="s"/>
-      <x:c r="T5" s="1" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-      <x:c r="F6" s="3" t="s"/>
-      <x:c r="G6" s="3" t="s"/>
-      <x:c r="H6" s="3" t="s"/>
-      <x:c r="I6" s="3" t="s"/>
-      <x:c r="J6" s="3" t="s"/>
-      <x:c r="K6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B7" s="4" t="s">
+      <x:c r="B1" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s"/>
-      <x:c r="F7" s="3" t="s"/>
-      <x:c r="G7" s="3" t="s"/>
-      <x:c r="H7" s="3" t="s"/>
-      <x:c r="I7" s="3" t="s"/>
-      <x:c r="J7" s="3" t="s"/>
-      <x:c r="K7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B8" s="4" t="s"/>
-      <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s"/>
-      <x:c r="F8" s="3" t="s"/>
-      <x:c r="G8" s="3" t="s"/>
-      <x:c r="H8" s="3" t="s"/>
-      <x:c r="I8" s="3" t="s"/>
-      <x:c r="J8" s="3" t="s"/>
-      <x:c r="K8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B9" s="4" t="s">
+      <x:c r="C1" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D9" s="3" t="s"/>
-      <x:c r="E9" s="3" t="s"/>
-      <x:c r="F9" s="3" t="s"/>
-      <x:c r="G9" s="3" t="s"/>
-      <x:c r="H9" s="3" t="s"/>
-      <x:c r="I9" s="3" t="s"/>
-      <x:c r="J9" s="3" t="s"/>
-      <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="1" t="s"/>
-      <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s"/>
-      <x:c r="P9" s="2" t="s"/>
-      <x:c r="Q9" s="2" t="s"/>
-      <x:c r="R9" s="2" t="s"/>
-      <x:c r="S9" s="2" t="s"/>
-      <x:c r="T9" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B10" s="4" t="s"/>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s"/>
-      <x:c r="F10" s="3" t="s"/>
-      <x:c r="G10" s="3" t="s"/>
-      <x:c r="H10" s="3" t="s"/>
-      <x:c r="I10" s="3" t="s"/>
-      <x:c r="J10" s="3" t="s"/>
-      <x:c r="K10" s="3" t="s"/>
-      <x:c r="M10" s="5" t="s">
+    </x:row>
+    <x:row r="2" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A2" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="N10" s="5" t="s"/>
-      <x:c r="O10" s="5" t="s"/>
-      <x:c r="P10" s="5" t="s"/>
-      <x:c r="Q10" s="5" t="s"/>
-      <x:c r="R10" s="5" t="s"/>
-      <x:c r="S10" s="5" t="s"/>
-      <x:c r="T10" s="5" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M11" s="5" t="s">
+      <x:c r="B2" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="N11" s="5" t="s"/>
-      <x:c r="O11" s="5" t="s"/>
-      <x:c r="P11" s="5" t="s"/>
-      <x:c r="Q11" s="5" t="s"/>
-      <x:c r="R11" s="5" t="s"/>
-      <x:c r="S11" s="5" t="s"/>
-      <x:c r="T11" s="5" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B12" s="6" t="s">
+      <x:c r="C2" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="M12" s="5" t="s">
+    </x:row>
+    <x:row r="3" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A3" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="N12" s="5" t="s"/>
-      <x:c r="O12" s="5" t="s"/>
-      <x:c r="P12" s="5" t="s"/>
-      <x:c r="Q12" s="5" t="s"/>
-      <x:c r="R12" s="5" t="s"/>
-      <x:c r="S12" s="5" t="s"/>
-      <x:c r="T12" s="5" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M13" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="N13" s="7" t="s"/>
-      <x:c r="O13" s="7" t="s"/>
-      <x:c r="P13" s="7" t="s"/>
-      <x:c r="Q13" s="7" t="s"/>
-      <x:c r="R13" s="7" t="s"/>
-      <x:c r="S13" s="7" t="s"/>
-      <x:c r="T13" s="7" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:21" s="0" customFormat="1" ht="105.75" customHeight="1">
-      <x:c r="B14" s="1" t="s"/>
-      <x:c r="D14" s="1" t="s"/>
-      <x:c r="E14" s="1" t="s"/>
-      <x:c r="F14" s="1" t="s"/>
-      <x:c r="G14" s="1" t="s"/>
-      <x:c r="H14" s="1" t="s"/>
-      <x:c r="I14" s="1" t="s"/>
-      <x:c r="J14" s="1" t="s"/>
-      <x:c r="K14" s="1" t="s"/>
-      <x:c r="M14" s="1" t="s"/>
-      <x:c r="N14" s="1" t="s"/>
-      <x:c r="O14" s="1" t="s"/>
-      <x:c r="P14" s="1" t="s"/>
-      <x:c r="Q14" s="1" t="s"/>
-      <x:c r="R14" s="1" t="s"/>
-      <x:c r="S14" s="1" t="s"/>
-      <x:c r="T14" s="1" t="s"/>
+      <x:c r="B3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A4" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A5" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A6" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A7" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A8" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A9" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A10" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A11" s="3" t="s"/>
+      <x:c r="B11" s="3" t="s"/>
+      <x:c r="C11" s="3" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A12" s="3" t="s"/>
+      <x:c r="B12" s="3" t="s"/>
+      <x:c r="C12" s="3" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A13" s="3" t="s"/>
+      <x:c r="B13" s="3" t="s"/>
+      <x:c r="C13" s="3" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A14" s="3" t="s"/>
+      <x:c r="B14" s="3" t="s"/>
+      <x:c r="C14" s="3" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A15" s="3" t="s"/>
+      <x:c r="B15" s="3" t="s"/>
+      <x:c r="C15" s="3" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A16" s="3" t="s"/>
+      <x:c r="B16" s="3" t="s"/>
+      <x:c r="C16" s="3" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A17" s="3" t="s"/>
+      <x:c r="B17" s="3" t="s"/>
+      <x:c r="C17" s="3" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A18" s="3" t="s"/>
+      <x:c r="B18" s="3" t="s"/>
+      <x:c r="C18" s="3" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A19" s="3" t="s"/>
+      <x:c r="B19" s="3" t="s"/>
+      <x:c r="C19" s="3" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A20" s="3" t="s"/>
+      <x:c r="B20" s="3" t="s"/>
+      <x:c r="C20" s="3" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A21" s="3" t="s"/>
+      <x:c r="B21" s="3" t="s"/>
+      <x:c r="C21" s="3" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A22" s="3" t="s"/>
+      <x:c r="B22" s="3" t="s"/>
+      <x:c r="C22" s="3" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A23" s="3" t="s"/>
+      <x:c r="B23" s="3" t="s"/>
+      <x:c r="C23" s="3" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A24" s="3" t="s"/>
+      <x:c r="B24" s="3" t="s"/>
+      <x:c r="C24" s="3" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A25" s="3" t="s"/>
+      <x:c r="B25" s="3" t="s"/>
+      <x:c r="C25" s="3" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A26" s="3" t="s"/>
+      <x:c r="B26" s="3" t="s"/>
+      <x:c r="C26" s="3" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A27" s="3" t="s"/>
+      <x:c r="B27" s="3" t="s"/>
+      <x:c r="C27" s="3" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A28" s="3" t="s"/>
+      <x:c r="B28" s="3" t="s"/>
+      <x:c r="C28" s="3" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A29" s="3" t="s"/>
+      <x:c r="B29" s="3" t="s"/>
+      <x:c r="C29" s="3" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A30" s="3" t="s"/>
+      <x:c r="B30" s="3" t="s"/>
+      <x:c r="C30" s="3" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:3" customFormat="1" ht="120" customHeight="1">
+      <x:c r="A31" s="3" t="s"/>
+      <x:c r="B31" s="3" t="s"/>
+      <x:c r="C31" s="3" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="9">
-    <x:mergeCell ref="D6:K6"/>
-    <x:mergeCell ref="D7:K7"/>
-    <x:mergeCell ref="D8:K8"/>
-    <x:mergeCell ref="D9:K9"/>
-    <x:mergeCell ref="D10:K10"/>
-    <x:mergeCell ref="M10:T10"/>
-    <x:mergeCell ref="M11:T11"/>
-    <x:mergeCell ref="M12:T12"/>
-    <x:mergeCell ref="M13:T13"/>
-  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter/>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,22 +9,46 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$J$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <x:si>
-    <x:t xml:space="preserve"> 人見　浩史 様</x:t>
-  </x:si>
-  <x:si>
-    <x:t>二ー八ー二一コスモ上尾柏座三〇一</x:t>
-  </x:si>
-  <x:si>
-    <x:t>埼玉県上尾市柏座</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <x:si>
+    <x:t>\</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理番号 : 001234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〒241-0002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>西4区5側1番</x:t>
+  </x:si>
+  <x:si>
+    <x:t>横浜市旭区上白根</x:t>
+  </x:si>
+  <x:si>
+    <x:t>面積 : 3.5 ㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>３－３３－２４</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 横浜市旭区上白根</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ３－３３－２４</x:t>
+  </x:si>
+  <x:si>
+    <x:t>阿部　孝一 様</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -34,7 +58,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="5">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -46,42 +70,30 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
+      <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="48"/>
+      <x:sz val="9"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="30"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="ＭＳ Ｐ明朝"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="2">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-      </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="1">
@@ -103,7 +115,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -116,14 +128,8 @@
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="7">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -133,23 +139,27 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -447,23 +457,26 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J6"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="11" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="22.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
-    <x:col min="3" max="5" width="3.420625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="1.040625" style="1" customWidth="1"/>
-    <x:col min="7" max="10" width="3.420625" style="1" customWidth="1"/>
+    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="4.420625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.850625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="8.280625" style="0" customWidth="1"/>
+    <x:col min="4" max="11" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="8.000625" style="0" customWidth="1"/>
+    <x:col min="13" max="16" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="17" max="17" width="2.850625" style="1" customWidth="1"/>
+    <x:col min="18" max="20" width="2.420625" style="1" customWidth="1"/>
+    <x:col min="21" max="21" width="1.020625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:10" s="0" customFormat="1" ht="101.25" customHeight="1">
+    <x:row r="1" spans="1:21" s="0" customFormat="1" ht="283.5" customHeight="1">
       <x:c r="B1" s="1" t="s"/>
-      <x:c r="C1" s="1" t="s"/>
       <x:c r="D1" s="1" t="s"/>
       <x:c r="E1" s="1" t="s"/>
       <x:c r="F1" s="1" t="s"/>
@@ -471,90 +484,246 @@
       <x:c r="H1" s="1" t="s"/>
       <x:c r="I1" s="1" t="s"/>
       <x:c r="J1" s="1" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:10" customFormat="1" ht="38.25" customHeight="1">
-      <x:c r="C2" s="2" t="n">
+      <x:c r="K1" s="1" t="s"/>
+      <x:c r="M1" s="1" t="s"/>
+      <x:c r="N1" s="1" t="s"/>
+      <x:c r="O1" s="1" t="s"/>
+      <x:c r="P1" s="1" t="s"/>
+      <x:c r="Q1" s="1" t="s"/>
+      <x:c r="R1" s="1" t="s"/>
+      <x:c r="S1" s="1" t="s"/>
+      <x:c r="T1" s="1" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:21" s="0" customFormat="1" ht="165" customHeight="1">
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="D2" s="1" t="s"/>
+      <x:c r="E2" s="1" t="s"/>
+      <x:c r="F2" s="1" t="s"/>
+      <x:c r="G2" s="1" t="s"/>
+      <x:c r="H2" s="1" t="s"/>
+      <x:c r="I2" s="1" t="s"/>
+      <x:c r="J2" s="1" t="s"/>
+      <x:c r="K2" s="1" t="s"/>
+      <x:c r="M2" s="1" t="s"/>
+      <x:c r="N2" s="1" t="s"/>
+      <x:c r="O2" s="1" t="s"/>
+      <x:c r="P2" s="1" t="s"/>
+      <x:c r="Q2" s="1" t="s"/>
+      <x:c r="R2" s="1" t="s"/>
+      <x:c r="S2" s="1" t="s"/>
+      <x:c r="T2" s="1" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
+      <x:c r="C3" s="1" t="s"/>
+      <x:c r="D3" s="2" t="s"/>
+      <x:c r="E3" s="2" t="s"/>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B4" s="1" t="s"/>
+      <x:c r="D4" s="1" t="s"/>
+      <x:c r="E4" s="1" t="s"/>
+      <x:c r="F4" s="1" t="s"/>
+      <x:c r="G4" s="1" t="s"/>
+      <x:c r="H4" s="1" t="s"/>
+      <x:c r="I4" s="1" t="s"/>
+      <x:c r="J4" s="1" t="s"/>
+      <x:c r="K4" s="1" t="s"/>
+      <x:c r="M4" s="1" t="s"/>
+      <x:c r="N4" s="1" t="s"/>
+      <x:c r="O4" s="1" t="s"/>
+      <x:c r="P4" s="1" t="s"/>
+      <x:c r="Q4" s="1" t="s"/>
+      <x:c r="R4" s="1" t="s"/>
+      <x:c r="S4" s="1" t="s"/>
+      <x:c r="T4" s="1" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:21" s="0" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="B5" s="1" t="s"/>
+      <x:c r="D5" s="1" t="s"/>
+      <x:c r="E5" s="1" t="s"/>
+      <x:c r="F5" s="1" t="s"/>
+      <x:c r="G5" s="1" t="s"/>
+      <x:c r="H5" s="1" t="s"/>
+      <x:c r="I5" s="1" t="s"/>
+      <x:c r="J5" s="1" t="s"/>
+      <x:c r="K5" s="1" t="s"/>
+      <x:c r="M5" s="1" t="s"/>
+      <x:c r="N5" s="1" t="s"/>
+      <x:c r="O5" s="1" t="s"/>
+      <x:c r="P5" s="1" t="s"/>
+      <x:c r="Q5" s="1" t="s"/>
+      <x:c r="R5" s="1" t="s"/>
+      <x:c r="S5" s="1" t="s"/>
+      <x:c r="T5" s="1" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="D6" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E6" s="3" t="s"/>
+      <x:c r="F6" s="3" t="s"/>
+      <x:c r="G6" s="3" t="s"/>
+      <x:c r="H6" s="3" t="s"/>
+      <x:c r="I6" s="3" t="s"/>
+      <x:c r="J6" s="3" t="s"/>
+      <x:c r="K6" s="3" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B7" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="n">
+      <x:c r="E7" s="3" t="s"/>
+      <x:c r="F7" s="3" t="s"/>
+      <x:c r="G7" s="3" t="s"/>
+      <x:c r="H7" s="3" t="s"/>
+      <x:c r="I7" s="3" t="s"/>
+      <x:c r="J7" s="3" t="s"/>
+      <x:c r="K7" s="3" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B8" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s"/>
+      <x:c r="F8" s="3" t="s"/>
+      <x:c r="G8" s="3" t="s"/>
+      <x:c r="H8" s="3" t="s"/>
+      <x:c r="I8" s="3" t="s"/>
+      <x:c r="J8" s="3" t="s"/>
+      <x:c r="K8" s="3" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B9" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s"/>
-      <x:c r="G2" s="2" t="n">
+      <x:c r="D9" s="3" t="s"/>
+      <x:c r="E9" s="3" t="s"/>
+      <x:c r="F9" s="3" t="s"/>
+      <x:c r="G9" s="3" t="s"/>
+      <x:c r="H9" s="3" t="s"/>
+      <x:c r="I9" s="3" t="s"/>
+      <x:c r="J9" s="3" t="s"/>
+      <x:c r="K9" s="3" t="s"/>
+      <x:c r="L9" s="1" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H2" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I2" s="2" t="n">
+    </x:row>
+    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B10" s="4" t="s"/>
+      <x:c r="D10" s="3" t="s"/>
+      <x:c r="E10" s="3" t="s"/>
+      <x:c r="F10" s="3" t="s"/>
+      <x:c r="G10" s="3" t="s"/>
+      <x:c r="H10" s="3" t="s"/>
+      <x:c r="I10" s="3" t="s"/>
+      <x:c r="J10" s="3" t="s"/>
+      <x:c r="K10" s="3" t="s"/>
+      <x:c r="M10" s="5" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="J2" s="2" t="n">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:10" s="0" customFormat="1" ht="14.25" customHeight="1">
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="C3" s="1" t="s"/>
-      <x:c r="D3" s="1" t="s"/>
-      <x:c r="E3" s="1" t="s"/>
-      <x:c r="F3" s="1" t="s"/>
-      <x:c r="G3" s="1" t="s"/>
-      <x:c r="H3" s="1" t="s"/>
-      <x:c r="I3" s="1" t="s"/>
-      <x:c r="J3" s="1" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:10" customFormat="1" ht="409.5" customHeight="1">
-      <x:c r="B4" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s"/>
-      <x:c r="D4" s="4" t="s"/>
-      <x:c r="E4" s="4" t="s"/>
-      <x:c r="F4" s="5" t="s"/>
-      <x:c r="G4" s="6" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H4" s="5" t="s"/>
-      <x:c r="I4" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J4" s="4" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:10" customFormat="1" ht="133.5" customHeight="1">
-      <x:c r="B5" s="3" t="s"/>
-      <x:c r="C5" s="3" t="s"/>
-      <x:c r="D5" s="4" t="s"/>
-      <x:c r="E5" s="4" t="s"/>
-      <x:c r="G5" s="5" t="s"/>
-      <x:c r="H5" s="5" t="s"/>
-      <x:c r="I5" s="4" t="s"/>
-      <x:c r="J5" s="4" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:10" s="0" customFormat="1" ht="36" customHeight="1">
-      <x:c r="B6" s="1" t="s"/>
-      <x:c r="C6" s="1" t="s"/>
-      <x:c r="D6" s="1" t="s"/>
-      <x:c r="E6" s="1" t="s"/>
-      <x:c r="F6" s="1" t="s"/>
-      <x:c r="G6" s="1" t="s"/>
-      <x:c r="H6" s="1" t="s"/>
-      <x:c r="I6" s="1" t="s"/>
-      <x:c r="J6" s="1" t="s"/>
+      <x:c r="N10" s="5" t="s"/>
+      <x:c r="O10" s="5" t="s"/>
+      <x:c r="P10" s="5" t="s"/>
+      <x:c r="Q10" s="5" t="s"/>
+      <x:c r="R10" s="5" t="s"/>
+      <x:c r="S10" s="5" t="s"/>
+      <x:c r="T10" s="5" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="M11" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N11" s="5" t="s"/>
+      <x:c r="O11" s="5" t="s"/>
+      <x:c r="P11" s="5" t="s"/>
+      <x:c r="Q11" s="5" t="s"/>
+      <x:c r="R11" s="5" t="s"/>
+      <x:c r="S11" s="5" t="s"/>
+      <x:c r="T11" s="5" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B12" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="M12" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N12" s="5" t="s"/>
+      <x:c r="O12" s="5" t="s"/>
+      <x:c r="P12" s="5" t="s"/>
+      <x:c r="Q12" s="5" t="s"/>
+      <x:c r="R12" s="5" t="s"/>
+      <x:c r="S12" s="5" t="s"/>
+      <x:c r="T12" s="5" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="M13" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="N13" s="7" t="s"/>
+      <x:c r="O13" s="7" t="s"/>
+      <x:c r="P13" s="7" t="s"/>
+      <x:c r="Q13" s="7" t="s"/>
+      <x:c r="R13" s="7" t="s"/>
+      <x:c r="S13" s="7" t="s"/>
+      <x:c r="T13" s="7" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:21" s="0" customFormat="1" ht="105.75" customHeight="1">
+      <x:c r="B14" s="1" t="s"/>
+      <x:c r="D14" s="1" t="s"/>
+      <x:c r="E14" s="1" t="s"/>
+      <x:c r="F14" s="1" t="s"/>
+      <x:c r="G14" s="1" t="s"/>
+      <x:c r="H14" s="1" t="s"/>
+      <x:c r="I14" s="1" t="s"/>
+      <x:c r="J14" s="1" t="s"/>
+      <x:c r="K14" s="1" t="s"/>
+      <x:c r="M14" s="1" t="s"/>
+      <x:c r="N14" s="1" t="s"/>
+      <x:c r="O14" s="1" t="s"/>
+      <x:c r="P14" s="1" t="s"/>
+      <x:c r="Q14" s="1" t="s"/>
+      <x:c r="R14" s="1" t="s"/>
+      <x:c r="S14" s="1" t="s"/>
+      <x:c r="T14" s="1" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="4">
-    <x:mergeCell ref="I4:J5"/>
-    <x:mergeCell ref="G4:H5"/>
-    <x:mergeCell ref="D4:E5"/>
-    <x:mergeCell ref="B4:C5"/>
+  <x:mergeCells count="9">
+    <x:mergeCell ref="D6:K6"/>
+    <x:mergeCell ref="D7:K7"/>
+    <x:mergeCell ref="D8:K8"/>
+    <x:mergeCell ref="D9:K9"/>
+    <x:mergeCell ref="D10:K10"/>
+    <x:mergeCell ref="M10:T10"/>
+    <x:mergeCell ref="M11:T11"/>
+    <x:mergeCell ref="M12:T12"/>
+    <x:mergeCell ref="M13:T13"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -21,31 +21,31 @@
     <x:t>\</x:t>
   </x:si>
   <x:si>
-    <x:t>管理番号 : 001234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〒241-0002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>西4区5側1番</x:t>
-  </x:si>
-  <x:si>
-    <x:t>横浜市旭区上白根</x:t>
-  </x:si>
-  <x:si>
-    <x:t>面積 : 3.5 ㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>３－３３－２４</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 横浜市旭区上白根</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> ３－３３－２４</x:t>
-  </x:si>
-  <x:si>
-    <x:t>阿部　孝一 様</x:t>
+    <x:t>管理番号 : 001233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〒781-1105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>南5区2側46番</x:t>
+  </x:si>
+  <x:si>
+    <x:t>高知県土佐市蓮池</x:t>
+  </x:si>
+  <x:si>
+    <x:t>面積 : 5.0 ㎡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>４７１－２５</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 高知県土佐市蓮池</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ４７１－２５</x:t>
+  </x:si>
+  <x:si>
+    <x:t>綾井　健 様</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> </x:t>
@@ -70,21 +70,21 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="IPAmj明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="IPAmj明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="9"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐ明朝"/>
+      <x:name val="IPAmj明朝"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,46 +9,22 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$J$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <x:si>
-    <x:t>\</x:t>
+    <x:t xml:space="preserve"> 阿部　孝一 様</x:t>
   </x:si>
   <x:si>
-    <x:t>管理番号 : 001233</x:t>
+    <x:t>三ー三三ー二四</x:t>
   </x:si>
   <x:si>
-    <x:t>〒781-1105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>南5区2側46番</x:t>
-  </x:si>
-  <x:si>
-    <x:t>高知県土佐市蓮池</x:t>
-  </x:si>
-  <x:si>
-    <x:t>面積 : 5.0 ㎡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>４７１－２５</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 高知県土佐市蓮池</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> ４７１－２５</x:t>
-  </x:si>
-  <x:si>
-    <x:t>綾井　健 様</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
+    <x:t>横浜市旭区上白根</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -68,23 +44,23 @@
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
+      <x:sz val="16"/>
       <x:color rgb="FF000000"/>
-      <x:name val="IPAmj明朝"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
+      <x:sz val="48"/>
       <x:color rgb="FF000000"/>
-      <x:name val="IPAmj明朝"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="9"/>
+      <x:sz val="30"/>
       <x:color rgb="FF000000"/>
-      <x:name val="IPAmj明朝"/>
+      <x:name val="HGP行書体"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -129,37 +105,25 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="right" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -457,273 +421,83 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:J6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="4.420625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.850625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="8.280625" style="0" customWidth="1"/>
-    <x:col min="4" max="11" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="8.000625" style="0" customWidth="1"/>
-    <x:col min="13" max="16" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="17" max="17" width="2.850625" style="1" customWidth="1"/>
-    <x:col min="18" max="20" width="2.420625" style="1" customWidth="1"/>
-    <x:col min="21" max="21" width="1.020625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="22.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="3.420625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="1.040625" style="0" customWidth="1"/>
+    <x:col min="7" max="10" width="3.420625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:21" s="0" customFormat="1" ht="283.5" customHeight="1">
-      <x:c r="B1" s="1" t="s"/>
-      <x:c r="D1" s="1" t="s"/>
-      <x:c r="E1" s="1" t="s"/>
-      <x:c r="F1" s="1" t="s"/>
-      <x:c r="G1" s="1" t="s"/>
-      <x:c r="H1" s="1" t="s"/>
-      <x:c r="I1" s="1" t="s"/>
-      <x:c r="J1" s="1" t="s"/>
-      <x:c r="K1" s="1" t="s"/>
-      <x:c r="M1" s="1" t="s"/>
-      <x:c r="N1" s="1" t="s"/>
-      <x:c r="O1" s="1" t="s"/>
-      <x:c r="P1" s="1" t="s"/>
-      <x:c r="Q1" s="1" t="s"/>
-      <x:c r="R1" s="1" t="s"/>
-      <x:c r="S1" s="1" t="s"/>
-      <x:c r="T1" s="1" t="s"/>
+    <x:row r="1" spans="1:10" customFormat="1" ht="101.25" customHeight="1"/>
+    <x:row r="2" spans="1:10" customFormat="1" ht="38.25" customHeight="1">
+      <x:c r="C2" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s"/>
+      <x:c r="G2" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:21" s="0" customFormat="1" ht="165" customHeight="1">
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="D2" s="1" t="s"/>
-      <x:c r="E2" s="1" t="s"/>
-      <x:c r="F2" s="1" t="s"/>
-      <x:c r="G2" s="1" t="s"/>
-      <x:c r="H2" s="1" t="s"/>
-      <x:c r="I2" s="1" t="s"/>
-      <x:c r="J2" s="1" t="s"/>
-      <x:c r="K2" s="1" t="s"/>
-      <x:c r="M2" s="1" t="s"/>
-      <x:c r="N2" s="1" t="s"/>
-      <x:c r="O2" s="1" t="s"/>
-      <x:c r="P2" s="1" t="s"/>
-      <x:c r="Q2" s="1" t="s"/>
-      <x:c r="R2" s="1" t="s"/>
-      <x:c r="S2" s="1" t="s"/>
-      <x:c r="T2" s="1" t="s"/>
+    <x:row r="3" spans="1:10" customFormat="1" ht="14.25" customHeight="1"/>
+    <x:row r="4" spans="1:10" customFormat="1" ht="409.5" customHeight="1">
+      <x:c r="B4" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s"/>
+      <x:c r="D4" s="3" t="s"/>
+      <x:c r="E4" s="3" t="s"/>
+      <x:c r="F4" s="4" t="s"/>
+      <x:c r="G4" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H4" s="4" t="s"/>
+      <x:c r="I4" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J4" s="3" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
-      <x:c r="C3" s="1" t="s"/>
-      <x:c r="D3" s="2" t="s"/>
-      <x:c r="E3" s="2" t="s"/>
-      <x:c r="F3" s="2" t="s"/>
-      <x:c r="G3" s="2" t="s"/>
-      <x:c r="H3" s="2" t="s"/>
-      <x:c r="I3" s="2" t="s"/>
-      <x:c r="J3" s="2" t="s"/>
-      <x:c r="K3" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
+    <x:row r="5" spans="1:10" customFormat="1" ht="133.5" customHeight="1">
+      <x:c r="B5" s="2" t="s"/>
+      <x:c r="C5" s="2" t="s"/>
+      <x:c r="D5" s="3" t="s"/>
+      <x:c r="E5" s="3" t="s"/>
+      <x:c r="G5" s="4" t="s"/>
+      <x:c r="H5" s="4" t="s"/>
+      <x:c r="I5" s="3" t="s"/>
+      <x:c r="J5" s="3" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:21" s="0" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B4" s="1" t="s"/>
-      <x:c r="D4" s="1" t="s"/>
-      <x:c r="E4" s="1" t="s"/>
-      <x:c r="F4" s="1" t="s"/>
-      <x:c r="G4" s="1" t="s"/>
-      <x:c r="H4" s="1" t="s"/>
-      <x:c r="I4" s="1" t="s"/>
-      <x:c r="J4" s="1" t="s"/>
-      <x:c r="K4" s="1" t="s"/>
-      <x:c r="M4" s="1" t="s"/>
-      <x:c r="N4" s="1" t="s"/>
-      <x:c r="O4" s="1" t="s"/>
-      <x:c r="P4" s="1" t="s"/>
-      <x:c r="Q4" s="1" t="s"/>
-      <x:c r="R4" s="1" t="s"/>
-      <x:c r="S4" s="1" t="s"/>
-      <x:c r="T4" s="1" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:21" s="0" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="B5" s="1" t="s"/>
-      <x:c r="D5" s="1" t="s"/>
-      <x:c r="E5" s="1" t="s"/>
-      <x:c r="F5" s="1" t="s"/>
-      <x:c r="G5" s="1" t="s"/>
-      <x:c r="H5" s="1" t="s"/>
-      <x:c r="I5" s="1" t="s"/>
-      <x:c r="J5" s="1" t="s"/>
-      <x:c r="K5" s="1" t="s"/>
-      <x:c r="M5" s="1" t="s"/>
-      <x:c r="N5" s="1" t="s"/>
-      <x:c r="O5" s="1" t="s"/>
-      <x:c r="P5" s="1" t="s"/>
-      <x:c r="Q5" s="1" t="s"/>
-      <x:c r="R5" s="1" t="s"/>
-      <x:c r="S5" s="1" t="s"/>
-      <x:c r="T5" s="1" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="D6" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s"/>
-      <x:c r="F6" s="3" t="s"/>
-      <x:c r="G6" s="3" t="s"/>
-      <x:c r="H6" s="3" t="s"/>
-      <x:c r="I6" s="3" t="s"/>
-      <x:c r="J6" s="3" t="s"/>
-      <x:c r="K6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B7" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="s"/>
-      <x:c r="F7" s="3" t="s"/>
-      <x:c r="G7" s="3" t="s"/>
-      <x:c r="H7" s="3" t="s"/>
-      <x:c r="I7" s="3" t="s"/>
-      <x:c r="J7" s="3" t="s"/>
-      <x:c r="K7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B8" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="s"/>
-      <x:c r="F8" s="3" t="s"/>
-      <x:c r="G8" s="3" t="s"/>
-      <x:c r="H8" s="3" t="s"/>
-      <x:c r="I8" s="3" t="s"/>
-      <x:c r="J8" s="3" t="s"/>
-      <x:c r="K8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B9" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s"/>
-      <x:c r="E9" s="3" t="s"/>
-      <x:c r="F9" s="3" t="s"/>
-      <x:c r="G9" s="3" t="s"/>
-      <x:c r="H9" s="3" t="s"/>
-      <x:c r="I9" s="3" t="s"/>
-      <x:c r="J9" s="3" t="s"/>
-      <x:c r="K9" s="3" t="s"/>
-      <x:c r="L9" s="1" t="s"/>
-      <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s"/>
-      <x:c r="P9" s="2" t="s"/>
-      <x:c r="Q9" s="2" t="s"/>
-      <x:c r="R9" s="2" t="s"/>
-      <x:c r="S9" s="2" t="s"/>
-      <x:c r="T9" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B10" s="4" t="s"/>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s"/>
-      <x:c r="F10" s="3" t="s"/>
-      <x:c r="G10" s="3" t="s"/>
-      <x:c r="H10" s="3" t="s"/>
-      <x:c r="I10" s="3" t="s"/>
-      <x:c r="J10" s="3" t="s"/>
-      <x:c r="K10" s="3" t="s"/>
-      <x:c r="M10" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="N10" s="5" t="s"/>
-      <x:c r="O10" s="5" t="s"/>
-      <x:c r="P10" s="5" t="s"/>
-      <x:c r="Q10" s="5" t="s"/>
-      <x:c r="R10" s="5" t="s"/>
-      <x:c r="S10" s="5" t="s"/>
-      <x:c r="T10" s="5" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M11" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="N11" s="5" t="s"/>
-      <x:c r="O11" s="5" t="s"/>
-      <x:c r="P11" s="5" t="s"/>
-      <x:c r="Q11" s="5" t="s"/>
-      <x:c r="R11" s="5" t="s"/>
-      <x:c r="S11" s="5" t="s"/>
-      <x:c r="T11" s="5" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="B12" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M12" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="N12" s="5" t="s"/>
-      <x:c r="O12" s="5" t="s"/>
-      <x:c r="P12" s="5" t="s"/>
-      <x:c r="Q12" s="5" t="s"/>
-      <x:c r="R12" s="5" t="s"/>
-      <x:c r="S12" s="5" t="s"/>
-      <x:c r="T12" s="5" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="M13" s="7" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="N13" s="7" t="s"/>
-      <x:c r="O13" s="7" t="s"/>
-      <x:c r="P13" s="7" t="s"/>
-      <x:c r="Q13" s="7" t="s"/>
-      <x:c r="R13" s="7" t="s"/>
-      <x:c r="S13" s="7" t="s"/>
-      <x:c r="T13" s="7" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:21" s="0" customFormat="1" ht="105.75" customHeight="1">
-      <x:c r="B14" s="1" t="s"/>
-      <x:c r="D14" s="1" t="s"/>
-      <x:c r="E14" s="1" t="s"/>
-      <x:c r="F14" s="1" t="s"/>
-      <x:c r="G14" s="1" t="s"/>
-      <x:c r="H14" s="1" t="s"/>
-      <x:c r="I14" s="1" t="s"/>
-      <x:c r="J14" s="1" t="s"/>
-      <x:c r="K14" s="1" t="s"/>
-      <x:c r="M14" s="1" t="s"/>
-      <x:c r="N14" s="1" t="s"/>
-      <x:c r="O14" s="1" t="s"/>
-      <x:c r="P14" s="1" t="s"/>
-      <x:c r="Q14" s="1" t="s"/>
-      <x:c r="R14" s="1" t="s"/>
-      <x:c r="S14" s="1" t="s"/>
-      <x:c r="T14" s="1" t="s"/>
-    </x:row>
+    <x:row r="6" spans="1:10" customFormat="1" ht="36" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="9">
-    <x:mergeCell ref="D6:K6"/>
-    <x:mergeCell ref="D7:K7"/>
-    <x:mergeCell ref="D8:K8"/>
-    <x:mergeCell ref="D9:K9"/>
-    <x:mergeCell ref="D10:K10"/>
-    <x:mergeCell ref="M10:T10"/>
-    <x:mergeCell ref="M11:T11"/>
-    <x:mergeCell ref="M12:T12"/>
-    <x:mergeCell ref="M13:T13"/>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="I4:J5"/>
+    <x:mergeCell ref="G4:H5"/>
+    <x:mergeCell ref="D4:E5"/>
+    <x:mergeCell ref="B4:C5"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -421,7 +421,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J6"/>
+  <x:dimension ref="A1:U14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -432,10 +432,16 @@
     <x:col min="3" max="5" width="3.420625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="1.040625" style="0" customWidth="1"/>
     <x:col min="7" max="10" width="3.420625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="2.420625" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="8.000625" style="0" customWidth="1"/>
+    <x:col min="13" max="16" width="2.420625" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="2.850625" style="0" customWidth="1"/>
+    <x:col min="18" max="20" width="2.420625" style="0" customWidth="1"/>
+    <x:col min="21" max="21" width="1.020625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:10" customFormat="1" ht="101.25" customHeight="1"/>
-    <x:row r="2" spans="1:10" customFormat="1" ht="38.25" customHeight="1">
+    <x:row r="1" spans="1:21" customFormat="1" ht="101.25" customHeight="1"/>
+    <x:row r="2" spans="1:21" customFormat="1" ht="38.25" customHeight="1">
       <x:c r="C2" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -459,8 +465,8 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:10" customFormat="1" ht="14.25" customHeight="1"/>
-    <x:row r="4" spans="1:10" customFormat="1" ht="409.5" customHeight="1">
+    <x:row r="3" spans="1:21" customFormat="1" ht="14.25" customHeight="1"/>
+    <x:row r="4" spans="1:21" customFormat="1" ht="409.5" customHeight="1">
       <x:c r="B4" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -477,7 +483,7 @@
       </x:c>
       <x:c r="J4" s="3" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:10" customFormat="1" ht="133.5" customHeight="1">
+    <x:row r="5" spans="1:21" customFormat="1" ht="133.5" customHeight="1">
       <x:c r="B5" s="2" t="s"/>
       <x:c r="C5" s="2" t="s"/>
       <x:c r="D5" s="3" t="s"/>
@@ -487,7 +493,15 @@
       <x:c r="I5" s="3" t="s"/>
       <x:c r="J5" s="3" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:10" customFormat="1" ht="36" customHeight="1"/>
+    <x:row r="6" spans="1:21" customFormat="1" ht="36" customHeight="1"/>
+    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="14" spans="1:21" customFormat="1" ht="105.75" customHeight="1"/>
   </x:sheetData>
   <x:mergeCells count="4">
     <x:mergeCell ref="I4:J5"/>
@@ -497,8 +511,15 @@
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
+  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter/>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -9,32 +9,102 @@
     <x:sheet name="Iroiro" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$J$1048576</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Iroiro!$A$1:$U$1048576</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <x:si>
-    <x:t xml:space="preserve"> 阿部　孝一 様</x:t>
-  </x:si>
-  <x:si>
-    <x:t>三ー三三ー二四</x:t>
-  </x:si>
-  <x:si>
-    <x:t>横浜市旭区上白根</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <x:si>
+    <x:t>受　納　証</x:t>
+  </x:si>
+  <x:si>
+    <x:t>№4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023年9月30日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T9480005004378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>あああ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>様</x:t>
+  </x:si>
+  <x:si>
+    <x:t>冥加金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>912-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>円也</x:t>
+  </x:si>
+  <x:si>
+    <x:t>但し</x:t>
+  </x:si>
+  <x:si>
+    <x:t>あああ：456 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>いいい：456 円 ※軽減税率</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10％対象</x:t>
+  </x:si>
+  <x:si>
+    <x:t>456 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>消費税</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8％対象</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>上記有難くお受けいたしました</x:t>
+  </x:si>
+  <x:si>
+    <x:t>信行寺</x:t>
+  </x:si>
+  <x:si>
+    <x:t>浄土真宗本願寺派</x:t>
+  </x:si>
+  <x:si>
+    <x:t>係</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〒214-0036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>川崎市多摩区南生田８－１－１</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ああ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>電話０４４－９７６－０１１５㈹</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="@"/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="7">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -44,23 +114,44 @@
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
+      <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="ＭＳ 明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="48"/>
+      <x:sz val="26"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="ＭＳ 明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="30"/>
+      <x:sz val="18"/>
       <x:color rgb="FF000000"/>
-      <x:name val="HGP行書体"/>
+      <x:name val="ＭＳ 明朝"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="24"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ 明朝"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="14"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ 明朝"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="10"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ 明朝"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -72,7 +163,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="8">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -87,43 +178,274 @@
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="thin">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="thin">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="thin">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="thin">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="thin">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="thin">
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="16">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="24">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="distributed" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -131,6 +453,135 @@
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
 </x:styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="733425" cy="733425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="733425" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="733425" cy="733425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="733425" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="733425" cy="733425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="733425" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="733425" cy="733425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="733425" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,93 +872,489 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U14"/>
+  <x:dimension ref="A1:U19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="22.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="3.420625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="1.040625" style="0" customWidth="1"/>
-    <x:col min="7" max="10" width="3.420625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="2.420625" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="8.000625" style="0" customWidth="1"/>
-    <x:col min="13" max="16" width="2.420625" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="2.850625" style="0" customWidth="1"/>
-    <x:col min="18" max="20" width="2.420625" style="0" customWidth="1"/>
-    <x:col min="21" max="21" width="1.020625" style="0" customWidth="1"/>
+    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="3.840625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="7.590625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="3.840625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="2.090625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="7.590625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="4.710625" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="8.570625" style="1" customWidth="1"/>
+    <x:col min="8" max="9" width="3.840625" style="1" customWidth="1"/>
+    <x:col min="10" max="10" width="4.210625" style="1" customWidth="1"/>
+    <x:col min="11" max="11" width="15.570625" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="3.840625" style="1" customWidth="1"/>
+    <x:col min="13" max="13" width="7.590625" style="1" customWidth="1"/>
+    <x:col min="14" max="14" width="3.840625" style="1" customWidth="1"/>
+    <x:col min="15" max="15" width="2.090625" style="1" customWidth="1"/>
+    <x:col min="16" max="16" width="7.590625" style="1" customWidth="1"/>
+    <x:col min="17" max="17" width="4.710625" style="1" customWidth="1"/>
+    <x:col min="18" max="18" width="8.570625" style="1" customWidth="1"/>
+    <x:col min="19" max="20" width="3.840625" style="1" customWidth="1"/>
+    <x:col min="21" max="21" width="4.210625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:21" customFormat="1" ht="101.25" customHeight="1"/>
-    <x:row r="2" spans="1:21" customFormat="1" ht="38.25" customHeight="1">
-      <x:c r="C2" s="1" t="n">
+    <x:row r="1" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s"/>
+      <x:c r="C1" s="2" t="s"/>
+      <x:c r="D1" s="2" t="s"/>
+      <x:c r="E1" s="2" t="s"/>
+      <x:c r="F1" s="2" t="s"/>
+      <x:c r="G1" s="2" t="s"/>
+      <x:c r="H1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1" s="3" t="s"/>
+      <x:c r="J1" s="3" t="s"/>
+      <x:c r="L1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M1" s="2" t="s"/>
+      <x:c r="N1" s="2" t="s"/>
+      <x:c r="O1" s="2" t="s"/>
+      <x:c r="P1" s="2" t="s"/>
+      <x:c r="Q1" s="2" t="s"/>
+      <x:c r="R1" s="2" t="s"/>
+      <x:c r="S1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T1" s="3" t="s"/>
+      <x:c r="U1" s="3" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:21" customFormat="1" ht="18" customHeight="1">
+      <x:c r="G2" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D2" s="1" t="n">
+      <x:c r="H2" s="4" t="s"/>
+      <x:c r="I2" s="4" t="s"/>
+      <x:c r="J2" s="4" t="s"/>
+      <x:c r="R2" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="S2" s="4" t="s"/>
+      <x:c r="T2" s="4" t="s"/>
+      <x:c r="U2" s="4" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:21" customFormat="1" ht="18" customHeight="1">
+      <x:c r="G3" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H3" s="4" t="s"/>
+      <x:c r="I3" s="4" t="s"/>
+      <x:c r="J3" s="4" t="s"/>
+      <x:c r="R3" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="S3" s="4" t="s"/>
+      <x:c r="T3" s="4" t="s"/>
+      <x:c r="U3" s="4" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
+      <x:c r="A4" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s"/>
-      <x:c r="G2" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I2" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J2" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:21" customFormat="1" ht="14.25" customHeight="1"/>
-    <x:row r="4" spans="1:21" customFormat="1" ht="409.5" customHeight="1">
-      <x:c r="B4" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s"/>
-      <x:c r="D4" s="3" t="s"/>
-      <x:c r="E4" s="3" t="s"/>
-      <x:c r="F4" s="4" t="s"/>
-      <x:c r="G4" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H4" s="4" t="s"/>
-      <x:c r="I4" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:21" customFormat="1" ht="133.5" customHeight="1">
-      <x:c r="B5" s="2" t="s"/>
-      <x:c r="C5" s="2" t="s"/>
-      <x:c r="D5" s="3" t="s"/>
-      <x:c r="E5" s="3" t="s"/>
-      <x:c r="G5" s="4" t="s"/>
-      <x:c r="H5" s="4" t="s"/>
-      <x:c r="I5" s="3" t="s"/>
-      <x:c r="J5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:21" customFormat="1" ht="36" customHeight="1"/>
-    <x:row r="7" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="8" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="9" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="10" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="11" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="14" spans="1:21" customFormat="1" ht="105.75" customHeight="1"/>
+      <x:c r="B4" s="5" t="s"/>
+      <x:c r="C4" s="5" t="s"/>
+      <x:c r="D4" s="5" t="s"/>
+      <x:c r="E4" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L4" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="M4" s="5" t="s"/>
+      <x:c r="N4" s="5" t="s"/>
+      <x:c r="O4" s="5" t="s"/>
+      <x:c r="P4" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
+      <x:c r="B5" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="M5" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
+      <x:c r="B6" s="8" t="s"/>
+      <x:c r="C6" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D6" s="9" t="s"/>
+      <x:c r="E6" s="9" t="s"/>
+      <x:c r="F6" s="9" t="s"/>
+      <x:c r="G6" s="9" t="s"/>
+      <x:c r="H6" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I6" s="10" t="s"/>
+      <x:c r="M6" s="8" t="s"/>
+      <x:c r="N6" s="9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="O6" s="9" t="s"/>
+      <x:c r="P6" s="9" t="s"/>
+      <x:c r="Q6" s="9" t="s"/>
+      <x:c r="R6" s="9" t="s"/>
+      <x:c r="S6" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="T6" s="10" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
+      <x:c r="B7" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="M7" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="B8" s="11" t="s"/>
+      <x:c r="C8" s="11" t="s"/>
+      <x:c r="D8" s="11" t="s"/>
+      <x:c r="E8" s="11" t="s"/>
+      <x:c r="F8" s="11" t="s"/>
+      <x:c r="G8" s="11" t="s"/>
+      <x:c r="H8" s="11" t="s"/>
+      <x:c r="I8" s="11" t="s"/>
+      <x:c r="M8" s="11" t="s"/>
+      <x:c r="N8" s="11" t="s"/>
+      <x:c r="O8" s="11" t="s"/>
+      <x:c r="P8" s="11" t="s"/>
+      <x:c r="Q8" s="11" t="s"/>
+      <x:c r="R8" s="11" t="s"/>
+      <x:c r="S8" s="11" t="s"/>
+      <x:c r="T8" s="11" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="B9" s="11" t="s"/>
+      <x:c r="C9" s="11" t="s"/>
+      <x:c r="D9" s="11" t="s"/>
+      <x:c r="E9" s="11" t="s"/>
+      <x:c r="F9" s="11" t="s"/>
+      <x:c r="G9" s="11" t="s"/>
+      <x:c r="H9" s="11" t="s"/>
+      <x:c r="I9" s="11" t="s"/>
+      <x:c r="M9" s="11" t="s"/>
+      <x:c r="N9" s="11" t="s"/>
+      <x:c r="O9" s="11" t="s"/>
+      <x:c r="P9" s="11" t="s"/>
+      <x:c r="Q9" s="11" t="s"/>
+      <x:c r="R9" s="11" t="s"/>
+      <x:c r="S9" s="11" t="s"/>
+      <x:c r="T9" s="11" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="B10" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C10" s="11" t="s"/>
+      <x:c r="D10" s="11" t="s"/>
+      <x:c r="E10" s="11" t="s"/>
+      <x:c r="F10" s="11" t="s"/>
+      <x:c r="G10" s="11" t="s"/>
+      <x:c r="H10" s="11" t="s"/>
+      <x:c r="I10" s="11" t="s"/>
+      <x:c r="M10" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N10" s="11" t="s"/>
+      <x:c r="O10" s="11" t="s"/>
+      <x:c r="P10" s="11" t="s"/>
+      <x:c r="Q10" s="11" t="s"/>
+      <x:c r="R10" s="11" t="s"/>
+      <x:c r="S10" s="11" t="s"/>
+      <x:c r="T10" s="11" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="B11" s="12" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C11" s="12" t="s"/>
+      <x:c r="D11" s="12" t="s"/>
+      <x:c r="E11" s="12" t="s"/>
+      <x:c r="F11" s="12" t="s"/>
+      <x:c r="G11" s="12" t="s"/>
+      <x:c r="H11" s="12" t="s"/>
+      <x:c r="I11" s="12" t="s"/>
+      <x:c r="M11" s="12" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N11" s="12" t="s"/>
+      <x:c r="O11" s="12" t="s"/>
+      <x:c r="P11" s="12" t="s"/>
+      <x:c r="Q11" s="12" t="s"/>
+      <x:c r="R11" s="12" t="s"/>
+      <x:c r="S11" s="12" t="s"/>
+      <x:c r="T11" s="12" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A12" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B12" s="4" t="s"/>
+      <x:c r="C12" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="s"/>
+      <x:c r="E12" s="4" t="s"/>
+      <x:c r="F12" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G12" s="4" t="s"/>
+      <x:c r="H12" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I12" s="4" t="s"/>
+      <x:c r="J12" s="4" t="s"/>
+      <x:c r="L12" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="M12" s="4" t="s"/>
+      <x:c r="N12" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O12" s="4" t="s"/>
+      <x:c r="P12" s="4" t="s"/>
+      <x:c r="Q12" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="R12" s="4" t="s"/>
+      <x:c r="S12" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="T12" s="4" t="s"/>
+      <x:c r="U12" s="4" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A13" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B13" s="4" t="s"/>
+      <x:c r="C13" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D13" s="4" t="s"/>
+      <x:c r="E13" s="4" t="s"/>
+      <x:c r="F13" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G13" s="4" t="s"/>
+      <x:c r="H13" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I13" s="4" t="s"/>
+      <x:c r="J13" s="4" t="s"/>
+      <x:c r="L13" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M13" s="4" t="s"/>
+      <x:c r="N13" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O13" s="4" t="s"/>
+      <x:c r="P13" s="4" t="s"/>
+      <x:c r="Q13" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="R13" s="4" t="s"/>
+      <x:c r="S13" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="T13" s="4" t="s"/>
+      <x:c r="U13" s="4" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:21" customFormat="1" ht="21.75" customHeight="1">
+      <x:c r="B14" s="13" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C14" s="13" t="s"/>
+      <x:c r="D14" s="13" t="s"/>
+      <x:c r="E14" s="13" t="s"/>
+      <x:c r="F14" s="13" t="s"/>
+      <x:c r="G14" s="13" t="s"/>
+      <x:c r="H14" s="13" t="s"/>
+      <x:c r="I14" s="13" t="s"/>
+      <x:c r="M14" s="13" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N14" s="13" t="s"/>
+      <x:c r="O14" s="13" t="s"/>
+      <x:c r="P14" s="13" t="s"/>
+      <x:c r="Q14" s="13" t="s"/>
+      <x:c r="R14" s="13" t="s"/>
+      <x:c r="S14" s="13" t="s"/>
+      <x:c r="T14" s="13" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:21" customFormat="1" ht="18" customHeight="1">
+      <x:c r="E15" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F15" s="14" t="s"/>
+      <x:c r="G15" s="14" t="s"/>
+      <x:c r="P15" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="Q15" s="14" t="s"/>
+      <x:c r="R15" s="14" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A16" s="15" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B16" s="15" t="s"/>
+      <x:c r="C16" s="15" t="s"/>
+      <x:c r="D16" s="15" t="s"/>
+      <x:c r="E16" s="14" t="s"/>
+      <x:c r="F16" s="14" t="s"/>
+      <x:c r="G16" s="14" t="s"/>
+      <x:c r="I16" s="16" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J16" s="17" t="s"/>
+      <x:c r="L16" s="15" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M16" s="15" t="s"/>
+      <x:c r="N16" s="15" t="s"/>
+      <x:c r="O16" s="15" t="s"/>
+      <x:c r="P16" s="14" t="s"/>
+      <x:c r="Q16" s="14" t="s"/>
+      <x:c r="R16" s="14" t="s"/>
+      <x:c r="T16" s="16" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="U16" s="17" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A17" s="18" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B17" s="18" t="s"/>
+      <x:c r="C17" s="18" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D17" s="18" t="s"/>
+      <x:c r="E17" s="18" t="s"/>
+      <x:c r="F17" s="18" t="s"/>
+      <x:c r="G17" s="18" t="s"/>
+      <x:c r="H17" s="18" t="s"/>
+      <x:c r="I17" s="19" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J17" s="20" t="s"/>
+      <x:c r="L17" s="18" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M17" s="18" t="s"/>
+      <x:c r="N17" s="18" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O17" s="18" t="s"/>
+      <x:c r="P17" s="18" t="s"/>
+      <x:c r="Q17" s="18" t="s"/>
+      <x:c r="R17" s="18" t="s"/>
+      <x:c r="S17" s="18" t="s"/>
+      <x:c r="T17" s="19" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="U17" s="20" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:21" customFormat="1" ht="18" customHeight="1">
+      <x:c r="B18" s="21" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C18" s="21" t="s"/>
+      <x:c r="D18" s="21" t="s"/>
+      <x:c r="E18" s="21" t="s"/>
+      <x:c r="F18" s="21" t="s"/>
+      <x:c r="G18" s="21" t="s"/>
+      <x:c r="I18" s="22" t="s"/>
+      <x:c r="J18" s="23" t="s"/>
+      <x:c r="M18" s="21" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N18" s="21" t="s"/>
+      <x:c r="O18" s="21" t="s"/>
+      <x:c r="P18" s="21" t="s"/>
+      <x:c r="Q18" s="21" t="s"/>
+      <x:c r="R18" s="21" t="s"/>
+      <x:c r="T18" s="22" t="s"/>
+      <x:c r="U18" s="23" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:21" customFormat="1" ht="18" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="4">
-    <x:mergeCell ref="I4:J5"/>
-    <x:mergeCell ref="G4:H5"/>
-    <x:mergeCell ref="D4:E5"/>
-    <x:mergeCell ref="B4:C5"/>
+  <x:mergeCells count="58">
+    <x:mergeCell ref="L1:R1"/>
+    <x:mergeCell ref="N6:R6"/>
+    <x:mergeCell ref="M8:T8"/>
+    <x:mergeCell ref="M9:T9"/>
+    <x:mergeCell ref="M10:T10"/>
+    <x:mergeCell ref="M11:T11"/>
+    <x:mergeCell ref="N17:S17"/>
+    <x:mergeCell ref="M18:R18"/>
+    <x:mergeCell ref="M14:T14"/>
+    <x:mergeCell ref="P15:R16"/>
+    <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="H1:J1"/>
+    <x:mergeCell ref="B2:E2"/>
+    <x:mergeCell ref="M2:P2"/>
+    <x:mergeCell ref="G2:J2"/>
+    <x:mergeCell ref="G3:J3"/>
+    <x:mergeCell ref="A4:D4"/>
+    <x:mergeCell ref="L4:O4"/>
+    <x:mergeCell ref="C6:G6"/>
+    <x:mergeCell ref="H6:I6"/>
+    <x:mergeCell ref="G7:I7"/>
+    <x:mergeCell ref="B8:I8"/>
+    <x:mergeCell ref="B9:I9"/>
+    <x:mergeCell ref="B10:I10"/>
+    <x:mergeCell ref="B11:I11"/>
+    <x:mergeCell ref="A12:B12"/>
+    <x:mergeCell ref="L12:M12"/>
+    <x:mergeCell ref="C12:E12"/>
+    <x:mergeCell ref="N12:P12"/>
+    <x:mergeCell ref="F12:G12"/>
+    <x:mergeCell ref="H12:J12"/>
+    <x:mergeCell ref="A13:B13"/>
+    <x:mergeCell ref="L13:M13"/>
+    <x:mergeCell ref="C13:E13"/>
+    <x:mergeCell ref="N13:P13"/>
+    <x:mergeCell ref="F13:G13"/>
+    <x:mergeCell ref="H13:J13"/>
+    <x:mergeCell ref="A16:D16"/>
+    <x:mergeCell ref="L16:O16"/>
+    <x:mergeCell ref="I16:J16"/>
+    <x:mergeCell ref="B14:I14"/>
+    <x:mergeCell ref="E15:G16"/>
+    <x:mergeCell ref="S1:U1"/>
+    <x:mergeCell ref="R2:U2"/>
+    <x:mergeCell ref="R3:U3"/>
+    <x:mergeCell ref="S6:T6"/>
+    <x:mergeCell ref="R7:T7"/>
+    <x:mergeCell ref="Q12:R12"/>
+    <x:mergeCell ref="S12:U12"/>
+    <x:mergeCell ref="Q13:R13"/>
+    <x:mergeCell ref="S13:U13"/>
+    <x:mergeCell ref="T16:U16"/>
+    <x:mergeCell ref="A17:B17"/>
+    <x:mergeCell ref="L17:M17"/>
+    <x:mergeCell ref="C17:H17"/>
+    <x:mergeCell ref="B18:G18"/>
+    <x:mergeCell ref="I17:J18"/>
+    <x:mergeCell ref="T17:U18"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
@@ -520,6 +1367,7 @@
     <x:firstHeader/>
     <x:firstFooter/>
   </x:headerFooter>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -16,15 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <x:si>
     <x:t>受　納　証</x:t>
   </x:si>
   <x:si>
-    <x:t>№4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023年9月30日</x:t>
+    <x:t>№82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>※再発行</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023年10月25日</x:t>
   </x:si>
   <x:si>
     <x:t>T9480005004378</x:t>
@@ -39,37 +42,46 @@
     <x:t>冥加金</x:t>
   </x:si>
   <x:si>
-    <x:t>912-</x:t>
+    <x:t>563,624 -</x:t>
   </x:si>
   <x:si>
     <x:t>円也</x:t>
   </x:si>
   <x:si>
+    <x:t>10/25分</x:t>
+  </x:si>
+  <x:si>
     <x:t>但し</x:t>
   </x:si>
   <x:si>
-    <x:t>あああ：456 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>いいい：456 円 ※軽減税率</x:t>
+    <x:t>※は軽減税率対象です</x:t>
+  </x:si>
+  <x:si>
+    <x:t>あああああ：56 円 ※</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ふぁｓｄ：563,568 円</x:t>
   </x:si>
   <x:si>
     <x:t>10％対象</x:t>
   </x:si>
   <x:si>
-    <x:t>456 円</x:t>
+    <x:t>563,568 円</x:t>
   </x:si>
   <x:si>
     <x:t>消費税</x:t>
   </x:si>
   <x:si>
-    <x:t>41 円</x:t>
+    <x:t>51,233 円</x:t>
   </x:si>
   <x:si>
     <x:t>8％対象</x:t>
   </x:si>
   <x:si>
-    <x:t>57 円</x:t>
+    <x:t>56 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 円</x:t>
   </x:si>
   <x:si>
     <x:t>上記有難くお受けいたしました</x:t>
@@ -88,9 +100,6 @@
   </x:si>
   <x:si>
     <x:t>川崎市多摩区南生田８－１－１</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ああ</x:t>
   </x:si>
   <x:si>
     <x:t>電話０４４－９７６－０１１５㈹</x:t>
@@ -351,7 +360,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="24">
+  <x:cellXfs count="26">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -396,12 +405,20 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -459,15 +476,15 @@
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="733425" cy="733425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1"/>
+        <xdr:cNvPr id="1" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -490,15 +507,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="733425" cy="733425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -521,52 +538,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="733425" cy="733425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId8" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="733425" cy="733425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="733425" cy="733425"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -872,7 +858,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U19"/>
+  <x:dimension ref="A1:U20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -931,14 +917,20 @@
       <x:c r="U1" s="3" t="s"/>
     </x:row>
     <x:row r="2" spans="1:21" customFormat="1" ht="18" customHeight="1">
+      <x:c r="B2" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="G2" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2" s="4" t="s"/>
       <x:c r="I2" s="4" t="s"/>
       <x:c r="J2" s="4" t="s"/>
+      <x:c r="M2" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="R2" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S2" s="4" t="s"/>
       <x:c r="T2" s="4" t="s"/>
@@ -946,13 +938,13 @@
     </x:row>
     <x:row r="3" spans="1:21" customFormat="1" ht="18" customHeight="1">
       <x:c r="G3" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H3" s="4" t="s"/>
       <x:c r="I3" s="4" t="s"/>
       <x:c r="J3" s="4" t="s"/>
       <x:c r="R3" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="S3" s="4" t="s"/>
       <x:c r="T3" s="4" t="s"/>
@@ -960,127 +952,125 @@
     </x:row>
     <x:row r="4" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
       <x:c r="A4" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s"/>
       <x:c r="C4" s="5" t="s"/>
       <x:c r="D4" s="5" t="s"/>
       <x:c r="E4" s="6" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L4" s="5" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="L4" s="5" t="s">
-        <x:v>4</x:v>
       </x:c>
       <x:c r="M4" s="5" t="s"/>
       <x:c r="N4" s="5" t="s"/>
       <x:c r="O4" s="5" t="s"/>
       <x:c r="P4" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
       <x:c r="B5" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M5" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
       <x:c r="B6" s="8" t="s"/>
       <x:c r="C6" s="9" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D6" s="9" t="s"/>
       <x:c r="E6" s="9" t="s"/>
       <x:c r="F6" s="9" t="s"/>
       <x:c r="G6" s="9" t="s"/>
       <x:c r="H6" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I6" s="10" t="s"/>
       <x:c r="M6" s="8" t="s"/>
       <x:c r="N6" s="9" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O6" s="9" t="s"/>
       <x:c r="P6" s="9" t="s"/>
       <x:c r="Q6" s="9" t="s"/>
       <x:c r="R6" s="9" t="s"/>
       <x:c r="S6" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="T6" s="10" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B7" s="7" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M7" s="7" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B8" s="11" t="s"/>
-      <x:c r="C8" s="11" t="s"/>
-      <x:c r="D8" s="11" t="s"/>
-      <x:c r="E8" s="11" t="s"/>
-      <x:c r="F8" s="11" t="s"/>
-      <x:c r="G8" s="11" t="s"/>
+    <x:row r="7" spans="1:21" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="B7" s="7" t="s"/>
+      <x:c r="G7" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="M7" s="7" t="s"/>
+      <x:c r="R7" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:21" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="B8" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
       <x:c r="H8" s="11" t="s"/>
       <x:c r="I8" s="11" t="s"/>
-      <x:c r="M8" s="11" t="s"/>
-      <x:c r="N8" s="11" t="s"/>
-      <x:c r="O8" s="11" t="s"/>
-      <x:c r="P8" s="11" t="s"/>
-      <x:c r="Q8" s="11" t="s"/>
-      <x:c r="R8" s="11" t="s"/>
+      <x:c r="M8" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="R8" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
       <x:c r="S8" s="11" t="s"/>
       <x:c r="T8" s="11" t="s"/>
     </x:row>
     <x:row r="9" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B9" s="11" t="s"/>
-      <x:c r="C9" s="11" t="s"/>
-      <x:c r="D9" s="11" t="s"/>
-      <x:c r="E9" s="11" t="s"/>
-      <x:c r="F9" s="11" t="s"/>
-      <x:c r="G9" s="11" t="s"/>
-      <x:c r="H9" s="11" t="s"/>
-      <x:c r="I9" s="11" t="s"/>
-      <x:c r="M9" s="11" t="s"/>
-      <x:c r="N9" s="11" t="s"/>
-      <x:c r="O9" s="11" t="s"/>
-      <x:c r="P9" s="11" t="s"/>
-      <x:c r="Q9" s="11" t="s"/>
-      <x:c r="R9" s="11" t="s"/>
-      <x:c r="S9" s="11" t="s"/>
-      <x:c r="T9" s="11" t="s"/>
+      <x:c r="B9" s="12" t="s"/>
+      <x:c r="C9" s="12" t="s"/>
+      <x:c r="D9" s="12" t="s"/>
+      <x:c r="E9" s="12" t="s"/>
+      <x:c r="F9" s="12" t="s"/>
+      <x:c r="G9" s="12" t="s"/>
+      <x:c r="H9" s="12" t="s"/>
+      <x:c r="I9" s="12" t="s"/>
+      <x:c r="M9" s="12" t="s"/>
+      <x:c r="N9" s="12" t="s"/>
+      <x:c r="O9" s="12" t="s"/>
+      <x:c r="P9" s="12" t="s"/>
+      <x:c r="Q9" s="12" t="s"/>
+      <x:c r="R9" s="12" t="s"/>
+      <x:c r="S9" s="12" t="s"/>
+      <x:c r="T9" s="12" t="s"/>
     </x:row>
     <x:row r="10" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B10" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C10" s="11" t="s"/>
-      <x:c r="D10" s="11" t="s"/>
-      <x:c r="E10" s="11" t="s"/>
-      <x:c r="F10" s="11" t="s"/>
-      <x:c r="G10" s="11" t="s"/>
-      <x:c r="H10" s="11" t="s"/>
-      <x:c r="I10" s="11" t="s"/>
-      <x:c r="M10" s="11" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="N10" s="11" t="s"/>
-      <x:c r="O10" s="11" t="s"/>
-      <x:c r="P10" s="11" t="s"/>
-      <x:c r="Q10" s="11" t="s"/>
-      <x:c r="R10" s="11" t="s"/>
-      <x:c r="S10" s="11" t="s"/>
-      <x:c r="T10" s="11" t="s"/>
+      <x:c r="B10" s="12" t="s"/>
+      <x:c r="C10" s="12" t="s"/>
+      <x:c r="D10" s="12" t="s"/>
+      <x:c r="E10" s="12" t="s"/>
+      <x:c r="F10" s="12" t="s"/>
+      <x:c r="G10" s="12" t="s"/>
+      <x:c r="H10" s="12" t="s"/>
+      <x:c r="I10" s="12" t="s"/>
+      <x:c r="M10" s="12" t="s"/>
+      <x:c r="N10" s="12" t="s"/>
+      <x:c r="O10" s="12" t="s"/>
+      <x:c r="P10" s="12" t="s"/>
+      <x:c r="Q10" s="12" t="s"/>
+      <x:c r="R10" s="12" t="s"/>
+      <x:c r="S10" s="12" t="s"/>
+      <x:c r="T10" s="12" t="s"/>
     </x:row>
     <x:row r="11" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
       <x:c r="B11" s="12" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C11" s="12" t="s"/>
       <x:c r="D11" s="12" t="s"/>
@@ -1090,7 +1080,7 @@
       <x:c r="H11" s="12" t="s"/>
       <x:c r="I11" s="12" t="s"/>
       <x:c r="M11" s="12" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N11" s="12" t="s"/>
       <x:c r="O11" s="12" t="s"/>
@@ -1100,213 +1090,236 @@
       <x:c r="S11" s="12" t="s"/>
       <x:c r="T11" s="12" t="s"/>
     </x:row>
-    <x:row r="12" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A12" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B12" s="4" t="s"/>
-      <x:c r="C12" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D12" s="4" t="s"/>
-      <x:c r="E12" s="4" t="s"/>
-      <x:c r="F12" s="4" t="s">
+    <x:row r="12" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="B12" s="13" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="G12" s="4" t="s"/>
-      <x:c r="H12" s="4" t="s">
+      <x:c r="C12" s="13" t="s"/>
+      <x:c r="D12" s="13" t="s"/>
+      <x:c r="E12" s="13" t="s"/>
+      <x:c r="F12" s="13" t="s"/>
+      <x:c r="G12" s="13" t="s"/>
+      <x:c r="H12" s="13" t="s"/>
+      <x:c r="I12" s="13" t="s"/>
+      <x:c r="M12" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N12" s="13" t="s"/>
+      <x:c r="O12" s="13" t="s"/>
+      <x:c r="P12" s="13" t="s"/>
+      <x:c r="Q12" s="13" t="s"/>
+      <x:c r="R12" s="13" t="s"/>
+      <x:c r="S12" s="13" t="s"/>
+      <x:c r="T12" s="13" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A13" s="14" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="I12" s="4" t="s"/>
-      <x:c r="J12" s="4" t="s"/>
-      <x:c r="L12" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="M12" s="4" t="s"/>
-      <x:c r="N12" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="O12" s="4" t="s"/>
-      <x:c r="P12" s="4" t="s"/>
-      <x:c r="Q12" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="R12" s="4" t="s"/>
-      <x:c r="S12" s="4" t="s">
+      <x:c r="B13" s="14" t="s"/>
+      <x:c r="C13" s="14" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D13" s="14" t="s"/>
+      <x:c r="E13" s="14" t="s"/>
+      <x:c r="F13" s="14" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G13" s="14" t="s"/>
+      <x:c r="H13" s="14" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I13" s="14" t="s"/>
+      <x:c r="J13" s="14" t="s"/>
+      <x:c r="L13" s="14" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="T12" s="4" t="s"/>
-      <x:c r="U12" s="4" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A13" s="4" t="s">
+      <x:c r="M13" s="14" t="s"/>
+      <x:c r="N13" s="14" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B13" s="4" t="s"/>
-      <x:c r="C13" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D13" s="4" t="s"/>
-      <x:c r="E13" s="4" t="s"/>
-      <x:c r="F13" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G13" s="4" t="s"/>
-      <x:c r="H13" s="4" t="s">
+      <x:c r="O13" s="14" t="s"/>
+      <x:c r="P13" s="14" t="s"/>
+      <x:c r="Q13" s="14" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="I13" s="4" t="s"/>
-      <x:c r="J13" s="4" t="s"/>
-      <x:c r="L13" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="M13" s="4" t="s"/>
-      <x:c r="N13" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="O13" s="4" t="s"/>
-      <x:c r="P13" s="4" t="s"/>
-      <x:c r="Q13" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="R13" s="4" t="s"/>
-      <x:c r="S13" s="4" t="s">
+      <x:c r="R13" s="14" t="s"/>
+      <x:c r="S13" s="14" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="T13" s="14" t="s"/>
+      <x:c r="U13" s="14" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A14" s="14" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B14" s="14" t="s"/>
+      <x:c r="C14" s="14" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D14" s="14" t="s"/>
+      <x:c r="E14" s="14" t="s"/>
+      <x:c r="F14" s="14" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="T13" s="4" t="s"/>
-      <x:c r="U13" s="4" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:21" customFormat="1" ht="21.75" customHeight="1">
-      <x:c r="B14" s="13" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C14" s="13" t="s"/>
-      <x:c r="D14" s="13" t="s"/>
-      <x:c r="E14" s="13" t="s"/>
-      <x:c r="F14" s="13" t="s"/>
-      <x:c r="G14" s="13" t="s"/>
-      <x:c r="H14" s="13" t="s"/>
-      <x:c r="I14" s="13" t="s"/>
-      <x:c r="M14" s="13" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="N14" s="13" t="s"/>
-      <x:c r="O14" s="13" t="s"/>
-      <x:c r="P14" s="13" t="s"/>
-      <x:c r="Q14" s="13" t="s"/>
-      <x:c r="R14" s="13" t="s"/>
-      <x:c r="S14" s="13" t="s"/>
-      <x:c r="T14" s="13" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:21" customFormat="1" ht="18" customHeight="1">
-      <x:c r="E15" s="14" t="s">
+      <x:c r="G14" s="14" t="s"/>
+      <x:c r="H14" s="14" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I14" s="14" t="s"/>
+      <x:c r="J14" s="14" t="s"/>
+      <x:c r="L14" s="14" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F15" s="14" t="s"/>
-      <x:c r="G15" s="14" t="s"/>
-      <x:c r="P15" s="14" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="Q15" s="14" t="s"/>
-      <x:c r="R15" s="14" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
-      <x:c r="A16" s="15" t="s">
+      <x:c r="M14" s="14" t="s"/>
+      <x:c r="N14" s="14" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B16" s="15" t="s"/>
-      <x:c r="C16" s="15" t="s"/>
-      <x:c r="D16" s="15" t="s"/>
-      <x:c r="E16" s="14" t="s"/>
-      <x:c r="F16" s="14" t="s"/>
-      <x:c r="G16" s="14" t="s"/>
-      <x:c r="I16" s="16" t="s">
+      <x:c r="O14" s="14" t="s"/>
+      <x:c r="P14" s="14" t="s"/>
+      <x:c r="Q14" s="14" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="R14" s="14" t="s"/>
+      <x:c r="S14" s="14" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="J16" s="17" t="s"/>
-      <x:c r="L16" s="15" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="M16" s="15" t="s"/>
-      <x:c r="N16" s="15" t="s"/>
-      <x:c r="O16" s="15" t="s"/>
-      <x:c r="P16" s="14" t="s"/>
-      <x:c r="Q16" s="14" t="s"/>
-      <x:c r="R16" s="14" t="s"/>
-      <x:c r="T16" s="16" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="U16" s="17" t="s"/>
+      <x:c r="T14" s="14" t="s"/>
+      <x:c r="U14" s="14" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:21" customFormat="1" ht="21.75" customHeight="1">
+      <x:c r="B15" s="15" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C15" s="15" t="s"/>
+      <x:c r="D15" s="15" t="s"/>
+      <x:c r="E15" s="15" t="s"/>
+      <x:c r="F15" s="15" t="s"/>
+      <x:c r="G15" s="15" t="s"/>
+      <x:c r="H15" s="15" t="s"/>
+      <x:c r="I15" s="15" t="s"/>
+      <x:c r="M15" s="15" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N15" s="15" t="s"/>
+      <x:c r="O15" s="15" t="s"/>
+      <x:c r="P15" s="15" t="s"/>
+      <x:c r="Q15" s="15" t="s"/>
+      <x:c r="R15" s="15" t="s"/>
+      <x:c r="S15" s="15" t="s"/>
+      <x:c r="T15" s="15" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:21" customFormat="1" ht="18" customHeight="1">
+      <x:c r="E16" s="16" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F16" s="16" t="s"/>
+      <x:c r="G16" s="16" t="s"/>
+      <x:c r="P16" s="16" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q16" s="16" t="s"/>
+      <x:c r="R16" s="16" t="s"/>
     </x:row>
     <x:row r="17" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
-      <x:c r="A17" s="18" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B17" s="18" t="s"/>
-      <x:c r="C17" s="18" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D17" s="18" t="s"/>
-      <x:c r="E17" s="18" t="s"/>
-      <x:c r="F17" s="18" t="s"/>
-      <x:c r="G17" s="18" t="s"/>
-      <x:c r="H17" s="18" t="s"/>
-      <x:c r="I17" s="19" t="s">
+      <x:c r="A17" s="17" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="J17" s="20" t="s"/>
-      <x:c r="L17" s="18" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M17" s="18" t="s"/>
-      <x:c r="N17" s="18" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O17" s="18" t="s"/>
-      <x:c r="P17" s="18" t="s"/>
-      <x:c r="Q17" s="18" t="s"/>
-      <x:c r="R17" s="18" t="s"/>
-      <x:c r="S17" s="18" t="s"/>
-      <x:c r="T17" s="19" t="s">
+      <x:c r="B17" s="17" t="s"/>
+      <x:c r="C17" s="17" t="s"/>
+      <x:c r="D17" s="17" t="s"/>
+      <x:c r="E17" s="16" t="s"/>
+      <x:c r="F17" s="16" t="s"/>
+      <x:c r="G17" s="16" t="s"/>
+      <x:c r="I17" s="18" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J17" s="19" t="s"/>
+      <x:c r="L17" s="17" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="U17" s="20" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:21" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B18" s="21" t="s">
+      <x:c r="M17" s="17" t="s"/>
+      <x:c r="N17" s="17" t="s"/>
+      <x:c r="O17" s="17" t="s"/>
+      <x:c r="P17" s="16" t="s"/>
+      <x:c r="Q17" s="16" t="s"/>
+      <x:c r="R17" s="16" t="s"/>
+      <x:c r="T17" s="18" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C18" s="21" t="s"/>
-      <x:c r="D18" s="21" t="s"/>
-      <x:c r="E18" s="21" t="s"/>
-      <x:c r="F18" s="21" t="s"/>
-      <x:c r="G18" s="21" t="s"/>
-      <x:c r="I18" s="22" t="s"/>
-      <x:c r="J18" s="23" t="s"/>
-      <x:c r="M18" s="21" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="N18" s="21" t="s"/>
-      <x:c r="O18" s="21" t="s"/>
-      <x:c r="P18" s="21" t="s"/>
-      <x:c r="Q18" s="21" t="s"/>
-      <x:c r="R18" s="21" t="s"/>
-      <x:c r="T18" s="22" t="s"/>
-      <x:c r="U18" s="23" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:21" customFormat="1" ht="18" customHeight="1"/>
+      <x:c r="U17" s="19" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A18" s="20" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B18" s="20" t="s"/>
+      <x:c r="C18" s="20" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D18" s="20" t="s"/>
+      <x:c r="E18" s="20" t="s"/>
+      <x:c r="F18" s="20" t="s"/>
+      <x:c r="G18" s="20" t="s"/>
+      <x:c r="H18" s="20" t="s"/>
+      <x:c r="I18" s="21" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J18" s="22" t="s"/>
+      <x:c r="L18" s="20" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="M18" s="20" t="s"/>
+      <x:c r="N18" s="20" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O18" s="20" t="s"/>
+      <x:c r="P18" s="20" t="s"/>
+      <x:c r="Q18" s="20" t="s"/>
+      <x:c r="R18" s="20" t="s"/>
+      <x:c r="S18" s="20" t="s"/>
+      <x:c r="T18" s="21" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="U18" s="22" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:21" customFormat="1" ht="18" customHeight="1">
+      <x:c r="B19" s="23" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C19" s="23" t="s"/>
+      <x:c r="D19" s="23" t="s"/>
+      <x:c r="E19" s="23" t="s"/>
+      <x:c r="F19" s="23" t="s"/>
+      <x:c r="G19" s="23" t="s"/>
+      <x:c r="I19" s="24" t="s"/>
+      <x:c r="J19" s="25" t="s"/>
+      <x:c r="M19" s="23" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="N19" s="23" t="s"/>
+      <x:c r="O19" s="23" t="s"/>
+      <x:c r="P19" s="23" t="s"/>
+      <x:c r="Q19" s="23" t="s"/>
+      <x:c r="R19" s="23" t="s"/>
+      <x:c r="T19" s="24" t="s"/>
+      <x:c r="U19" s="25" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:21" customFormat="1" ht="18" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="58">
+  <x:mergeCells count="60">
     <x:mergeCell ref="L1:R1"/>
     <x:mergeCell ref="N6:R6"/>
-    <x:mergeCell ref="M8:T8"/>
     <x:mergeCell ref="M9:T9"/>
     <x:mergeCell ref="M10:T10"/>
     <x:mergeCell ref="M11:T11"/>
-    <x:mergeCell ref="N17:S17"/>
-    <x:mergeCell ref="M18:R18"/>
-    <x:mergeCell ref="M14:T14"/>
-    <x:mergeCell ref="P15:R16"/>
+    <x:mergeCell ref="M12:T12"/>
+    <x:mergeCell ref="M15:T15"/>
+    <x:mergeCell ref="N18:S18"/>
+    <x:mergeCell ref="M19:R19"/>
+    <x:mergeCell ref="E16:G17"/>
+    <x:mergeCell ref="P16:R17"/>
     <x:mergeCell ref="A1:G1"/>
     <x:mergeCell ref="H1:J1"/>
     <x:mergeCell ref="B2:E2"/>
@@ -1318,47 +1331,48 @@
     <x:mergeCell ref="C6:G6"/>
     <x:mergeCell ref="H6:I6"/>
     <x:mergeCell ref="G7:I7"/>
-    <x:mergeCell ref="B8:I8"/>
+    <x:mergeCell ref="G8:I8"/>
     <x:mergeCell ref="B9:I9"/>
     <x:mergeCell ref="B10:I10"/>
     <x:mergeCell ref="B11:I11"/>
-    <x:mergeCell ref="A12:B12"/>
-    <x:mergeCell ref="L12:M12"/>
-    <x:mergeCell ref="C12:E12"/>
-    <x:mergeCell ref="N12:P12"/>
-    <x:mergeCell ref="F12:G12"/>
-    <x:mergeCell ref="H12:J12"/>
+    <x:mergeCell ref="B12:I12"/>
     <x:mergeCell ref="A13:B13"/>
     <x:mergeCell ref="L13:M13"/>
     <x:mergeCell ref="C13:E13"/>
     <x:mergeCell ref="N13:P13"/>
     <x:mergeCell ref="F13:G13"/>
     <x:mergeCell ref="H13:J13"/>
-    <x:mergeCell ref="A16:D16"/>
-    <x:mergeCell ref="L16:O16"/>
-    <x:mergeCell ref="I16:J16"/>
-    <x:mergeCell ref="B14:I14"/>
-    <x:mergeCell ref="E15:G16"/>
+    <x:mergeCell ref="A14:B14"/>
+    <x:mergeCell ref="L14:M14"/>
+    <x:mergeCell ref="C14:E14"/>
+    <x:mergeCell ref="N14:P14"/>
+    <x:mergeCell ref="F14:G14"/>
+    <x:mergeCell ref="H14:J14"/>
+    <x:mergeCell ref="B15:I15"/>
     <x:mergeCell ref="S1:U1"/>
     <x:mergeCell ref="R2:U2"/>
     <x:mergeCell ref="R3:U3"/>
     <x:mergeCell ref="S6:T6"/>
     <x:mergeCell ref="R7:T7"/>
-    <x:mergeCell ref="Q12:R12"/>
-    <x:mergeCell ref="S12:U12"/>
+    <x:mergeCell ref="R8:T8"/>
     <x:mergeCell ref="Q13:R13"/>
     <x:mergeCell ref="S13:U13"/>
-    <x:mergeCell ref="T16:U16"/>
-    <x:mergeCell ref="A17:B17"/>
-    <x:mergeCell ref="L17:M17"/>
-    <x:mergeCell ref="C17:H17"/>
-    <x:mergeCell ref="B18:G18"/>
-    <x:mergeCell ref="I17:J18"/>
-    <x:mergeCell ref="T17:U18"/>
+    <x:mergeCell ref="Q14:R14"/>
+    <x:mergeCell ref="S14:U14"/>
+    <x:mergeCell ref="A17:D17"/>
+    <x:mergeCell ref="L17:O17"/>
+    <x:mergeCell ref="I17:J17"/>
+    <x:mergeCell ref="A18:B18"/>
+    <x:mergeCell ref="L18:M18"/>
+    <x:mergeCell ref="C18:H18"/>
+    <x:mergeCell ref="B19:G19"/>
+    <x:mergeCell ref="I18:J19"/>
+    <x:mergeCell ref="T17:U17"/>
+    <x:mergeCell ref="T18:U19"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0.51181" right="0.51181" top="0.74803" bottom="0.51181" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
     <x:oddHeader/>
     <x:oddFooter/>

--- a/WPF/bin/Debug/files/IroiroFile.xlsx
+++ b/WPF/bin/Debug/files/IroiroFile.xlsx
@@ -16,24 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:t>受　納　証</x:t>
   </x:si>
   <x:si>
-    <x:t>№82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>※再発行</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023年10月25日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T9480005004378</x:t>
-  </x:si>
-  <x:si>
-    <x:t>あああ</x:t>
+    <x:t>№111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023年11月10日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ああああ</x:t>
   </x:si>
   <x:si>
     <x:t>様</x:t>
@@ -42,46 +36,16 @@
     <x:t>冥加金</x:t>
   </x:si>
   <x:si>
-    <x:t>563,624 -</x:t>
+    <x:t>156 -</x:t>
   </x:si>
   <x:si>
     <x:t>円也</x:t>
   </x:si>
   <x:si>
-    <x:t>10/25分</x:t>
-  </x:si>
-  <x:si>
     <x:t>但し</x:t>
   </x:si>
   <x:si>
-    <x:t>※は軽減税率対象です</x:t>
-  </x:si>
-  <x:si>
-    <x:t>あああああ：56 円 ※</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ふぁｓｄ：563,568 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10％対象</x:t>
-  </x:si>
-  <x:si>
-    <x:t>563,568 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>消費税</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51,233 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8％対象</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 円</x:t>
+    <x:t>あああああ</x:t>
   </x:si>
   <x:si>
     <x:t>上記有難くお受けいたしました</x:t>
@@ -102,7 +66,10 @@
     <x:t>川崎市多摩区南生田８－１－１</x:t>
   </x:si>
   <x:si>
-    <x:t>電話０４４－９７６－０１１５㈹</x:t>
+    <x:t>あ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>電話０４４－９７７－３４６６㈹</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -172,7 +139,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="8">
+  <x:borders count="3">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -211,95 +178,10 @@
       <x:left style="thin">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="none">
+      <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="thin">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="thin">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="thin">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="thin">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="thin">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
@@ -310,13 +192,16 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="16">
+  <x:cellStyleXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -344,23 +229,8 @@
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="26">
+  <x:cellXfs count="23">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -369,6 +239,10 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -386,6 +260,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -422,7 +300,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -437,32 +315,12 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -476,15 +334,15 @@
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="733425" cy="733425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 2"/>
+        <xdr:cNvPr id="1" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -507,52 +365,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="733425" cy="733425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3"/>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId7" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="733425" cy="733425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="733425" cy="733425"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -874,7 +701,7 @@
     <x:col min="7" max="7" width="8.570625" style="1" customWidth="1"/>
     <x:col min="8" max="9" width="3.840625" style="1" customWidth="1"/>
     <x:col min="10" max="10" width="4.210625" style="1" customWidth="1"/>
-    <x:col min="11" max="11" width="15.570625" style="1" customWidth="1"/>
+    <x:col min="11" max="11" width="15.570625" style="2" customWidth="1"/>
     <x:col min="12" max="12" width="3.840625" style="1" customWidth="1"/>
     <x:col min="13" max="13" width="7.590625" style="1" customWidth="1"/>
     <x:col min="14" max="14" width="3.840625" style="1" customWidth="1"/>
@@ -887,439 +714,358 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s"/>
-      <x:c r="C1" s="2" t="s"/>
-      <x:c r="D1" s="2" t="s"/>
-      <x:c r="E1" s="2" t="s"/>
-      <x:c r="F1" s="2" t="s"/>
-      <x:c r="G1" s="2" t="s"/>
-      <x:c r="H1" s="3" t="s">
+      <x:c r="H1" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I1" s="3" t="s"/>
-      <x:c r="J1" s="3" t="s"/>
-      <x:c r="L1" s="2" t="s">
+      <x:c r="K1" s="1" t="s"/>
+      <x:c r="L1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="M1" s="2" t="s"/>
-      <x:c r="N1" s="2" t="s"/>
-      <x:c r="O1" s="2" t="s"/>
-      <x:c r="P1" s="2" t="s"/>
-      <x:c r="Q1" s="2" t="s"/>
-      <x:c r="R1" s="2" t="s"/>
-      <x:c r="S1" s="3" t="s">
+      <x:c r="S1" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="T1" s="3" t="s"/>
-      <x:c r="U1" s="3" t="s"/>
     </x:row>
     <x:row r="2" spans="1:21" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B2" s="1" t="s">
+      <x:c r="G2" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G2" s="4" t="s">
+      <x:c r="K2" s="1" t="s"/>
+      <x:c r="R2" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:21" customFormat="1" ht="18" customHeight="1">
+      <x:c r="G3" s="5" t="s"/>
+      <x:c r="K3" s="1" t="s"/>
+      <x:c r="R3" s="5" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
+      <x:c r="A4" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H2" s="4" t="s"/>
-      <x:c r="I2" s="4" t="s"/>
-      <x:c r="J2" s="4" t="s"/>
-      <x:c r="M2" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="R2" s="4" t="s">
+      <x:c r="B4" s="7" t="s"/>
+      <x:c r="C4" s="7" t="s"/>
+      <x:c r="D4" s="7" t="s"/>
+      <x:c r="E4" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K4" s="1" t="s"/>
+      <x:c r="L4" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="S2" s="4" t="s"/>
-      <x:c r="T2" s="4" t="s"/>
-      <x:c r="U2" s="4" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:21" customFormat="1" ht="18" customHeight="1">
-      <x:c r="G3" s="4" t="s">
+      <x:c r="M4" s="7" t="s"/>
+      <x:c r="N4" s="7" t="s"/>
+      <x:c r="O4" s="7" t="s"/>
+      <x:c r="P4" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H3" s="4" t="s"/>
-      <x:c r="I3" s="4" t="s"/>
-      <x:c r="J3" s="4" t="s"/>
-      <x:c r="R3" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="S3" s="4" t="s"/>
-      <x:c r="T3" s="4" t="s"/>
-      <x:c r="U3" s="4" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:21" customFormat="1" ht="19.5" customHeight="1">
-      <x:c r="A4" s="5" t="s">
+    </x:row>
+    <x:row r="5" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
+      <x:c r="B5" s="9" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B4" s="5" t="s"/>
-      <x:c r="C4" s="5" t="s"/>
-      <x:c r="D4" s="5" t="s"/>
-      <x:c r="E4" s="6" t="s">
+      <x:c r="K5" s="1" t="s"/>
+      <x:c r="M5" s="9" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
+      <x:c r="B6" s="10" t="s"/>
+      <x:c r="C6" s="11" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="L4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="M4" s="5" t="s"/>
-      <x:c r="N4" s="5" t="s"/>
-      <x:c r="O4" s="5" t="s"/>
-      <x:c r="P4" s="6" t="s">
+      <x:c r="D6" s="10" t="s"/>
+      <x:c r="E6" s="10" t="s"/>
+      <x:c r="F6" s="10" t="s"/>
+      <x:c r="G6" s="10" t="s"/>
+      <x:c r="H6" s="12" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I6" s="10" t="s"/>
+      <x:c r="K6" s="1" t="s"/>
+      <x:c r="M6" s="10" t="s"/>
+      <x:c r="N6" s="11" t="s">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B5" s="7" t="s">
+      <x:c r="O6" s="10" t="s"/>
+      <x:c r="P6" s="10" t="s"/>
+      <x:c r="Q6" s="10" t="s"/>
+      <x:c r="R6" s="10" t="s"/>
+      <x:c r="S6" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="M5" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B6" s="8" t="s"/>
-      <x:c r="C6" s="9" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D6" s="9" t="s"/>
-      <x:c r="E6" s="9" t="s"/>
-      <x:c r="F6" s="9" t="s"/>
-      <x:c r="G6" s="9" t="s"/>
-      <x:c r="H6" s="10" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I6" s="10" t="s"/>
-      <x:c r="M6" s="8" t="s"/>
-      <x:c r="N6" s="9" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="O6" s="9" t="s"/>
-      <x:c r="P6" s="9" t="s"/>
-      <x:c r="Q6" s="9" t="s"/>
-      <x:c r="R6" s="9" t="s"/>
-      <x:c r="S6" s="10" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="T6" s="10" t="s"/>
     </x:row>
     <x:row r="7" spans="1:21" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="B7" s="7" t="s"/>
-      <x:c r="G7" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="M7" s="7" t="s"/>
-      <x:c r="R7" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="B7" s="9" t="s"/>
+      <x:c r="K7" s="1" t="s"/>
+      <x:c r="M7" s="9" t="s"/>
     </x:row>
     <x:row r="8" spans="1:21" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="B8" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G8" s="13" t="s"/>
+      <x:c r="K8" s="1" t="s"/>
+      <x:c r="M8" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="R8" s="13" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="B9" s="14" t="s"/>
+      <x:c r="C9" s="14" t="s"/>
+      <x:c r="D9" s="14" t="s"/>
+      <x:c r="E9" s="14" t="s"/>
+      <x:c r="F9" s="14" t="s"/>
+      <x:c r="G9" s="14" t="s"/>
+      <x:c r="H9" s="14" t="s"/>
+      <x:c r="I9" s="14" t="s"/>
+      <x:c r="K9" s="1" t="s"/>
+      <x:c r="M9" s="14" t="s"/>
+      <x:c r="N9" s="14" t="s"/>
+      <x:c r="O9" s="14" t="s"/>
+      <x:c r="P9" s="14" t="s"/>
+      <x:c r="Q9" s="14" t="s"/>
+      <x:c r="R9" s="14" t="s"/>
+      <x:c r="S9" s="14" t="s"/>
+      <x:c r="T9" s="14" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="B10" s="14" t="s"/>
+      <x:c r="C10" s="14" t="s"/>
+      <x:c r="D10" s="14" t="s"/>
+      <x:c r="E10" s="14" t="s"/>
+      <x:c r="F10" s="14" t="s"/>
+      <x:c r="G10" s="14" t="s"/>
+      <x:c r="H10" s="14" t="s"/>
+      <x:c r="I10" s="14" t="s"/>
+      <x:c r="K10" s="1" t="s"/>
+      <x:c r="M10" s="14" t="s"/>
+      <x:c r="N10" s="14" t="s"/>
+      <x:c r="O10" s="14" t="s"/>
+      <x:c r="P10" s="14" t="s"/>
+      <x:c r="Q10" s="14" t="s"/>
+      <x:c r="R10" s="14" t="s"/>
+      <x:c r="S10" s="14" t="s"/>
+      <x:c r="T10" s="14" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="B11" s="14" t="s"/>
+      <x:c r="C11" s="14" t="s"/>
+      <x:c r="D11" s="14" t="s"/>
+      <x:c r="E11" s="14" t="s"/>
+      <x:c r="F11" s="14" t="s"/>
+      <x:c r="G11" s="14" t="s"/>
+      <x:c r="H11" s="14" t="s"/>
+      <x:c r="I11" s="14" t="s"/>
+      <x:c r="K11" s="1" t="s"/>
+      <x:c r="M11" s="14" t="s"/>
+      <x:c r="N11" s="14" t="s"/>
+      <x:c r="O11" s="14" t="s"/>
+      <x:c r="P11" s="14" t="s"/>
+      <x:c r="Q11" s="14" t="s"/>
+      <x:c r="R11" s="14" t="s"/>
+      <x:c r="S11" s="14" t="s"/>
+      <x:c r="T11" s="14" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="B12" s="15" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C12" s="15" t="s"/>
+      <x:c r="D12" s="15" t="s"/>
+      <x:c r="E12" s="15" t="s"/>
+      <x:c r="F12" s="15" t="s"/>
+      <x:c r="G12" s="15" t="s"/>
+      <x:c r="H12" s="15" t="s"/>
+      <x:c r="I12" s="15" t="s"/>
+      <x:c r="K12" s="1" t="s"/>
+      <x:c r="M12" s="15" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="N12" s="15" t="s"/>
+      <x:c r="O12" s="15" t="s"/>
+      <x:c r="P12" s="15" t="s"/>
+      <x:c r="Q12" s="15" t="s"/>
+      <x:c r="R12" s="15" t="s"/>
+      <x:c r="S12" s="15" t="s"/>
+      <x:c r="T12" s="15" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A13" s="16" t="s"/>
+      <x:c r="B13" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C13" s="16" t="s"/>
+      <x:c r="D13" s="16" t="s"/>
+      <x:c r="E13" s="16" t="s"/>
+      <x:c r="F13" s="16" t="s"/>
+      <x:c r="G13" s="16" t="s"/>
+      <x:c r="H13" s="16" t="s"/>
+      <x:c r="I13" s="16" t="s"/>
+      <x:c r="J13" s="16" t="s"/>
+      <x:c r="K13" s="1" t="s"/>
+      <x:c r="L13" s="16" t="s"/>
+      <x:c r="M13" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N13" s="16" t="s"/>
+      <x:c r="O13" s="16" t="s"/>
+      <x:c r="P13" s="16" t="s"/>
+      <x:c r="Q13" s="16" t="s"/>
+      <x:c r="R13" s="16" t="s"/>
+      <x:c r="S13" s="16" t="s"/>
+      <x:c r="T13" s="16" t="s"/>
+      <x:c r="U13" s="16" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:21" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A14" s="16" t="s"/>
+      <x:c r="B14" s="16" t="s"/>
+      <x:c r="C14" s="16" t="s"/>
+      <x:c r="D14" s="16" t="s"/>
+      <x:c r="E14" s="16" t="s"/>
+      <x:c r="F14" s="16" t="s"/>
+      <x:c r="G14" s="16" t="s"/>
+      <x:c r="H14" s="16" t="s"/>
+      <x:c r="I14" s="16" t="s"/>
+      <x:c r="J14" s="16" t="s"/>
+      <x:c r="K14" s="1" t="s"/>
+      <x:c r="L14" s="16" t="s"/>
+      <x:c r="M14" s="16" t="s"/>
+      <x:c r="N14" s="16" t="s"/>
+      <x:c r="O14" s="16" t="s"/>
+      <x:c r="P14" s="16" t="s"/>
+      <x:c r="Q14" s="16" t="s"/>
+      <x:c r="R14" s="16" t="s"/>
+      <x:c r="S14" s="16" t="s"/>
+      <x:c r="T14" s="16" t="s"/>
+      <x:c r="U14" s="16" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:21" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <x:c r="A15" s="1" t="s"/>
+      <x:c r="B15" s="1" t="s"/>
+      <x:c r="C15" s="1" t="s"/>
+      <x:c r="D15" s="1" t="s"/>
+      <x:c r="E15" s="1" t="s"/>
+      <x:c r="F15" s="1" t="s"/>
+      <x:c r="G15" s="1" t="s"/>
+      <x:c r="H15" s="1" t="s"/>
+      <x:c r="I15" s="1" t="s"/>
+      <x:c r="J15" s="1" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="1" t="s"/>
+      <x:c r="M15" s="1" t="s"/>
+      <x:c r="N15" s="1" t="s"/>
+      <x:c r="O15" s="1" t="s"/>
+      <x:c r="P15" s="1" t="s"/>
+      <x:c r="Q15" s="1" t="s"/>
+      <x:c r="R15" s="1" t="s"/>
+      <x:c r="S15" s="1" t="s"/>
+      <x:c r="T15" s="1" t="s"/>
+      <x:c r="U15" s="1" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:21" customFormat="1" ht="18" customHeight="1">
+      <x:c r="E16" s="18" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="G8" s="11" t="s">
+      <x:c r="K16" s="1" t="s"/>
+      <x:c r="P16" s="18" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A17" s="19" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="H8" s="11" t="s"/>
-      <x:c r="I8" s="11" t="s"/>
-      <x:c r="M8" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="R8" s="11" t="s">
+      <x:c r="I17" s="20" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J17" s="20" t="s"/>
+      <x:c r="K17" s="1" t="s"/>
+      <x:c r="L17" s="19" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="S8" s="11" t="s"/>
-      <x:c r="T8" s="11" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B9" s="12" t="s"/>
-      <x:c r="C9" s="12" t="s"/>
-      <x:c r="D9" s="12" t="s"/>
-      <x:c r="E9" s="12" t="s"/>
-      <x:c r="F9" s="12" t="s"/>
-      <x:c r="G9" s="12" t="s"/>
-      <x:c r="H9" s="12" t="s"/>
-      <x:c r="I9" s="12" t="s"/>
-      <x:c r="M9" s="12" t="s"/>
-      <x:c r="N9" s="12" t="s"/>
-      <x:c r="O9" s="12" t="s"/>
-      <x:c r="P9" s="12" t="s"/>
-      <x:c r="Q9" s="12" t="s"/>
-      <x:c r="R9" s="12" t="s"/>
-      <x:c r="S9" s="12" t="s"/>
-      <x:c r="T9" s="12" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B10" s="12" t="s"/>
-      <x:c r="C10" s="12" t="s"/>
-      <x:c r="D10" s="12" t="s"/>
-      <x:c r="E10" s="12" t="s"/>
-      <x:c r="F10" s="12" t="s"/>
-      <x:c r="G10" s="12" t="s"/>
-      <x:c r="H10" s="12" t="s"/>
-      <x:c r="I10" s="12" t="s"/>
-      <x:c r="M10" s="12" t="s"/>
-      <x:c r="N10" s="12" t="s"/>
-      <x:c r="O10" s="12" t="s"/>
-      <x:c r="P10" s="12" t="s"/>
-      <x:c r="Q10" s="12" t="s"/>
-      <x:c r="R10" s="12" t="s"/>
-      <x:c r="S10" s="12" t="s"/>
-      <x:c r="T10" s="12" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B11" s="12" t="s">
+      <x:c r="T17" s="20" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C11" s="12" t="s"/>
-      <x:c r="D11" s="12" t="s"/>
-      <x:c r="E11" s="12" t="s"/>
-      <x:c r="F11" s="12" t="s"/>
-      <x:c r="G11" s="12" t="s"/>
-      <x:c r="H11" s="12" t="s"/>
-      <x:c r="I11" s="12" t="s"/>
-      <x:c r="M11" s="12" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="N11" s="12" t="s"/>
-      <x:c r="O11" s="12" t="s"/>
-      <x:c r="P11" s="12" t="s"/>
-      <x:c r="Q11" s="12" t="s"/>
-      <x:c r="R11" s="12" t="s"/>
-      <x:c r="S11" s="12" t="s"/>
-      <x:c r="T11" s="12" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B12" s="13" t="s">
+      <x:c r="U17" s="20" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A18" s="21" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C12" s="13" t="s"/>
-      <x:c r="D12" s="13" t="s"/>
-      <x:c r="E12" s="13" t="s"/>
-      <x:c r="F12" s="13" t="s"/>
-      <x:c r="G12" s="13" t="s"/>
-      <x:c r="H12" s="13" t="s"/>
-      <x:c r="I12" s="13" t="s"/>
-      <x:c r="M12" s="13" t="s">
+      <x:c r="C18" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I18" s="20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J18" s="20" t="s"/>
+      <x:c r="K18" s="1" t="s"/>
+      <x:c r="L18" s="21" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="N12" s="13" t="s"/>
-      <x:c r="O12" s="13" t="s"/>
-      <x:c r="P12" s="13" t="s"/>
-      <x:c r="Q12" s="13" t="s"/>
-      <x:c r="R12" s="13" t="s"/>
-      <x:c r="S12" s="13" t="s"/>
-      <x:c r="T12" s="13" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A13" s="14" t="s">
+      <x:c r="N18" s="21" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B13" s="14" t="s"/>
-      <x:c r="C13" s="14" t="s">
+      <x:c r="T18" s="20" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D13" s="14" t="s"/>
-      <x:c r="E13" s="14" t="s"/>
-      <x:c r="F13" s="14" t="s">
+      <x:c r="U18" s="20" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:21" customFormat="1" ht="18" customHeight="1">
+      <x:c r="B19" s="22" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="G13" s="14" t="s"/>
-      <x:c r="H13" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I13" s="14" t="s"/>
-      <x:c r="J13" s="14" t="s"/>
-      <x:c r="L13" s="14" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="M13" s="14" t="s"/>
-      <x:c r="N13" s="14" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="O13" s="14" t="s"/>
-      <x:c r="P13" s="14" t="s"/>
-      <x:c r="Q13" s="14" t="s">
+      <x:c r="I19" s="20" t="s"/>
+      <x:c r="J19" s="20" t="s"/>
+      <x:c r="K19" s="1" t="s"/>
+      <x:c r="M19" s="22" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="R13" s="14" t="s"/>
-      <x:c r="S13" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="T13" s="14" t="s"/>
-      <x:c r="U13" s="14" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:21" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A14" s="14" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B14" s="14" t="s"/>
-      <x:c r="C14" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D14" s="14" t="s"/>
-      <x:c r="E14" s="14" t="s"/>
-      <x:c r="F14" s="14" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G14" s="14" t="s"/>
-      <x:c r="H14" s="14" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I14" s="14" t="s"/>
-      <x:c r="J14" s="14" t="s"/>
-      <x:c r="L14" s="14" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="M14" s="14" t="s"/>
-      <x:c r="N14" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="O14" s="14" t="s"/>
-      <x:c r="P14" s="14" t="s"/>
-      <x:c r="Q14" s="14" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="R14" s="14" t="s"/>
-      <x:c r="S14" s="14" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="T14" s="14" t="s"/>
-      <x:c r="U14" s="14" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:21" customFormat="1" ht="21.75" customHeight="1">
-      <x:c r="B15" s="15" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C15" s="15" t="s"/>
-      <x:c r="D15" s="15" t="s"/>
-      <x:c r="E15" s="15" t="s"/>
-      <x:c r="F15" s="15" t="s"/>
-      <x:c r="G15" s="15" t="s"/>
-      <x:c r="H15" s="15" t="s"/>
-      <x:c r="I15" s="15" t="s"/>
-      <x:c r="M15" s="15" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N15" s="15" t="s"/>
-      <x:c r="O15" s="15" t="s"/>
-      <x:c r="P15" s="15" t="s"/>
-      <x:c r="Q15" s="15" t="s"/>
-      <x:c r="R15" s="15" t="s"/>
-      <x:c r="S15" s="15" t="s"/>
-      <x:c r="T15" s="15" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:21" customFormat="1" ht="18" customHeight="1">
-      <x:c r="E16" s="16" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F16" s="16" t="s"/>
-      <x:c r="G16" s="16" t="s"/>
-      <x:c r="P16" s="16" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q16" s="16" t="s"/>
-      <x:c r="R16" s="16" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
-      <x:c r="A17" s="17" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B17" s="17" t="s"/>
-      <x:c r="C17" s="17" t="s"/>
-      <x:c r="D17" s="17" t="s"/>
-      <x:c r="E17" s="16" t="s"/>
-      <x:c r="F17" s="16" t="s"/>
-      <x:c r="G17" s="16" t="s"/>
-      <x:c r="I17" s="18" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J17" s="19" t="s"/>
-      <x:c r="L17" s="17" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M17" s="17" t="s"/>
-      <x:c r="N17" s="17" t="s"/>
-      <x:c r="O17" s="17" t="s"/>
-      <x:c r="P17" s="16" t="s"/>
-      <x:c r="Q17" s="16" t="s"/>
-      <x:c r="R17" s="16" t="s"/>
-      <x:c r="T17" s="18" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="U17" s="19" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
-      <x:c r="A18" s="20" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B18" s="20" t="s"/>
-      <x:c r="C18" s="20" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D18" s="20" t="s"/>
-      <x:c r="E18" s="20" t="s"/>
-      <x:c r="F18" s="20" t="s"/>
-      <x:c r="G18" s="20" t="s"/>
-      <x:c r="H18" s="20" t="s"/>
-      <x:c r="I18" s="21" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J18" s="22" t="s"/>
-      <x:c r="L18" s="20" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="M18" s="20" t="s"/>
-      <x:c r="N18" s="20" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O18" s="20" t="s"/>
-      <x:c r="P18" s="20" t="s"/>
-      <x:c r="Q18" s="20" t="s"/>
-      <x:c r="R18" s="20" t="s"/>
-      <x:c r="S18" s="20" t="s"/>
-      <x:c r="T18" s="21" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="U18" s="22" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:21" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B19" s="23" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C19" s="23" t="s"/>
-      <x:c r="D19" s="23" t="s"/>
-      <x:c r="E19" s="23" t="s"/>
-      <x:c r="F19" s="23" t="s"/>
-      <x:c r="G19" s="23" t="s"/>
-      <x:c r="I19" s="24" t="s"/>
-      <x:c r="J19" s="25" t="s"/>
-      <x:c r="M19" s="23" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="N19" s="23" t="s"/>
-      <x:c r="O19" s="23" t="s"/>
-      <x:c r="P19" s="23" t="s"/>
-      <x:c r="Q19" s="23" t="s"/>
-      <x:c r="R19" s="23" t="s"/>
-      <x:c r="T19" s="24" t="s"/>
-      <x:c r="U19" s="25" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:21" customFormat="1" ht="18" customHeight="1"/>
+      <x:c r="T19" s="20" t="s"/>
+      <x:c r="U19" s="20" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:21" s="2" customFormat="1" ht="18" customHeight="1">
+      <x:c r="A20" s="1" t="s"/>
+      <x:c r="B20" s="1" t="s"/>
+      <x:c r="C20" s="1" t="s"/>
+      <x:c r="D20" s="1" t="s"/>
+      <x:c r="E20" s="1" t="s"/>
+      <x:c r="F20" s="1" t="s"/>
+      <x:c r="G20" s="1" t="s"/>
+      <x:c r="H20" s="1" t="s"/>
+      <x:c r="I20" s="1" t="s"/>
+      <x:c r="J20" s="1" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="1" t="s"/>
+      <x:c r="M20" s="1" t="s"/>
+      <x:c r="N20" s="1" t="s"/>
+      <x:c r="O20" s="1" t="s"/>
+      <x:c r="P20" s="1" t="s"/>
+      <x:c r="Q20" s="1" t="s"/>
+      <x:c r="R20" s="1" t="s"/>
+      <x:c r="S20" s="1" t="s"/>
+      <x:c r="T20" s="1" t="s"/>
+      <x:c r="U20" s="1" t="s"/>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="60">
+  <x:mergeCells count="44">
     <x:mergeCell ref="L1:R1"/>
     <x:mergeCell ref="N6:R6"/>
     <x:mergeCell ref="M9:T9"/>
     <x:mergeCell ref="M10:T10"/>
     <x:mergeCell ref="M11:T11"/>
     <x:mergeCell ref="M12:T12"/>
-    <x:mergeCell ref="M15:T15"/>
+    <x:mergeCell ref="M13:T14"/>
+    <x:mergeCell ref="E16:G17"/>
+    <x:mergeCell ref="P16:R17"/>
     <x:mergeCell ref="N18:S18"/>
     <x:mergeCell ref="M19:R19"/>
-    <x:mergeCell ref="E16:G17"/>
-    <x:mergeCell ref="P16:R17"/>
     <x:mergeCell ref="A1:G1"/>
     <x:mergeCell ref="H1:J1"/>
     <x:mergeCell ref="B2:E2"/>
@@ -1336,51 +1082,28 @@
     <x:mergeCell ref="B10:I10"/>
     <x:mergeCell ref="B11:I11"/>
     <x:mergeCell ref="B12:I12"/>
-    <x:mergeCell ref="A13:B13"/>
-    <x:mergeCell ref="L13:M13"/>
-    <x:mergeCell ref="C13:E13"/>
-    <x:mergeCell ref="N13:P13"/>
-    <x:mergeCell ref="F13:G13"/>
-    <x:mergeCell ref="H13:J13"/>
-    <x:mergeCell ref="A14:B14"/>
-    <x:mergeCell ref="L14:M14"/>
-    <x:mergeCell ref="C14:E14"/>
-    <x:mergeCell ref="N14:P14"/>
-    <x:mergeCell ref="F14:G14"/>
-    <x:mergeCell ref="H14:J14"/>
-    <x:mergeCell ref="B15:I15"/>
+    <x:mergeCell ref="B13:I14"/>
     <x:mergeCell ref="S1:U1"/>
     <x:mergeCell ref="R2:U2"/>
     <x:mergeCell ref="R3:U3"/>
     <x:mergeCell ref="S6:T6"/>
     <x:mergeCell ref="R7:T7"/>
     <x:mergeCell ref="R8:T8"/>
-    <x:mergeCell ref="Q13:R13"/>
-    <x:mergeCell ref="S13:U13"/>
-    <x:mergeCell ref="Q14:R14"/>
-    <x:mergeCell ref="S14:U14"/>
     <x:mergeCell ref="A17:D17"/>
     <x:mergeCell ref="L17:O17"/>
     <x:mergeCell ref="I17:J17"/>
     <x:mergeCell ref="A18:B18"/>
     <x:mergeCell ref="L18:M18"/>
     <x:mergeCell ref="C18:H18"/>
+    <x:mergeCell ref="I18:J19"/>
     <x:mergeCell ref="B19:G19"/>
-    <x:mergeCell ref="I18:J19"/>
     <x:mergeCell ref="T17:U17"/>
     <x:mergeCell ref="T18:U19"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.51181" right="0.51181" top="0.74803" bottom="0.51181" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
   <x:tableParts count="0"/>
 </x:worksheet>
